--- a/20150125-outstate/builds/production/data/maindata.xlsx
+++ b/20150125-outstate/builds/production/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26330"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="120" windowWidth="22120" windowHeight="16100" activeTab="1"/>
+    <workbookView xWindow="10100" yWindow="0" windowWidth="22120" windowHeight="16100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mn_data" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="230">
   <si>
     <t>1</t>
   </si>
@@ -695,6 +695,24 @@
   </si>
   <si>
     <t>Source: Minnesota House of Representatives Research Office</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Minnesota House of Representatives Research Office</t>
+  </si>
+  <si>
+    <t>mn_data</t>
+  </si>
+  <si>
+    <t>Minnesota taxes paid versus government aid paid per county, 2010</t>
   </si>
 </sst>
 </file>
@@ -751,7 +769,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -765,6 +783,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="F2" xfId="1"/>
@@ -1078,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA90"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q89" sqref="Q89"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1301,20 +1320,20 @@
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="11">
-        <f t="shared" ref="K2:K33" si="0">O2/E2</f>
+        <f>O2/E2</f>
         <v>2646.3509912831873</v>
       </c>
       <c r="L2" s="11">
-        <f t="shared" ref="L2:L33" si="1">AS2/E2</f>
+        <f>AS2/E2</f>
         <v>1586.1094650908237</v>
       </c>
       <c r="M2" s="11">
-        <f t="shared" ref="M2:M33" si="2">SUM(K2-L2)</f>
+        <f t="shared" ref="M2:M33" si="0">SUM(K2-L2)</f>
         <v>1060.2415261923636</v>
       </c>
       <c r="N2" s="6"/>
       <c r="O2" s="11">
-        <f t="shared" ref="O2:O33" si="3">SUM(P2+Q2+R2+V2+Y2)</f>
+        <f t="shared" ref="O2:O33" si="1">SUM(P2+Q2+R2+V2+Y2)</f>
         <v>27622611.64701391</v>
       </c>
       <c r="P2" s="5">
@@ -1350,7 +1369,7 @@
       </c>
       <c r="Z2" s="6"/>
       <c r="AA2" s="9">
-        <f t="shared" ref="AA2:AA33" si="4">SUM(AB2+AC2+AD2+AE2)</f>
+        <f t="shared" ref="AA2:AA33" si="2">SUM(AB2+AC2+AD2+AE2)</f>
         <v>662335</v>
       </c>
       <c r="AB2" s="6">
@@ -1367,7 +1386,7 @@
       </c>
       <c r="AF2" s="6"/>
       <c r="AG2" s="9">
-        <f t="shared" ref="AG2:AG33" si="5">SUM(AH2+AI2+AJ2)</f>
+        <f t="shared" ref="AG2:AG33" si="3">SUM(AH2+AI2+AJ2)</f>
         <v>341913.36586780025</v>
       </c>
       <c r="AH2" s="5">
@@ -1381,7 +1400,7 @@
       </c>
       <c r="AK2" s="5"/>
       <c r="AL2" s="9">
-        <f t="shared" ref="AL2:AL33" si="6">SUM(AM2+AN2+AO2+AP2+AQ2)</f>
+        <f t="shared" ref="AL2:AL33" si="4">SUM(AM2+AN2+AO2+AP2+AQ2)</f>
         <v>29147940</v>
       </c>
       <c r="AM2" s="5">
@@ -1401,7 +1420,7 @@
       </c>
       <c r="AR2" s="5"/>
       <c r="AS2" s="9">
-        <f t="shared" ref="AS2:AS33" si="7">SUM(AT2+AU2+AV2+AY2+BA2)</f>
+        <f t="shared" ref="AS2:AS33" si="5">SUM(AT2+AU2+AV2+AY2+BA2)</f>
         <v>16555810.596618017</v>
       </c>
       <c r="AT2" s="5">
@@ -1411,7 +1430,7 @@
         <v>3260382</v>
       </c>
       <c r="AV2" s="9">
-        <f t="shared" ref="AV2:AV33" si="8">SUM(AW2+AX2)</f>
+        <f t="shared" ref="AV2:AV33" si="6">SUM(AW2+AX2)</f>
         <v>2368575.4425411206</v>
       </c>
       <c r="AW2" s="5">
@@ -1448,33 +1467,33 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="11">
-        <f t="shared" ref="G3:G66" si="9">SUM(O3+W3+X3+AA3+AG3)</f>
+        <f t="shared" ref="G3:G66" si="7">SUM(O3+W3+X3+AA3+AG3)</f>
         <v>233477244.89231616</v>
       </c>
       <c r="H3" s="11">
-        <f t="shared" ref="H3:H66" si="10">SUM(AS3+AW3+AX3+AZ3)</f>
+        <f t="shared" ref="H3:H66" si="8">SUM(AS3+AW3+AX3+AZ3)</f>
         <v>271699210.00199354</v>
       </c>
       <c r="I3" s="11">
-        <f t="shared" ref="I3:I66" si="11">SUM(G3-H3)</f>
+        <f t="shared" ref="I3:I66" si="9">SUM(G3-H3)</f>
         <v>-38221965.109677374</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="11">
+        <f>O3/E3</f>
+        <v>1757.2487031818312</v>
+      </c>
+      <c r="L3" s="11">
+        <f>AS3/E3</f>
+        <v>1933.2805652300683</v>
+      </c>
+      <c r="M3" s="11">
         <f t="shared" si="0"/>
-        <v>1757.2487031818312</v>
-      </c>
-      <c r="L3" s="11">
-        <f t="shared" si="1"/>
-        <v>1933.2805652300683</v>
-      </c>
-      <c r="M3" s="11">
-        <f t="shared" si="2"/>
         <v>-176.03186204823714</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>219128913.28677434</v>
       </c>
       <c r="P3" s="5">
@@ -1510,7 +1529,7 @@
       </c>
       <c r="Z3" s="6"/>
       <c r="AA3" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4565098</v>
       </c>
       <c r="AB3" s="6">
@@ -1527,7 +1546,7 @@
       </c>
       <c r="AF3" s="6"/>
       <c r="AG3" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8463506.315541843</v>
       </c>
       <c r="AH3" s="5">
@@ -1541,7 +1560,7 @@
       </c>
       <c r="AK3" s="5"/>
       <c r="AL3" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>334338186</v>
       </c>
       <c r="AM3" s="5">
@@ -1561,7 +1580,7 @@
       </c>
       <c r="AR3" s="5"/>
       <c r="AS3" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>241080086.48418951</v>
       </c>
       <c r="AT3" s="5">
@@ -1571,7 +1590,7 @@
         <v>61198799.543062568</v>
       </c>
       <c r="AV3" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>23956197.659942046</v>
       </c>
       <c r="AW3" s="5">
@@ -1608,33 +1627,33 @@
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="11">
+        <f t="shared" si="7"/>
+        <v>95511171.715749681</v>
+      </c>
+      <c r="H4" s="11">
+        <f t="shared" si="8"/>
+        <v>98077092.013495564</v>
+      </c>
+      <c r="I4" s="11">
         <f t="shared" si="9"/>
-        <v>95511171.715749681</v>
-      </c>
-      <c r="H4" s="11">
-        <f t="shared" si="10"/>
-        <v>98077092.013495564</v>
-      </c>
-      <c r="I4" s="11">
-        <f t="shared" si="11"/>
         <v>-2565920.2977458835</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="11">
+        <f>O4/E4</f>
+        <v>1749.0404444431811</v>
+      </c>
+      <c r="L4" s="11">
+        <f>AS4/E4</f>
+        <v>1657.8674061704744</v>
+      </c>
+      <c r="M4" s="11">
         <f t="shared" si="0"/>
-        <v>1749.0404444431811</v>
-      </c>
-      <c r="L4" s="11">
-        <f t="shared" si="1"/>
-        <v>1657.8674061704744</v>
-      </c>
-      <c r="M4" s="11">
-        <f t="shared" si="2"/>
         <v>91.173038272706663</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>90007370.311490536</v>
       </c>
       <c r="P4" s="5">
@@ -1644,7 +1663,7 @@
         <v>28637884.719999999</v>
       </c>
       <c r="R4" s="9">
-        <f t="shared" ref="R4:R67" si="12">SUM(S4+T4+U4)</f>
+        <f t="shared" ref="R4:R67" si="10">SUM(S4+T4+U4)</f>
         <v>6062216</v>
       </c>
       <c r="S4" s="5">
@@ -1670,7 +1689,7 @@
       </c>
       <c r="Z4" s="6"/>
       <c r="AA4" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2297333</v>
       </c>
       <c r="AB4" s="6">
@@ -1687,7 +1706,7 @@
       </c>
       <c r="AF4" s="6"/>
       <c r="AG4" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2525011.1142591364</v>
       </c>
       <c r="AH4" s="5">
@@ -1701,7 +1720,7 @@
       </c>
       <c r="AK4" s="5"/>
       <c r="AL4" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>99957198</v>
       </c>
       <c r="AM4" s="5">
@@ -1721,7 +1740,7 @@
       </c>
       <c r="AR4" s="5"/>
       <c r="AS4" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>85315514.588938788</v>
       </c>
       <c r="AT4" s="5">
@@ -1731,7 +1750,7 @@
         <v>24614990.233912297</v>
       </c>
       <c r="AV4" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>8366323.7076303205</v>
       </c>
       <c r="AW4" s="5">
@@ -1768,33 +1787,33 @@
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="11">
+        <f t="shared" si="7"/>
+        <v>19838894.501415037</v>
+      </c>
+      <c r="H5" s="11">
+        <f t="shared" si="8"/>
+        <v>13456900.678222006</v>
+      </c>
+      <c r="I5" s="11">
         <f t="shared" si="9"/>
-        <v>19838894.501415037</v>
-      </c>
-      <c r="H5" s="11">
-        <f t="shared" si="10"/>
-        <v>13456900.678222006</v>
-      </c>
-      <c r="I5" s="11">
-        <f t="shared" si="11"/>
         <v>6381993.8231930304</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="11">
+        <f>O5/E5</f>
+        <v>2882.9051548248362</v>
+      </c>
+      <c r="L5" s="11">
+        <f>AS5/E5</f>
+        <v>1754.271805079509</v>
+      </c>
+      <c r="M5" s="11">
         <f t="shared" si="0"/>
-        <v>2882.9051548248362</v>
-      </c>
-      <c r="L5" s="11">
-        <f t="shared" si="1"/>
-        <v>1754.271805079509</v>
-      </c>
-      <c r="M5" s="11">
-        <f t="shared" si="2"/>
         <v>1128.6333497453272</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>18957984.298128124</v>
       </c>
       <c r="P5" s="5">
@@ -1804,7 +1823,7 @@
         <v>6165523.2549999999</v>
       </c>
       <c r="R5" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3344759</v>
       </c>
       <c r="S5" s="5">
@@ -1830,7 +1849,7 @@
       </c>
       <c r="Z5" s="6"/>
       <c r="AA5" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>539131</v>
       </c>
       <c r="AB5" s="6">
@@ -1847,7 +1866,7 @@
       </c>
       <c r="AF5" s="6"/>
       <c r="AG5" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>134069.91328691225</v>
       </c>
       <c r="AH5" s="5">
@@ -1861,7 +1880,7 @@
       </c>
       <c r="AK5" s="5"/>
       <c r="AL5" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>19505572</v>
       </c>
       <c r="AM5" s="5">
@@ -1881,7 +1900,7 @@
       </c>
       <c r="AR5" s="5"/>
       <c r="AS5" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>11536091.390202852</v>
       </c>
       <c r="AT5" s="5">
@@ -1891,7 +1910,7 @@
         <v>1283208.6620427698</v>
       </c>
       <c r="AV5" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1549777.0644072955</v>
       </c>
       <c r="AW5" s="5">
@@ -1928,33 +1947,33 @@
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="11">
+        <f t="shared" si="7"/>
+        <v>29774666.832303371</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" si="8"/>
+        <v>18998591.342533767</v>
+      </c>
+      <c r="I6" s="11">
         <f t="shared" si="9"/>
-        <v>29774666.832303371</v>
-      </c>
-      <c r="H6" s="11">
-        <f t="shared" si="10"/>
-        <v>18998591.342533767</v>
-      </c>
-      <c r="I6" s="11">
-        <f t="shared" si="11"/>
         <v>10776075.489769604</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="11">
+        <f>O6/E6</f>
+        <v>2554.293744740683</v>
+      </c>
+      <c r="L6" s="11">
+        <f>AS6/E6</f>
+        <v>1442.0214608366271</v>
+      </c>
+      <c r="M6" s="11">
         <f t="shared" si="0"/>
-        <v>2554.293744740683</v>
-      </c>
-      <c r="L6" s="11">
-        <f t="shared" si="1"/>
-        <v>1442.0214608366271</v>
-      </c>
-      <c r="M6" s="11">
-        <f t="shared" si="2"/>
         <v>1112.2722839040559</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>28636187.172287799</v>
       </c>
       <c r="P6" s="5">
@@ -1964,7 +1983,7 @@
         <v>7763184.9199999999</v>
       </c>
       <c r="R6" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3096990</v>
       </c>
       <c r="S6" s="5">
@@ -1990,7 +2009,7 @@
       </c>
       <c r="Z6" s="6"/>
       <c r="AA6" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>692018</v>
       </c>
       <c r="AB6" s="6">
@@ -2007,7 +2026,7 @@
       </c>
       <c r="AF6" s="6"/>
       <c r="AG6" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>275837.37001557281</v>
       </c>
       <c r="AH6" s="5">
@@ -2021,7 +2040,7 @@
       </c>
       <c r="AK6" s="5"/>
       <c r="AL6" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>25667516</v>
       </c>
       <c r="AM6" s="5">
@@ -2041,7 +2060,7 @@
       </c>
       <c r="AR6" s="5"/>
       <c r="AS6" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>16166502.597439427</v>
       </c>
       <c r="AT6" s="5">
@@ -2051,7 +2070,7 @@
         <v>3406310.1404243382</v>
       </c>
       <c r="AV6" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2256540.3619500883</v>
       </c>
       <c r="AW6" s="5">
@@ -2088,33 +2107,33 @@
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="11">
+        <f t="shared" si="7"/>
+        <v>412821838.72371262</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="8"/>
+        <v>668060149.44851482</v>
+      </c>
+      <c r="I7" s="11">
         <f t="shared" si="9"/>
-        <v>412821838.72371262</v>
-      </c>
-      <c r="H7" s="11">
-        <f t="shared" si="10"/>
-        <v>668060149.44851482</v>
-      </c>
-      <c r="I7" s="11">
-        <f t="shared" si="11"/>
         <v>-255238310.7248022</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="11">
+        <f>O7/E7</f>
+        <v>1630.5850022247262</v>
+      </c>
+      <c r="L7" s="11">
+        <f>AS7/E7</f>
+        <v>2531.0312643490056</v>
+      </c>
+      <c r="M7" s="11">
         <f t="shared" si="0"/>
-        <v>1630.5850022247262</v>
-      </c>
-      <c r="L7" s="11">
-        <f t="shared" si="1"/>
-        <v>2531.0312643490056</v>
-      </c>
-      <c r="M7" s="11">
-        <f t="shared" si="2"/>
         <v>-900.44626212427943</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>388300990.08978736</v>
       </c>
       <c r="P7" s="5">
@@ -2124,7 +2143,7 @@
         <v>81744189.895000011</v>
       </c>
       <c r="R7" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>14427859</v>
       </c>
       <c r="S7" s="5">
@@ -2150,7 +2169,7 @@
       </c>
       <c r="Z7" s="6"/>
       <c r="AA7" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>5028202</v>
       </c>
       <c r="AB7" s="6">
@@ -2167,7 +2186,7 @@
       </c>
       <c r="AF7" s="6"/>
       <c r="AG7" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>17126708.633925244</v>
       </c>
       <c r="AH7" s="5">
@@ -2181,7 +2200,7 @@
       </c>
       <c r="AK7" s="5"/>
       <c r="AL7" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>726000482</v>
       </c>
       <c r="AM7" s="5">
@@ -2201,7 +2220,7 @@
       </c>
       <c r="AR7" s="5"/>
       <c r="AS7" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>602729661.16701484</v>
       </c>
       <c r="AT7" s="5">
@@ -2211,7 +2230,7 @@
         <v>124771461.72694448</v>
       </c>
       <c r="AV7" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>49935566.787893519</v>
       </c>
       <c r="AW7" s="5">
@@ -2248,33 +2267,33 @@
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="11">
+        <f t="shared" si="7"/>
+        <v>42784323.997771449</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="8"/>
+        <v>34020430.461086266</v>
+      </c>
+      <c r="I8" s="11">
         <f t="shared" si="9"/>
-        <v>42784323.997771449</v>
-      </c>
-      <c r="H8" s="11">
-        <f t="shared" si="10"/>
-        <v>34020430.461086266</v>
-      </c>
-      <c r="I8" s="11">
-        <f t="shared" si="11"/>
         <v>8763893.5366851836</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="11">
+        <f>O8/E8</f>
+        <v>2107.0098636732782</v>
+      </c>
+      <c r="L8" s="11">
+        <f>AS8/E8</f>
+        <v>1519.7201831422233</v>
+      </c>
+      <c r="M8" s="11">
         <f t="shared" si="0"/>
-        <v>2107.0098636732782</v>
-      </c>
-      <c r="L8" s="11">
-        <f t="shared" si="1"/>
-        <v>1519.7201831422233</v>
-      </c>
-      <c r="M8" s="11">
-        <f t="shared" si="2"/>
         <v>587.28968053105496</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>40319740.751251854</v>
       </c>
       <c r="P8" s="5">
@@ -2284,7 +2303,7 @@
         <v>11156266.615</v>
       </c>
       <c r="R8" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3115633</v>
       </c>
       <c r="S8" s="5">
@@ -2310,7 +2329,7 @@
       </c>
       <c r="Z8" s="6"/>
       <c r="AA8" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1189827</v>
       </c>
       <c r="AB8" s="6">
@@ -2327,7 +2346,7 @@
       </c>
       <c r="AF8" s="6"/>
       <c r="AG8" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>931841.95651959593</v>
       </c>
       <c r="AH8" s="5">
@@ -2341,7 +2360,7 @@
       </c>
       <c r="AK8" s="5"/>
       <c r="AL8" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>43404144</v>
       </c>
       <c r="AM8" s="5">
@@ -2361,7 +2380,7 @@
       </c>
       <c r="AR8" s="5"/>
       <c r="AS8" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>29081365.424609583</v>
       </c>
       <c r="AT8" s="5">
@@ -2371,7 +2390,7 @@
         <v>6458300</v>
       </c>
       <c r="AV8" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3679122.790386321</v>
       </c>
       <c r="AW8" s="5">
@@ -2408,33 +2427,33 @@
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="11">
+        <f t="shared" si="7"/>
+        <v>38787689.074804783</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="8"/>
+        <v>24592797.796476405</v>
+      </c>
+      <c r="I9" s="11">
         <f t="shared" si="9"/>
-        <v>38787689.074804783</v>
-      </c>
-      <c r="H9" s="11">
-        <f t="shared" si="10"/>
-        <v>24592797.796476405</v>
-      </c>
-      <c r="I9" s="11">
-        <f t="shared" si="11"/>
         <v>14194891.278328378</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="11">
+        <f>O9/E9</f>
+        <v>2648.876268515105</v>
+      </c>
+      <c r="L9" s="11">
+        <f>AS9/E9</f>
+        <v>1504.68066922086</v>
+      </c>
+      <c r="M9" s="11">
         <f t="shared" si="0"/>
-        <v>2648.876268515105</v>
-      </c>
-      <c r="L9" s="11">
-        <f t="shared" si="1"/>
-        <v>1504.68066922086</v>
-      </c>
-      <c r="M9" s="11">
-        <f t="shared" si="2"/>
         <v>1144.1955992942451</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>36668394.1850546</v>
       </c>
       <c r="P9" s="5">
@@ -2444,7 +2463,7 @@
         <v>13727657.425000001</v>
       </c>
       <c r="R9" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2728449</v>
       </c>
       <c r="S9" s="5">
@@ -2470,7 +2489,7 @@
       </c>
       <c r="Z9" s="6"/>
       <c r="AA9" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1022516</v>
       </c>
       <c r="AB9" s="6">
@@ -2487,7 +2506,7 @@
       </c>
       <c r="AF9" s="6"/>
       <c r="AG9" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>724150.07337093423</v>
       </c>
       <c r="AH9" s="5">
@@ -2501,7 +2520,7 @@
       </c>
       <c r="AK9" s="5"/>
       <c r="AL9" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>28042462</v>
       </c>
       <c r="AM9" s="5">
@@ -2521,7 +2540,7 @@
       </c>
       <c r="AR9" s="5"/>
       <c r="AS9" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>20829294.504024364</v>
       </c>
       <c r="AT9" s="5">
@@ -2531,7 +2550,7 @@
         <v>8026654.0536331683</v>
       </c>
       <c r="AV9" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2795006.8516838797</v>
       </c>
       <c r="AW9" s="5">
@@ -2568,33 +2587,33 @@
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="11">
+        <f t="shared" si="7"/>
+        <v>43645729.854025692</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="8"/>
+        <v>39054739.347608402</v>
+      </c>
+      <c r="I10" s="11">
         <f t="shared" si="9"/>
-        <v>43645729.854025692</v>
-      </c>
-      <c r="H10" s="11">
-        <f t="shared" si="10"/>
-        <v>39054739.347608402</v>
-      </c>
-      <c r="I10" s="11">
-        <f t="shared" si="11"/>
         <v>4590990.5064172894</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="11">
+        <f>O10/E10</f>
+        <v>1873.6958856940489</v>
+      </c>
+      <c r="L10" s="11">
+        <f>AS10/E10</f>
+        <v>1528.2130896364115</v>
+      </c>
+      <c r="M10" s="11">
         <f t="shared" si="0"/>
-        <v>1873.6958856940489</v>
-      </c>
-      <c r="L10" s="11">
-        <f t="shared" si="1"/>
-        <v>1528.2130896364115</v>
-      </c>
-      <c r="M10" s="11">
-        <f t="shared" si="2"/>
         <v>345.48279605763742</v>
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>40614232.018304206</v>
       </c>
       <c r="P10" s="5">
@@ -2604,7 +2623,7 @@
         <v>11547491.460000001</v>
       </c>
       <c r="R10" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>4789800.43</v>
       </c>
       <c r="S10" s="5">
@@ -2630,7 +2649,7 @@
       </c>
       <c r="Z10" s="6"/>
       <c r="AA10" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1246130</v>
       </c>
       <c r="AB10" s="6">
@@ -2647,7 +2666,7 @@
       </c>
       <c r="AF10" s="6"/>
       <c r="AG10" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1300608.5457214892</v>
       </c>
       <c r="AH10" s="5">
@@ -2661,7 +2680,7 @@
       </c>
       <c r="AK10" s="5"/>
       <c r="AL10" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>55446224</v>
       </c>
       <c r="AM10" s="5">
@@ -2681,7 +2700,7 @@
       </c>
       <c r="AR10" s="5"/>
       <c r="AS10" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>33125546.930958856</v>
       </c>
       <c r="AT10" s="5">
@@ -2691,7 +2710,7 @@
         <v>6103525</v>
       </c>
       <c r="AV10" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4855809.8935085479</v>
       </c>
       <c r="AW10" s="5">
@@ -2728,33 +2747,33 @@
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="11">
+        <f t="shared" si="7"/>
+        <v>12910315.802933231</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="8"/>
+        <v>6908625.7670112886</v>
+      </c>
+      <c r="I11" s="11">
         <f t="shared" si="9"/>
-        <v>12910315.802933231</v>
-      </c>
-      <c r="H11" s="11">
-        <f t="shared" si="10"/>
-        <v>6908625.7670112886</v>
-      </c>
-      <c r="I11" s="11">
-        <f t="shared" si="11"/>
         <v>6001690.0359219424</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="11">
+        <f>O11/E11</f>
+        <v>3509.6707928484457</v>
+      </c>
+      <c r="L11" s="11">
+        <f>AS11/E11</f>
+        <v>1673.5518415853064</v>
+      </c>
+      <c r="M11" s="11">
         <f t="shared" si="0"/>
-        <v>3509.6707928484457</v>
-      </c>
-      <c r="L11" s="11">
-        <f t="shared" si="1"/>
-        <v>1673.5518415853064</v>
-      </c>
-      <c r="M11" s="11">
-        <f t="shared" si="2"/>
         <v>1836.1189512631393</v>
       </c>
       <c r="N11" s="6"/>
       <c r="O11" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>12487408.680954769</v>
       </c>
       <c r="P11" s="5">
@@ -2764,7 +2783,7 @@
         <v>3534716.7949999999</v>
       </c>
       <c r="R11" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2742833</v>
       </c>
       <c r="S11" s="5">
@@ -2790,7 +2809,7 @@
       </c>
       <c r="Z11" s="6"/>
       <c r="AA11" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>168748</v>
       </c>
       <c r="AB11" s="6">
@@ -2807,7 +2826,7 @@
       </c>
       <c r="AF11" s="6"/>
       <c r="AG11" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>97945.831978461705</v>
       </c>
       <c r="AH11" s="5">
@@ -2821,7 +2840,7 @@
       </c>
       <c r="AK11" s="5"/>
       <c r="AL11" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>16097082</v>
       </c>
       <c r="AM11" s="5">
@@ -2841,7 +2860,7 @@
       </c>
       <c r="AR11" s="5"/>
       <c r="AS11" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>5954497.4523605201</v>
       </c>
       <c r="AT11" s="5">
@@ -2851,7 +2870,7 @@
         <v>1120947.440095722</v>
       </c>
       <c r="AV11" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>823733.84596606507</v>
       </c>
       <c r="AW11" s="5">
@@ -2888,33 +2907,33 @@
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="11">
+        <f t="shared" si="7"/>
+        <v>59643425.865871698</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="8"/>
+        <v>30645887.324164294</v>
+      </c>
+      <c r="I12" s="11">
         <f t="shared" si="9"/>
-        <v>59643425.865871698</v>
-      </c>
-      <c r="H12" s="11">
-        <f t="shared" si="10"/>
-        <v>30645887.324164294</v>
-      </c>
-      <c r="I12" s="11">
-        <f t="shared" si="11"/>
         <v>28997538.541707404</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="11">
+        <f>O12/E12</f>
+        <v>2230.0014901041295</v>
+      </c>
+      <c r="L12" s="11">
+        <f>AS12/E12</f>
+        <v>1028.9271775323366</v>
+      </c>
+      <c r="M12" s="11">
         <f t="shared" si="0"/>
-        <v>2230.0014901041295</v>
-      </c>
-      <c r="L12" s="11">
-        <f t="shared" si="1"/>
-        <v>1028.9271775323366</v>
-      </c>
-      <c r="M12" s="11">
-        <f t="shared" si="2"/>
         <v>1201.0743125717929</v>
       </c>
       <c r="N12" s="6"/>
       <c r="O12" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>55515887.096142299</v>
       </c>
       <c r="P12" s="5">
@@ -2924,7 +2943,7 @@
         <v>19294539.545000002</v>
       </c>
       <c r="R12" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3829848.12</v>
       </c>
       <c r="S12" s="5">
@@ -2950,7 +2969,7 @@
       </c>
       <c r="Z12" s="6"/>
       <c r="AA12" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2077861</v>
       </c>
       <c r="AB12" s="6">
@@ -2967,7 +2986,7 @@
       </c>
       <c r="AF12" s="6"/>
       <c r="AG12" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1349737.5861086485</v>
       </c>
       <c r="AH12" s="5">
@@ -2981,7 +3000,7 @@
       </c>
       <c r="AK12" s="5"/>
       <c r="AL12" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>50906352</v>
       </c>
       <c r="AM12" s="5">
@@ -3001,7 +3020,7 @@
       </c>
       <c r="AR12" s="5"/>
       <c r="AS12" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>25615142.084667522</v>
       </c>
       <c r="AT12" s="5">
@@ -3011,7 +3030,7 @@
         <v>4443096.0494227409</v>
       </c>
       <c r="AV12" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4212750.1754434118</v>
       </c>
       <c r="AW12" s="5">
@@ -3048,33 +3067,33 @@
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="11">
+        <f t="shared" si="7"/>
+        <v>27686996.018056959</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="8"/>
+        <v>21159939.424153913</v>
+      </c>
+      <c r="I13" s="11">
         <f t="shared" si="9"/>
-        <v>27686996.018056959</v>
-      </c>
-      <c r="H13" s="11">
-        <f t="shared" si="10"/>
-        <v>21159939.424153913</v>
-      </c>
-      <c r="I13" s="11">
-        <f t="shared" si="11"/>
         <v>6527056.5939030461</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="11">
+        <f>O13/E13</f>
+        <v>2716.9631173685048</v>
+      </c>
+      <c r="L13" s="11">
+        <f>AS13/E13</f>
+        <v>1867.9821415992137</v>
+      </c>
+      <c r="M13" s="11">
         <f t="shared" si="0"/>
-        <v>2716.9631173685048</v>
-      </c>
-      <c r="L13" s="11">
-        <f t="shared" si="1"/>
-        <v>1867.9821415992137</v>
-      </c>
-      <c r="M13" s="11">
-        <f t="shared" si="2"/>
         <v>848.98097576929104</v>
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>26580050.177216083</v>
       </c>
       <c r="P13" s="5">
@@ -3084,7 +3103,7 @@
         <v>8820549.3499999996</v>
       </c>
       <c r="R13" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3511700</v>
       </c>
       <c r="S13" s="5">
@@ -3110,7 +3129,7 @@
       </c>
       <c r="Z13" s="6"/>
       <c r="AA13" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>628376</v>
       </c>
       <c r="AB13" s="6">
@@ -3127,7 +3146,7 @@
       </c>
       <c r="AF13" s="6"/>
       <c r="AG13" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>213200.25141438967</v>
       </c>
       <c r="AH13" s="5">
@@ -3141,7 +3160,7 @@
       </c>
       <c r="AK13" s="5"/>
       <c r="AL13" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>31169992</v>
       </c>
       <c r="AM13" s="5">
@@ -3161,7 +3180,7 @@
       </c>
       <c r="AR13" s="5"/>
       <c r="AS13" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>18274469.291265108</v>
       </c>
       <c r="AT13" s="5">
@@ -3171,7 +3190,7 @@
         <v>4369112</v>
       </c>
       <c r="AV13" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2272762.8681223812</v>
       </c>
       <c r="AW13" s="5">
@@ -3208,33 +3227,33 @@
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="11">
+        <f t="shared" si="7"/>
+        <v>22568973.435649119</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="8"/>
+        <v>20675967.156162098</v>
+      </c>
+      <c r="I14" s="11">
         <f t="shared" si="9"/>
-        <v>22568973.435649119</v>
-      </c>
-      <c r="H14" s="11">
-        <f t="shared" si="10"/>
-        <v>20675967.156162098</v>
-      </c>
-      <c r="I14" s="11">
-        <f t="shared" si="11"/>
         <v>1893006.2794870213</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="11">
+        <f>O14/E14</f>
+        <v>2215.9803046715001</v>
+      </c>
+      <c r="L14" s="11">
+        <f>AS14/E14</f>
+        <v>1842.5278130241213</v>
+      </c>
+      <c r="M14" s="11">
         <f t="shared" si="0"/>
-        <v>2215.9803046715001</v>
-      </c>
-      <c r="L14" s="11">
-        <f t="shared" si="1"/>
-        <v>1842.5278130241213</v>
-      </c>
-      <c r="M14" s="11">
-        <f t="shared" si="2"/>
         <v>373.45249164737879</v>
       </c>
       <c r="N14" s="6"/>
       <c r="O14" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>21552624.44323501</v>
       </c>
       <c r="P14" s="5">
@@ -3244,7 +3263,7 @@
         <v>5481702.2699999996</v>
       </c>
       <c r="R14" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2676384</v>
       </c>
       <c r="S14" s="5">
@@ -3270,7 +3289,7 @@
       </c>
       <c r="Z14" s="6"/>
       <c r="AA14" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>490537</v>
       </c>
       <c r="AB14" s="6">
@@ -3287,7 +3306,7 @@
       </c>
       <c r="AF14" s="6"/>
       <c r="AG14" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>293912.70241411054</v>
       </c>
       <c r="AH14" s="5">
@@ -3301,7 +3320,7 @@
       </c>
       <c r="AK14" s="5"/>
       <c r="AL14" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>24771386</v>
       </c>
       <c r="AM14" s="5">
@@ -3321,7 +3340,7 @@
       </c>
       <c r="AR14" s="5"/>
       <c r="AS14" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>17920425.509472605</v>
       </c>
       <c r="AT14" s="5">
@@ -3331,7 +3350,7 @@
         <v>5484651.1323166825</v>
       </c>
       <c r="AV14" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1982478.7860478649</v>
       </c>
       <c r="AW14" s="5">
@@ -3368,33 +3387,33 @@
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="11">
+        <f t="shared" si="7"/>
+        <v>83556042.52122131</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="8"/>
+        <v>87799769.224265799</v>
+      </c>
+      <c r="I15" s="11">
         <f t="shared" si="9"/>
-        <v>83556042.52122131</v>
-      </c>
-      <c r="H15" s="11">
-        <f t="shared" si="10"/>
-        <v>87799769.224265799</v>
-      </c>
-      <c r="I15" s="11">
-        <f t="shared" si="11"/>
         <v>-4243726.703044489</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="11">
+        <f>O15/E15</f>
+        <v>2158.0564869487025</v>
+      </c>
+      <c r="L15" s="11">
+        <f>AS15/E15</f>
+        <v>2084.9436069758503</v>
+      </c>
+      <c r="M15" s="11">
         <f t="shared" si="0"/>
-        <v>2158.0564869487025</v>
-      </c>
-      <c r="L15" s="11">
-        <f t="shared" si="1"/>
-        <v>2084.9436069758503</v>
-      </c>
-      <c r="M15" s="11">
-        <f t="shared" si="2"/>
         <v>73.11287997285217</v>
       </c>
       <c r="N15" s="6"/>
       <c r="O15" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>78933074.066635743</v>
       </c>
       <c r="P15" s="5">
@@ -3404,7 +3423,7 @@
         <v>23064755.895</v>
       </c>
       <c r="R15" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5751539.3799999999</v>
       </c>
       <c r="S15" s="5">
@@ -3430,7 +3449,7 @@
       </c>
       <c r="Z15" s="6"/>
       <c r="AA15" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1805805</v>
       </c>
       <c r="AB15" s="6">
@@ -3447,7 +3466,7 @@
       </c>
       <c r="AF15" s="6"/>
       <c r="AG15" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2211063.1645855582</v>
       </c>
       <c r="AH15" s="5">
@@ -3461,7 +3480,7 @@
       </c>
       <c r="AK15" s="5"/>
       <c r="AL15" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>91628678</v>
       </c>
       <c r="AM15" s="5">
@@ -3481,7 +3500,7 @@
       </c>
       <c r="AR15" s="5"/>
       <c r="AS15" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>76258897.36874871</v>
       </c>
       <c r="AT15" s="5">
@@ -3491,7 +3510,7 @@
         <v>26154512.279171914</v>
       </c>
       <c r="AV15" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>6993990.9268241227</v>
       </c>
       <c r="AW15" s="5">
@@ -3528,33 +3547,33 @@
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="11">
+        <f t="shared" si="7"/>
+        <v>280393353.12737876</v>
+      </c>
+      <c r="H16" s="11">
+        <f t="shared" si="8"/>
+        <v>357491632.66847348</v>
+      </c>
+      <c r="I16" s="11">
         <f t="shared" si="9"/>
-        <v>280393353.12737876</v>
-      </c>
-      <c r="H16" s="11">
-        <f t="shared" si="10"/>
-        <v>357491632.66847348</v>
-      </c>
-      <c r="I16" s="11">
-        <f t="shared" si="11"/>
         <v>-77098279.54109472</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="11">
+        <f>O16/E16</f>
+        <v>1743.1007925930548</v>
+      </c>
+      <c r="L16" s="11">
+        <f>AS16/E16</f>
+        <v>2070.0166735109938</v>
+      </c>
+      <c r="M16" s="11">
         <f t="shared" si="0"/>
-        <v>1743.1007925930548</v>
-      </c>
-      <c r="L16" s="11">
-        <f t="shared" si="1"/>
-        <v>2070.0166735109938</v>
-      </c>
-      <c r="M16" s="11">
-        <f t="shared" si="2"/>
         <v>-326.91588091793892</v>
       </c>
       <c r="N16" s="6"/>
       <c r="O16" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>262584189.59780297</v>
       </c>
       <c r="P16" s="5">
@@ -3564,7 +3583,7 @@
         <v>77556620.939999998</v>
       </c>
       <c r="R16" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>14061982.439999999</v>
       </c>
       <c r="S16" s="5">
@@ -3590,7 +3609,7 @@
       </c>
       <c r="Z16" s="6"/>
       <c r="AA16" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>5665971</v>
       </c>
       <c r="AB16" s="6">
@@ -3607,7 +3626,7 @@
       </c>
       <c r="AF16" s="6"/>
       <c r="AG16" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9550279.5295757912</v>
       </c>
       <c r="AH16" s="5">
@@ -3621,7 +3640,7 @@
       </c>
       <c r="AK16" s="5"/>
       <c r="AL16" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>365895810</v>
       </c>
       <c r="AM16" s="5">
@@ -3641,7 +3660,7 @@
       </c>
       <c r="AR16" s="5"/>
       <c r="AS16" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>311831451.7310431</v>
       </c>
       <c r="AT16" s="5">
@@ -3651,7 +3670,7 @@
         <v>105818028.45265964</v>
       </c>
       <c r="AV16" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>28367664.46418108</v>
       </c>
       <c r="AW16" s="5">
@@ -3688,33 +3707,33 @@
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="11">
+        <f t="shared" si="7"/>
+        <v>34319071.220638059</v>
+      </c>
+      <c r="H17" s="11">
+        <f t="shared" si="8"/>
+        <v>23606294.061631057</v>
+      </c>
+      <c r="I17" s="11">
         <f t="shared" si="9"/>
-        <v>34319071.220638059</v>
-      </c>
-      <c r="H17" s="11">
-        <f t="shared" si="10"/>
-        <v>23606294.061631057</v>
-      </c>
-      <c r="I17" s="11">
-        <f t="shared" si="11"/>
         <v>10712777.159007002</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="11">
+        <f>O17/E17</f>
+        <v>2108.5253566598299</v>
+      </c>
+      <c r="L17" s="11">
+        <f>AS17/E17</f>
+        <v>1324.0308704307606</v>
+      </c>
+      <c r="M17" s="11">
         <f t="shared" si="0"/>
-        <v>2108.5253566598299</v>
-      </c>
-      <c r="L17" s="11">
-        <f t="shared" si="1"/>
-        <v>1324.0308704307606</v>
-      </c>
-      <c r="M17" s="11">
-        <f t="shared" si="2"/>
         <v>784.49448622906925</v>
       </c>
       <c r="N17" s="6"/>
       <c r="O17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>32104407.08050257</v>
       </c>
       <c r="P17" s="5">
@@ -3724,7 +3743,7 @@
         <v>8120526.0649999995</v>
       </c>
       <c r="R17" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3342970</v>
       </c>
       <c r="S17" s="5">
@@ -3750,7 +3769,7 @@
       </c>
       <c r="Z17" s="6"/>
       <c r="AA17" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1006112</v>
       </c>
       <c r="AB17" s="6">
@@ -3767,7 +3786,7 @@
       </c>
       <c r="AF17" s="6"/>
       <c r="AG17" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>906030.85013549088</v>
       </c>
       <c r="AH17" s="5">
@@ -3781,7 +3800,7 @@
       </c>
       <c r="AK17" s="5"/>
       <c r="AL17" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>42177300</v>
       </c>
       <c r="AM17" s="5">
@@ -3801,7 +3820,7 @@
       </c>
       <c r="AR17" s="5"/>
       <c r="AS17" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>20159694.033178762</v>
       </c>
       <c r="AT17" s="5">
@@ -3811,7 +3830,7 @@
         <v>2224996.754556214</v>
       </c>
       <c r="AV17" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2854246.3434407925</v>
       </c>
       <c r="AW17" s="5">
@@ -3848,33 +3867,33 @@
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="11">
+        <f t="shared" si="7"/>
+        <v>168575151.7888273</v>
+      </c>
+      <c r="H18" s="11">
+        <f t="shared" si="8"/>
+        <v>179083684.0659813</v>
+      </c>
+      <c r="I18" s="11">
         <f t="shared" si="9"/>
-        <v>168575151.7888273</v>
-      </c>
-      <c r="H18" s="11">
-        <f t="shared" si="10"/>
-        <v>179083684.0659813</v>
-      </c>
-      <c r="I18" s="11">
-        <f t="shared" si="11"/>
         <v>-10508532.277153999</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="11">
+        <f>O18/E18</f>
+        <v>1787.6261114183465</v>
+      </c>
+      <c r="L18" s="11">
+        <f>AS18/E18</f>
+        <v>1790.0560250792057</v>
+      </c>
+      <c r="M18" s="11">
         <f t="shared" si="0"/>
-        <v>1787.6261114183465</v>
-      </c>
-      <c r="L18" s="11">
-        <f t="shared" si="1"/>
-        <v>1790.0560250792057</v>
-      </c>
-      <c r="M18" s="11">
-        <f t="shared" si="2"/>
         <v>-2.4299136608592562</v>
       </c>
       <c r="N18" s="6"/>
       <c r="O18" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>158203123.23441225</v>
       </c>
       <c r="P18" s="5">
@@ -3884,7 +3903,7 @@
         <v>34139590.93</v>
       </c>
       <c r="R18" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5172570.2</v>
       </c>
       <c r="S18" s="5">
@@ -3910,7 +3929,7 @@
       </c>
       <c r="Z18" s="6"/>
       <c r="AA18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3090526</v>
       </c>
       <c r="AB18" s="6">
@@ -3927,7 +3946,7 @@
       </c>
       <c r="AF18" s="6"/>
       <c r="AG18" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6342882.2644150453</v>
       </c>
       <c r="AH18" s="5">
@@ -3941,7 +3960,7 @@
       </c>
       <c r="AK18" s="5"/>
       <c r="AL18" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>250711068</v>
       </c>
       <c r="AM18" s="5">
@@ -3961,7 +3980,7 @@
       </c>
       <c r="AR18" s="5"/>
       <c r="AS18" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>158418168.16348463</v>
       </c>
       <c r="AT18" s="5">
@@ -3971,7 +3990,7 @@
         <v>34969125.747506589</v>
       </c>
       <c r="AV18" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>16623628.918735981</v>
       </c>
       <c r="AW18" s="5">
@@ -4008,33 +4027,33 @@
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="11">
+        <f t="shared" si="7"/>
+        <v>231003337.55966002</v>
+      </c>
+      <c r="H19" s="11">
+        <f t="shared" si="8"/>
+        <v>338134545.71972865</v>
+      </c>
+      <c r="I19" s="11">
         <f t="shared" si="9"/>
-        <v>231003337.55966002</v>
-      </c>
-      <c r="H19" s="11">
-        <f t="shared" si="10"/>
-        <v>338134545.71972865</v>
-      </c>
-      <c r="I19" s="11">
-        <f t="shared" si="11"/>
         <v>-107131208.16006863</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="11">
+        <f>O19/E19</f>
+        <v>1669.795430518313</v>
+      </c>
+      <c r="L19" s="11">
+        <f>AS19/E19</f>
+        <v>2332.3750830516219</v>
+      </c>
+      <c r="M19" s="11">
         <f t="shared" si="0"/>
-        <v>1669.795430518313</v>
-      </c>
-      <c r="L19" s="11">
-        <f t="shared" si="1"/>
-        <v>2332.3750830516219</v>
-      </c>
-      <c r="M19" s="11">
-        <f t="shared" si="2"/>
         <v>-662.57965253330894</v>
       </c>
       <c r="N19" s="6"/>
       <c r="O19" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>216953180.69638336</v>
       </c>
       <c r="P19" s="5">
@@ -4044,7 +4063,7 @@
         <v>43687346.329999998</v>
       </c>
       <c r="R19" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>10823293.370000001</v>
       </c>
       <c r="S19" s="5">
@@ -4070,7 +4089,7 @@
       </c>
       <c r="Z19" s="6"/>
       <c r="AA19" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2653454</v>
       </c>
       <c r="AB19" s="6">
@@ -4087,7 +4106,7 @@
       </c>
       <c r="AF19" s="6"/>
       <c r="AG19" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>10265493.863276657</v>
       </c>
       <c r="AH19" s="5">
@@ -4101,7 +4120,7 @@
       </c>
       <c r="AK19" s="5"/>
       <c r="AL19" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>411745274</v>
       </c>
       <c r="AM19" s="5">
@@ -4121,7 +4140,7 @@
       </c>
       <c r="AR19" s="5"/>
       <c r="AS19" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>303040829.79073113</v>
       </c>
       <c r="AT19" s="5">
@@ -4131,7 +4150,7 @@
         <v>72530462.062060386</v>
       </c>
       <c r="AV19" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>25504023.73133713</v>
       </c>
       <c r="AW19" s="5">
@@ -4168,33 +4187,33 @@
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="11">
+        <f t="shared" si="7"/>
+        <v>499465250.29716974</v>
+      </c>
+      <c r="H20" s="11">
+        <f t="shared" si="8"/>
+        <v>458515995.09810013</v>
+      </c>
+      <c r="I20" s="11">
         <f t="shared" si="9"/>
-        <v>499465250.29716974</v>
-      </c>
-      <c r="H20" s="11">
-        <f t="shared" si="10"/>
-        <v>458515995.09810013</v>
-      </c>
-      <c r="I20" s="11">
-        <f t="shared" si="11"/>
         <v>40949255.199069619</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="11">
+        <f>O20/E20</f>
+        <v>2288.3669725072509</v>
+      </c>
+      <c r="L20" s="11">
+        <f>AS20/E20</f>
+        <v>2015.767875157017</v>
+      </c>
+      <c r="M20" s="11">
         <f t="shared" si="0"/>
-        <v>2288.3669725072509</v>
-      </c>
-      <c r="L20" s="11">
-        <f t="shared" si="1"/>
-        <v>2015.767875157017</v>
-      </c>
-      <c r="M20" s="11">
-        <f t="shared" si="2"/>
         <v>272.59909735023393</v>
       </c>
       <c r="N20" s="6"/>
       <c r="O20" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>458190565.43723679</v>
       </c>
       <c r="P20" s="5">
@@ -4204,7 +4223,7 @@
         <v>174548900.84999999</v>
       </c>
       <c r="R20" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>28942804</v>
       </c>
       <c r="S20" s="5">
@@ -4230,7 +4249,7 @@
       </c>
       <c r="Z20" s="6"/>
       <c r="AA20" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>16633031</v>
       </c>
       <c r="AB20" s="6">
@@ -4247,7 +4266,7 @@
       </c>
       <c r="AF20" s="6"/>
       <c r="AG20" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>10591195.384226833</v>
       </c>
       <c r="AH20" s="5">
@@ -4261,7 +4280,7 @@
       </c>
       <c r="AK20" s="5"/>
       <c r="AL20" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>450763458</v>
       </c>
       <c r="AM20" s="5">
@@ -4281,7 +4300,7 @@
       </c>
       <c r="AR20" s="5"/>
       <c r="AS20" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>403609138.57118887</v>
       </c>
       <c r="AT20" s="5">
@@ -4291,7 +4310,7 @@
         <v>153950253.36197892</v>
       </c>
       <c r="AV20" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>36719687.007436596</v>
       </c>
       <c r="AW20" s="5">
@@ -4328,33 +4347,33 @@
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="11">
+        <f t="shared" si="7"/>
+        <v>39145852.083756544</v>
+      </c>
+      <c r="H21" s="11">
+        <f t="shared" si="8"/>
+        <v>27422136.307419602</v>
+      </c>
+      <c r="I21" s="11">
         <f t="shared" si="9"/>
-        <v>39145852.083756544</v>
-      </c>
-      <c r="H21" s="11">
-        <f t="shared" si="10"/>
-        <v>27422136.307419602</v>
-      </c>
-      <c r="I21" s="11">
-        <f t="shared" si="11"/>
         <v>11723715.776336942</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="11">
+        <f>O21/E21</f>
+        <v>2382.7936659001525</v>
+      </c>
+      <c r="L21" s="11">
+        <f>AS21/E21</f>
+        <v>1473.0708633911593</v>
+      </c>
+      <c r="M21" s="11">
         <f t="shared" si="0"/>
-        <v>2382.7936659001525</v>
-      </c>
-      <c r="L21" s="11">
-        <f t="shared" si="1"/>
-        <v>1473.0708633911593</v>
-      </c>
-      <c r="M21" s="11">
-        <f t="shared" si="2"/>
         <v>909.72280250899325</v>
       </c>
       <c r="N21" s="6"/>
       <c r="O21" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>37240682.204353482</v>
       </c>
       <c r="P21" s="5">
@@ -4364,7 +4383,7 @@
         <v>8471060.6699999999</v>
       </c>
       <c r="R21" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>4792796</v>
       </c>
       <c r="S21" s="5">
@@ -4390,7 +4409,7 @@
       </c>
       <c r="Z21" s="6"/>
       <c r="AA21" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1178653</v>
       </c>
       <c r="AB21" s="6">
@@ -4407,7 +4426,7 @@
       </c>
       <c r="AF21" s="6"/>
       <c r="AG21" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>521616.58940306236</v>
       </c>
       <c r="AH21" s="5">
@@ -4421,7 +4440,7 @@
       </c>
       <c r="AK21" s="5"/>
       <c r="AL21" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>32026718</v>
       </c>
       <c r="AM21" s="5">
@@ -4441,7 +4460,7 @@
       </c>
       <c r="AR21" s="5"/>
       <c r="AS21" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>23022624.523940429</v>
       </c>
       <c r="AT21" s="5">
@@ -4451,7 +4470,7 @@
         <v>5633995.0947812134</v>
       </c>
       <c r="AV21" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3189631.2476934013</v>
       </c>
       <c r="AW21" s="5">
@@ -4488,33 +4507,33 @@
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="11">
+        <f t="shared" si="7"/>
+        <v>24780119.100009229</v>
+      </c>
+      <c r="H22" s="11">
+        <f t="shared" si="8"/>
+        <v>17520139.693310201</v>
+      </c>
+      <c r="I22" s="11">
         <f t="shared" si="9"/>
-        <v>24780119.100009229</v>
-      </c>
-      <c r="H22" s="11">
-        <f t="shared" si="10"/>
-        <v>17520139.693310201</v>
-      </c>
-      <c r="I22" s="11">
-        <f t="shared" si="11"/>
         <v>7259979.4066990279</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="11">
+        <f>O22/E22</f>
+        <v>2448.7884479201821</v>
+      </c>
+      <c r="L22" s="11">
+        <f>AS22/E22</f>
+        <v>1557.1897942084154</v>
+      </c>
+      <c r="M22" s="11">
         <f t="shared" si="0"/>
-        <v>2448.7884479201821</v>
-      </c>
-      <c r="L22" s="11">
-        <f t="shared" si="1"/>
-        <v>1557.1897942084154</v>
-      </c>
-      <c r="M22" s="11">
-        <f t="shared" si="2"/>
         <v>891.5986537117667</v>
       </c>
       <c r="N22" s="6"/>
       <c r="O22" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>23721413.695002805</v>
       </c>
       <c r="P22" s="5">
@@ -4524,7 +4543,7 @@
         <v>5796113.875</v>
       </c>
       <c r="R22" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>4146933.9</v>
       </c>
       <c r="S22" s="5">
@@ -4550,7 +4569,7 @@
       </c>
       <c r="Z22" s="6"/>
       <c r="AA22" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>723994</v>
       </c>
       <c r="AB22" s="6">
@@ -4567,7 +4586,7 @@
       </c>
       <c r="AF22" s="6"/>
       <c r="AG22" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>202635.86571709492</v>
       </c>
       <c r="AH22" s="5">
@@ -4581,7 +4600,7 @@
       </c>
       <c r="AK22" s="5"/>
       <c r="AL22" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>21104500</v>
       </c>
       <c r="AM22" s="5">
@@ -4601,7 +4620,7 @@
       </c>
       <c r="AR22" s="5"/>
       <c r="AS22" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>15084497.536496921</v>
       </c>
       <c r="AT22" s="5">
@@ -4611,7 +4630,7 @@
         <v>3058646.0037566139</v>
       </c>
       <c r="AV22" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2008602.8018372881</v>
       </c>
       <c r="AW22" s="5">
@@ -4648,33 +4667,33 @@
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="11">
+        <f t="shared" si="7"/>
+        <v>122847942.64410716</v>
+      </c>
+      <c r="H23" s="11">
+        <f t="shared" si="8"/>
+        <v>118338634.05295669</v>
+      </c>
+      <c r="I23" s="11">
         <f t="shared" si="9"/>
-        <v>122847942.64410716</v>
-      </c>
-      <c r="H23" s="11">
-        <f t="shared" si="10"/>
-        <v>118338634.05295669</v>
-      </c>
-      <c r="I23" s="11">
-        <f t="shared" si="11"/>
         <v>4509308.5911504775</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="11">
+        <f>O23/E23</f>
+        <v>1809.6704855581261</v>
+      </c>
+      <c r="L23" s="11">
+        <f>AS23/E23</f>
+        <v>1604.0569403707625</v>
+      </c>
+      <c r="M23" s="11">
         <f t="shared" si="0"/>
-        <v>1809.6704855581261</v>
-      </c>
-      <c r="L23" s="11">
-        <f t="shared" si="1"/>
-        <v>1604.0569403707625</v>
-      </c>
-      <c r="M23" s="11">
-        <f t="shared" si="2"/>
         <v>205.61354518736357</v>
       </c>
       <c r="N23" s="6"/>
       <c r="O23" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>116075884.28466932</v>
       </c>
       <c r="P23" s="5">
@@ -4684,7 +4703,7 @@
         <v>33089211.73</v>
       </c>
       <c r="R23" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>6049753.2999999998</v>
       </c>
       <c r="S23" s="5">
@@ -4710,7 +4729,7 @@
       </c>
       <c r="Z23" s="6"/>
       <c r="AA23" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2139731</v>
       </c>
       <c r="AB23" s="6">
@@ -4727,7 +4746,7 @@
       </c>
       <c r="AF23" s="6"/>
       <c r="AG23" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3568370.3594378429</v>
       </c>
       <c r="AH23" s="5">
@@ -4741,7 +4760,7 @@
       </c>
       <c r="AK23" s="5"/>
       <c r="AL23" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>140088222</v>
       </c>
       <c r="AM23" s="5">
@@ -4761,7 +4780,7 @@
       </c>
       <c r="AR23" s="5"/>
       <c r="AS23" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>102887420.26926145</v>
       </c>
       <c r="AT23" s="5">
@@ -4771,7 +4790,7 @@
         <v>24624735.741659038</v>
       </c>
       <c r="AV23" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>10977834.704079937</v>
       </c>
       <c r="AW23" s="5">
@@ -4808,33 +4827,33 @@
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="11">
+        <f t="shared" si="7"/>
+        <v>38213250.709348403</v>
+      </c>
+      <c r="H24" s="11">
+        <f t="shared" si="8"/>
+        <v>33139151.004826531</v>
+      </c>
+      <c r="I24" s="11">
         <f t="shared" si="9"/>
-        <v>38213250.709348403</v>
-      </c>
-      <c r="H24" s="11">
-        <f t="shared" si="10"/>
-        <v>33139151.004826531</v>
-      </c>
-      <c r="I24" s="11">
-        <f t="shared" si="11"/>
         <v>5074099.7045218721</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="11">
+        <f>O24/E24</f>
+        <v>2307.2237879318718</v>
+      </c>
+      <c r="L24" s="11">
+        <f>AS24/E24</f>
+        <v>1818.9505710498966</v>
+      </c>
+      <c r="M24" s="11">
         <f t="shared" si="0"/>
-        <v>2307.2237879318718</v>
-      </c>
-      <c r="L24" s="11">
-        <f t="shared" si="1"/>
-        <v>1818.9505710498966</v>
-      </c>
-      <c r="M24" s="11">
-        <f t="shared" si="2"/>
         <v>488.27321688197526</v>
       </c>
       <c r="N24" s="6"/>
       <c r="O24" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>36292630.184168346</v>
       </c>
       <c r="P24" s="5">
@@ -4844,7 +4863,7 @@
         <v>11937381.004999999</v>
       </c>
       <c r="R24" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5440117.9900000002</v>
       </c>
       <c r="S24" s="5">
@@ -4870,7 +4889,7 @@
       </c>
       <c r="Z24" s="6"/>
       <c r="AA24" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1074800</v>
       </c>
       <c r="AB24" s="6">
@@ -4887,7 +4906,7 @@
       </c>
       <c r="AF24" s="6"/>
       <c r="AG24" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>443474.23518005532</v>
       </c>
       <c r="AH24" s="5">
@@ -4901,7 +4920,7 @@
       </c>
       <c r="AK24" s="5"/>
       <c r="AL24" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>47807688</v>
       </c>
       <c r="AM24" s="5">
@@ -4921,7 +4940,7 @@
       </c>
       <c r="AR24" s="5"/>
       <c r="AS24" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>28612092.482614871</v>
       </c>
       <c r="AT24" s="5">
@@ -4931,7 +4950,7 @@
         <v>4372927.9143921426</v>
       </c>
       <c r="AV24" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3600262.2527685929</v>
       </c>
       <c r="AW24" s="5">
@@ -4968,33 +4987,33 @@
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="11">
+        <f t="shared" si="7"/>
+        <v>39893795.99443537</v>
+      </c>
+      <c r="H25" s="11">
+        <f t="shared" si="8"/>
+        <v>34172991.519076385</v>
+      </c>
+      <c r="I25" s="11">
         <f t="shared" si="9"/>
-        <v>39893795.99443537</v>
-      </c>
-      <c r="H25" s="11">
-        <f t="shared" si="10"/>
-        <v>34172991.519076385</v>
-      </c>
-      <c r="I25" s="11">
-        <f t="shared" si="11"/>
         <v>5720804.4753589854</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="11">
+        <f>O25/E25</f>
+        <v>2367.6226312132958</v>
+      </c>
+      <c r="L25" s="11">
+        <f>AS25/E25</f>
+        <v>1846.035790169632</v>
+      </c>
+      <c r="M25" s="11">
         <f t="shared" si="0"/>
-        <v>2367.6226312132958</v>
-      </c>
-      <c r="L25" s="11">
-        <f t="shared" si="1"/>
-        <v>1846.035790169632</v>
-      </c>
-      <c r="M25" s="11">
-        <f t="shared" si="2"/>
         <v>521.58684104366375</v>
       </c>
       <c r="N25" s="6"/>
       <c r="O25" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>38021651.834654316</v>
       </c>
       <c r="P25" s="5">
@@ -5004,7 +5023,7 @@
         <v>11417905.140000001</v>
       </c>
       <c r="R25" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>4983729.41</v>
       </c>
       <c r="S25" s="5">
@@ -5030,7 +5049,7 @@
       </c>
       <c r="Z25" s="6"/>
       <c r="AA25" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>991518</v>
       </c>
       <c r="AB25" s="6">
@@ -5047,7 +5066,7 @@
       </c>
       <c r="AF25" s="6"/>
       <c r="AG25" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>537870.86978105258</v>
       </c>
       <c r="AH25" s="5">
@@ -5061,7 +5080,7 @@
       </c>
       <c r="AK25" s="5"/>
       <c r="AL25" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>41756682</v>
       </c>
       <c r="AM25" s="5">
@@ -5081,7 +5100,7 @@
       </c>
       <c r="AR25" s="5"/>
       <c r="AS25" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>29645488.754334122</v>
       </c>
       <c r="AT25" s="5">
@@ -5091,7 +5110,7 @@
         <v>8691559.2849261574</v>
       </c>
       <c r="AV25" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3597847.6332577951</v>
       </c>
       <c r="AW25" s="5">
@@ -5128,33 +5147,33 @@
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="11">
+        <f t="shared" si="7"/>
+        <v>13342152.696486011</v>
+      </c>
+      <c r="H26" s="11">
+        <f t="shared" si="8"/>
+        <v>7077689.7049944401</v>
+      </c>
+      <c r="I26" s="11">
         <f t="shared" si="9"/>
-        <v>13342152.696486011</v>
-      </c>
-      <c r="H26" s="11">
-        <f t="shared" si="10"/>
-        <v>7077689.7049944401</v>
-      </c>
-      <c r="I26" s="11">
-        <f t="shared" si="11"/>
         <v>6264462.9914915711</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="11">
+        <f>O26/E26</f>
+        <v>3124.5802364414189</v>
+      </c>
+      <c r="L26" s="11">
+        <f>AS26/E26</f>
+        <v>1473.5272847952922</v>
+      </c>
+      <c r="M26" s="11">
         <f t="shared" si="0"/>
-        <v>3124.5802364414189</v>
-      </c>
-      <c r="L26" s="11">
-        <f t="shared" si="1"/>
-        <v>1473.5272847952922</v>
-      </c>
-      <c r="M26" s="11">
-        <f t="shared" si="2"/>
         <v>1651.0529516461268</v>
       </c>
       <c r="N26" s="6"/>
       <c r="O26" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>12776408.586808963</v>
       </c>
       <c r="P26" s="5">
@@ -5164,7 +5183,7 @@
         <v>2814984.895</v>
       </c>
       <c r="R26" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2368819</v>
       </c>
       <c r="S26" s="5">
@@ -5190,7 +5209,7 @@
       </c>
       <c r="Z26" s="6"/>
       <c r="AA26" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>295034</v>
       </c>
       <c r="AB26" s="6">
@@ -5207,7 +5226,7 @@
       </c>
       <c r="AF26" s="6"/>
       <c r="AG26" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>120719.28073648595</v>
       </c>
       <c r="AH26" s="5">
@@ -5221,7 +5240,7 @@
       </c>
       <c r="AK26" s="5"/>
       <c r="AL26" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>9324664</v>
       </c>
       <c r="AM26" s="5">
@@ -5241,7 +5260,7 @@
       </c>
       <c r="AR26" s="5"/>
       <c r="AS26" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>6025253.0675279498</v>
       </c>
       <c r="AT26" s="5">
@@ -5251,7 +5270,7 @@
         <v>1399376</v>
       </c>
       <c r="AV26" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>930378.40809719474</v>
       </c>
       <c r="AW26" s="5">
@@ -5288,33 +5307,33 @@
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="11">
+        <f t="shared" si="7"/>
+        <v>1319338384.2017679</v>
+      </c>
+      <c r="H27" s="11">
+        <f t="shared" si="8"/>
+        <v>1376041633.6658094</v>
+      </c>
+      <c r="I27" s="11">
         <f t="shared" si="9"/>
-        <v>1319338384.2017679</v>
-      </c>
-      <c r="H27" s="11">
-        <f t="shared" si="10"/>
-        <v>1376041633.6658094</v>
-      </c>
-      <c r="I27" s="11">
-        <f t="shared" si="11"/>
         <v>-56703249.464041471</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="11">
+        <f>O27/E27</f>
+        <v>2453.4961027488962</v>
+      </c>
+      <c r="L27" s="11">
+        <f>AS27/E27</f>
+        <v>2366.6281904222296</v>
+      </c>
+      <c r="M27" s="11">
         <f t="shared" si="0"/>
-        <v>2453.4961027488962</v>
-      </c>
-      <c r="L27" s="11">
-        <f t="shared" si="1"/>
-        <v>2366.6281904222296</v>
-      </c>
-      <c r="M27" s="11">
-        <f t="shared" si="2"/>
         <v>86.867912326666556</v>
       </c>
       <c r="N27" s="6"/>
       <c r="O27" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1247946257.7021985</v>
       </c>
       <c r="P27" s="5">
@@ -5324,7 +5343,7 @@
         <v>488553756.25</v>
       </c>
       <c r="R27" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>32867779</v>
       </c>
       <c r="S27" s="5">
@@ -5350,7 +5369,7 @@
       </c>
       <c r="Z27" s="6"/>
       <c r="AA27" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>10915615</v>
       </c>
       <c r="AB27" s="6">
@@ -5367,7 +5386,7 @@
       </c>
       <c r="AF27" s="6"/>
       <c r="AG27" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>49964423.499569327</v>
       </c>
       <c r="AH27" s="5">
@@ -5381,7 +5400,7 @@
       </c>
       <c r="AK27" s="5"/>
       <c r="AL27" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1639566126</v>
       </c>
       <c r="AM27" s="5">
@@ -5401,7 +5420,7 @@
       </c>
       <c r="AR27" s="5"/>
       <c r="AS27" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1203761762.7763629</v>
       </c>
       <c r="AT27" s="5">
@@ -5411,7 +5430,7 @@
         <v>429868591.57727259</v>
       </c>
       <c r="AV27" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>85356619.589741349</v>
       </c>
       <c r="AW27" s="5">
@@ -5448,33 +5467,33 @@
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="11">
+        <f t="shared" si="7"/>
+        <v>26110723.776964877</v>
+      </c>
+      <c r="H28" s="11">
+        <f t="shared" si="8"/>
+        <v>20948338.554130599</v>
+      </c>
+      <c r="I28" s="11">
         <f t="shared" si="9"/>
-        <v>26110723.776964877</v>
-      </c>
-      <c r="H28" s="11">
-        <f t="shared" si="10"/>
-        <v>20948338.554130599</v>
-      </c>
-      <c r="I28" s="11">
-        <f t="shared" si="11"/>
         <v>5162385.2228342779</v>
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="11">
+        <f>O28/E28</f>
+        <v>2236.4278110159898</v>
+      </c>
+      <c r="L28" s="11">
+        <f>AS28/E28</f>
+        <v>1625.9044933704879</v>
+      </c>
+      <c r="M28" s="11">
         <f t="shared" si="0"/>
-        <v>2236.4278110159898</v>
-      </c>
-      <c r="L28" s="11">
-        <f t="shared" si="1"/>
-        <v>1625.9044933704879</v>
-      </c>
-      <c r="M28" s="11">
-        <f t="shared" si="2"/>
         <v>610.52331764550195</v>
       </c>
       <c r="N28" s="6"/>
       <c r="O28" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>24589523.782120809</v>
       </c>
       <c r="P28" s="5">
@@ -5484,7 +5503,7 @@
         <v>7919682.3899999997</v>
       </c>
       <c r="R28" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3063198</v>
       </c>
       <c r="S28" s="5">
@@ -5510,7 +5529,7 @@
       </c>
       <c r="Z28" s="6"/>
       <c r="AA28" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>795063</v>
       </c>
       <c r="AB28" s="6">
@@ -5527,7 +5546,7 @@
       </c>
       <c r="AF28" s="6"/>
       <c r="AG28" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>503999.70484406728</v>
       </c>
       <c r="AH28" s="5">
@@ -5541,7 +5560,7 @@
       </c>
       <c r="AK28" s="5"/>
       <c r="AL28" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>29775838</v>
       </c>
       <c r="AM28" s="5">
@@ -5561,7 +5580,7 @@
       </c>
       <c r="AR28" s="5"/>
       <c r="AS28" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>17876819.904608514</v>
       </c>
       <c r="AT28" s="5">
@@ -5571,7 +5590,7 @@
         <v>3834635.9147415566</v>
       </c>
       <c r="AV28" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2350680.6204641564</v>
       </c>
       <c r="AW28" s="5">
@@ -5608,33 +5627,33 @@
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="11">
+        <f t="shared" si="7"/>
+        <v>92473106.555243313</v>
+      </c>
+      <c r="H29" s="11">
+        <f t="shared" si="8"/>
+        <v>60514286.134659104</v>
+      </c>
+      <c r="I29" s="11">
         <f t="shared" si="9"/>
-        <v>92473106.555243313</v>
-      </c>
-      <c r="H29" s="11">
-        <f t="shared" si="10"/>
-        <v>60514286.134659104</v>
-      </c>
-      <c r="I29" s="11">
-        <f t="shared" si="11"/>
         <v>31958820.420584209</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="11">
+        <f>O29/E29</f>
+        <v>2772.7393914085619</v>
+      </c>
+      <c r="L29" s="11">
+        <f>AS29/E29</f>
+        <v>1650.512118770391</v>
+      </c>
+      <c r="M29" s="11">
         <f t="shared" si="0"/>
-        <v>2772.7393914085619</v>
-      </c>
-      <c r="L29" s="11">
-        <f t="shared" si="1"/>
-        <v>1650.512118770391</v>
-      </c>
-      <c r="M29" s="11">
-        <f t="shared" si="2"/>
         <v>1122.2272726381709</v>
       </c>
       <c r="N29" s="6"/>
       <c r="O29" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>87618564.76851055</v>
       </c>
       <c r="P29" s="5">
@@ -5644,7 +5663,7 @@
         <v>32478937.539999999</v>
       </c>
       <c r="R29" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>8623738.25</v>
       </c>
       <c r="S29" s="5">
@@ -5670,7 +5689,7 @@
       </c>
       <c r="Z29" s="6"/>
       <c r="AA29" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2695599</v>
       </c>
       <c r="AB29" s="6">
@@ -5687,7 +5706,7 @@
       </c>
       <c r="AF29" s="6"/>
       <c r="AG29" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1119020.3468982796</v>
       </c>
       <c r="AH29" s="5">
@@ -5701,7 +5720,7 @@
       </c>
       <c r="AK29" s="5"/>
       <c r="AL29" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>78393928</v>
       </c>
       <c r="AM29" s="5">
@@ -5721,7 +5740,7 @@
       </c>
       <c r="AR29" s="5"/>
       <c r="AS29" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>52156182.953144357</v>
       </c>
       <c r="AT29" s="5">
@@ -5731,7 +5750,7 @@
         <v>13285441.300617348</v>
       </c>
       <c r="AV29" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>6486478.307053335</v>
       </c>
       <c r="AW29" s="5">
@@ -5768,33 +5787,33 @@
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="11">
+        <f t="shared" si="7"/>
+        <v>25995887.374532692</v>
+      </c>
+      <c r="H30" s="11">
+        <f t="shared" si="8"/>
+        <v>17552406.090461284</v>
+      </c>
+      <c r="I30" s="11">
         <f t="shared" si="9"/>
-        <v>25995887.374532692</v>
-      </c>
-      <c r="H30" s="11">
-        <f t="shared" si="10"/>
-        <v>17552406.090461284</v>
-      </c>
-      <c r="I30" s="11">
-        <f t="shared" si="11"/>
         <v>8443481.2840714082</v>
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="11">
+        <f>O30/E30</f>
+        <v>2596.0397236154895</v>
+      </c>
+      <c r="L30" s="11">
+        <f>AS30/E30</f>
+        <v>1540.3978479554301</v>
+      </c>
+      <c r="M30" s="11">
         <f t="shared" si="0"/>
-        <v>2596.0397236154895</v>
-      </c>
-      <c r="L30" s="11">
-        <f t="shared" si="1"/>
-        <v>1540.3978479554301</v>
-      </c>
-      <c r="M30" s="11">
-        <f t="shared" si="2"/>
         <v>1055.6418756600594</v>
       </c>
       <c r="N30" s="6"/>
       <c r="O30" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>24911597.187814236</v>
       </c>
       <c r="P30" s="5">
@@ -5804,7 +5823,7 @@
         <v>6973062.0300000003</v>
       </c>
       <c r="R30" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3298687.5</v>
       </c>
       <c r="S30" s="5">
@@ -5830,7 +5849,7 @@
       </c>
       <c r="Z30" s="6"/>
       <c r="AA30" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>588691</v>
       </c>
       <c r="AB30" s="6">
@@ -5847,7 +5866,7 @@
       </c>
       <c r="AF30" s="6"/>
       <c r="AG30" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>213554.89671845714</v>
       </c>
       <c r="AH30" s="5">
@@ -5861,7 +5880,7 @@
       </c>
       <c r="AK30" s="5"/>
       <c r="AL30" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>20149624</v>
       </c>
       <c r="AM30" s="5">
@@ -5881,7 +5900,7 @@
       </c>
       <c r="AR30" s="5"/>
       <c r="AS30" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>14781657.748980306</v>
       </c>
       <c r="AT30" s="5">
@@ -5891,7 +5910,7 @@
         <v>3582362.4986117221</v>
       </c>
       <c r="AV30" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2146637.2531290622</v>
       </c>
       <c r="AW30" s="5">
@@ -5928,33 +5947,33 @@
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="11">
+        <f t="shared" si="7"/>
+        <v>64097812.410393648</v>
+      </c>
+      <c r="H31" s="11">
+        <f t="shared" si="8"/>
+        <v>45453908.367188789</v>
+      </c>
+      <c r="I31" s="11">
         <f t="shared" si="9"/>
-        <v>64097812.410393648</v>
-      </c>
-      <c r="H31" s="11">
-        <f t="shared" si="10"/>
-        <v>45453908.367188789</v>
-      </c>
-      <c r="I31" s="11">
-        <f t="shared" si="11"/>
         <v>18643904.043204859</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="11">
+        <f>O31/E31</f>
+        <v>2022.1690727340347</v>
+      </c>
+      <c r="L31" s="11">
+        <f>AS31/E31</f>
+        <v>1325.1385064602989</v>
+      </c>
+      <c r="M31" s="11">
         <f t="shared" si="0"/>
-        <v>2022.1690727340347</v>
-      </c>
-      <c r="L31" s="11">
-        <f t="shared" si="1"/>
-        <v>1325.1385064602989</v>
-      </c>
-      <c r="M31" s="11">
-        <f t="shared" si="2"/>
         <v>697.03056627373576</v>
       </c>
       <c r="N31" s="6"/>
       <c r="O31" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>60159529.91383753</v>
       </c>
       <c r="P31" s="5">
@@ -5964,7 +5983,7 @@
         <v>20832160.57</v>
       </c>
       <c r="R31" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>6407993.7800000003</v>
       </c>
       <c r="S31" s="5">
@@ -5990,7 +6009,7 @@
       </c>
       <c r="Z31" s="6"/>
       <c r="AA31" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1957924</v>
       </c>
       <c r="AB31" s="6">
@@ -6007,7 +6026,7 @@
       </c>
       <c r="AF31" s="6"/>
       <c r="AG31" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1439210.2065561158</v>
       </c>
       <c r="AH31" s="5">
@@ -6021,7 +6040,7 @@
       </c>
       <c r="AK31" s="5"/>
       <c r="AL31" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>64162382</v>
       </c>
       <c r="AM31" s="5">
@@ -6041,7 +6060,7 @@
       </c>
       <c r="AR31" s="5"/>
       <c r="AS31" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>39422870.567193896</v>
       </c>
       <c r="AT31" s="5">
@@ -6051,7 +6070,7 @@
         <v>9994536</v>
       </c>
       <c r="AV31" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5005661.3894517245</v>
       </c>
       <c r="AW31" s="5">
@@ -6088,33 +6107,33 @@
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="11">
+        <f t="shared" si="7"/>
+        <v>34801176.978558674</v>
+      </c>
+      <c r="H32" s="11">
+        <f t="shared" si="8"/>
+        <v>41265564.725462228</v>
+      </c>
+      <c r="I32" s="11">
         <f t="shared" si="9"/>
-        <v>34801176.978558674</v>
-      </c>
-      <c r="H32" s="11">
-        <f t="shared" si="10"/>
-        <v>41265564.725462228</v>
-      </c>
-      <c r="I32" s="11">
-        <f t="shared" si="11"/>
         <v>-6464387.7469035536</v>
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="11">
+        <f>O32/E32</f>
+        <v>2365.775492750221</v>
+      </c>
+      <c r="L32" s="11">
+        <f>AS32/E32</f>
+        <v>2644.1309751629683</v>
+      </c>
+      <c r="M32" s="11">
         <f t="shared" si="0"/>
-        <v>2365.775492750221</v>
-      </c>
-      <c r="L32" s="11">
-        <f t="shared" si="1"/>
-        <v>2644.1309751629683</v>
-      </c>
-      <c r="M32" s="11">
-        <f t="shared" si="2"/>
         <v>-278.35548241274728</v>
       </c>
       <c r="N32" s="6"/>
       <c r="O32" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>32955252.61401058</v>
       </c>
       <c r="P32" s="5">
@@ -6124,7 +6143,7 @@
         <v>10514061.85</v>
       </c>
       <c r="R32" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3160367</v>
       </c>
       <c r="S32" s="5">
@@ -6150,7 +6169,7 @@
       </c>
       <c r="Z32" s="6"/>
       <c r="AA32" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>781787</v>
       </c>
       <c r="AB32" s="6">
@@ -6167,7 +6186,7 @@
       </c>
       <c r="AF32" s="6"/>
       <c r="AG32" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>559541.07454809779</v>
       </c>
       <c r="AH32" s="5">
@@ -6181,7 +6200,7 @@
       </c>
       <c r="AK32" s="5"/>
       <c r="AL32" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>27157312</v>
       </c>
       <c r="AM32" s="5">
@@ -6201,7 +6220,7 @@
       </c>
       <c r="AR32" s="5"/>
       <c r="AS32" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>36832744.484020151</v>
       </c>
       <c r="AT32" s="5">
@@ -6211,7 +6230,7 @@
         <v>9956685.1774433535</v>
       </c>
       <c r="AV32" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2714087.5619513327</v>
       </c>
       <c r="AW32" s="5">
@@ -6248,33 +6267,33 @@
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="11">
+        <f t="shared" si="7"/>
+        <v>120660424.62022276</v>
+      </c>
+      <c r="H33" s="11">
+        <f t="shared" si="8"/>
+        <v>128135848.10802387</v>
+      </c>
+      <c r="I33" s="11">
         <f t="shared" si="9"/>
-        <v>120660424.62022276</v>
-      </c>
-      <c r="H33" s="11">
-        <f t="shared" si="10"/>
-        <v>128135848.10802387</v>
-      </c>
-      <c r="I33" s="11">
-        <f t="shared" si="11"/>
         <v>-7475423.4878011048</v>
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="11">
+        <f>O33/E33</f>
+        <v>1991.4140683541418</v>
+      </c>
+      <c r="L33" s="11">
+        <f>AS33/E33</f>
+        <v>1978.135338792328</v>
+      </c>
+      <c r="M33" s="11">
         <f t="shared" si="0"/>
-        <v>1991.4140683541418</v>
-      </c>
-      <c r="L33" s="11">
-        <f t="shared" si="1"/>
-        <v>1978.135338792328</v>
-      </c>
-      <c r="M33" s="11">
-        <f t="shared" si="2"/>
         <v>13.278729561813861</v>
       </c>
       <c r="N33" s="6"/>
       <c r="O33" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>114114000.35889739</v>
       </c>
       <c r="P33" s="5">
@@ -6284,7 +6303,7 @@
         <v>37400451.310000002</v>
       </c>
       <c r="R33" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>11531706.5</v>
       </c>
       <c r="S33" s="5">
@@ -6310,7 +6329,7 @@
       </c>
       <c r="Z33" s="6"/>
       <c r="AA33" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3663254</v>
       </c>
       <c r="AB33" s="6">
@@ -6327,7 +6346,7 @@
       </c>
       <c r="AF33" s="6"/>
       <c r="AG33" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2219000.9713253682</v>
       </c>
       <c r="AH33" s="5">
@@ -6341,7 +6360,7 @@
       </c>
       <c r="AK33" s="5"/>
       <c r="AL33" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>144022044</v>
       </c>
       <c r="AM33" s="5">
@@ -6361,7 +6380,7 @@
       </c>
       <c r="AR33" s="5"/>
       <c r="AS33" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>113353089.31881677</v>
       </c>
       <c r="AT33" s="5">
@@ -6371,7 +6390,7 @@
         <v>39659783.157935031</v>
       </c>
       <c r="AV33" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>11277465.03081861</v>
       </c>
       <c r="AW33" s="5">
@@ -6408,33 +6427,33 @@
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="11">
+        <f t="shared" si="7"/>
+        <v>274816051.11297542</v>
+      </c>
+      <c r="H34" s="11">
+        <f t="shared" si="8"/>
+        <v>417578432.39483362</v>
+      </c>
+      <c r="I34" s="11">
         <f t="shared" si="9"/>
-        <v>274816051.11297542</v>
-      </c>
-      <c r="H34" s="11">
-        <f t="shared" si="10"/>
-        <v>417578432.39483362</v>
-      </c>
-      <c r="I34" s="11">
-        <f t="shared" si="11"/>
         <v>-142762381.28185821</v>
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="11">
-        <f t="shared" ref="K34:K65" si="13">O34/E34</f>
+        <f>O34/E34</f>
         <v>1799.3694348314473</v>
       </c>
       <c r="L34" s="11">
-        <f t="shared" ref="L34:L65" si="14">AS34/E34</f>
+        <f>AS34/E34</f>
         <v>2566.3056654284624</v>
       </c>
       <c r="M34" s="11">
-        <f t="shared" ref="M34:M65" si="15">SUM(K34-L34)</f>
+        <f t="shared" ref="M34:M65" si="11">SUM(K34-L34)</f>
         <v>-766.93623059701508</v>
       </c>
       <c r="N34" s="6"/>
       <c r="O34" s="11">
-        <f t="shared" ref="O34:O65" si="16">SUM(P34+Q34+R34+V34+Y34)</f>
+        <f t="shared" ref="O34:O65" si="12">SUM(P34+Q34+R34+V34+Y34)</f>
         <v>259555442.23556662</v>
       </c>
       <c r="P34" s="5">
@@ -6444,7 +6463,7 @@
         <v>85720797.11500001</v>
       </c>
       <c r="R34" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>9751158</v>
       </c>
       <c r="S34" s="5">
@@ -6470,7 +6489,7 @@
       </c>
       <c r="Z34" s="6"/>
       <c r="AA34" s="9">
-        <f t="shared" ref="AA34:AA65" si="17">SUM(AB34+AC34+AD34+AE34)</f>
+        <f t="shared" ref="AA34:AA65" si="13">SUM(AB34+AC34+AD34+AE34)</f>
         <v>4900024</v>
       </c>
       <c r="AB34" s="6">
@@ -6487,7 +6506,7 @@
       </c>
       <c r="AF34" s="6"/>
       <c r="AG34" s="9">
-        <f t="shared" ref="AG34:AG65" si="18">SUM(AH34+AI34+AJ34)</f>
+        <f t="shared" ref="AG34:AG65" si="14">SUM(AH34+AI34+AJ34)</f>
         <v>8171641.422055318</v>
       </c>
       <c r="AH34" s="5">
@@ -6501,7 +6520,7 @@
       </c>
       <c r="AK34" s="5"/>
       <c r="AL34" s="9">
-        <f t="shared" ref="AL34:AL65" si="19">SUM(AM34+AN34+AO34+AP34+AQ34)</f>
+        <f t="shared" ref="AL34:AL65" si="15">SUM(AM34+AN34+AO34+AP34+AQ34)</f>
         <v>404288434</v>
       </c>
       <c r="AM34" s="5">
@@ -6521,7 +6540,7 @@
       </c>
       <c r="AR34" s="5"/>
       <c r="AS34" s="9">
-        <f t="shared" ref="AS34:AS65" si="20">SUM(AT34+AU34+AV34+AY34+BA34)</f>
+        <f t="shared" ref="AS34:AS65" si="16">SUM(AT34+AU34+AV34+AY34+BA34)</f>
         <v>370184459.62672484</v>
       </c>
       <c r="AT34" s="5">
@@ -6531,7 +6550,7 @@
         <v>114682514.98654886</v>
       </c>
       <c r="AV34" s="9">
-        <f t="shared" ref="AV34:AV65" si="21">SUM(AW34+AX34)</f>
+        <f t="shared" ref="AV34:AV65" si="17">SUM(AW34+AX34)</f>
         <v>27143444.869918339</v>
       </c>
       <c r="AW34" s="5">
@@ -6568,33 +6587,33 @@
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="11">
+        <f t="shared" si="7"/>
+        <v>22810783.720611434</v>
+      </c>
+      <c r="H35" s="11">
+        <f t="shared" si="8"/>
+        <v>12690408.331548963</v>
+      </c>
+      <c r="I35" s="11">
         <f t="shared" si="9"/>
-        <v>22810783.720611434</v>
-      </c>
-      <c r="H35" s="11">
-        <f t="shared" si="10"/>
-        <v>12690408.331548963</v>
-      </c>
-      <c r="I35" s="11">
-        <f t="shared" si="11"/>
         <v>10120375.389062472</v>
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="11">
-        <f t="shared" si="13"/>
+        <f>O35/E35</f>
         <v>3211.6601793474279</v>
       </c>
       <c r="L35" s="11">
-        <f t="shared" si="14"/>
+        <f>AS35/E35</f>
         <v>1596.0985875879453</v>
       </c>
       <c r="M35" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1615.5615917594826</v>
       </c>
       <c r="N35" s="6"/>
       <c r="O35" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>22006295.548888575</v>
       </c>
       <c r="P35" s="5">
@@ -6604,7 +6623,7 @@
         <v>6495595.6349999998</v>
       </c>
       <c r="R35" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3414562</v>
       </c>
       <c r="S35" s="5">
@@ -6630,7 +6649,7 @@
       </c>
       <c r="Z35" s="6"/>
       <c r="AA35" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>507667</v>
       </c>
       <c r="AB35" s="6">
@@ -6647,7 +6666,7 @@
       </c>
       <c r="AF35" s="6"/>
       <c r="AG35" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>187541.4404979127</v>
       </c>
       <c r="AH35" s="5">
@@ -6661,7 +6680,7 @@
       </c>
       <c r="AK35" s="5"/>
       <c r="AL35" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>15199922</v>
       </c>
       <c r="AM35" s="5">
@@ -6681,7 +6700,7 @@
       </c>
       <c r="AR35" s="5"/>
       <c r="AS35" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>10936467.522152601</v>
       </c>
       <c r="AT35" s="5">
@@ -6691,7 +6710,7 @@
         <v>2220762</v>
       </c>
       <c r="AV35" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>1491905.8635708606</v>
       </c>
       <c r="AW35" s="5">
@@ -6728,33 +6747,33 @@
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="11">
+        <f t="shared" si="7"/>
+        <v>55577089.946986325</v>
+      </c>
+      <c r="H36" s="11">
+        <f t="shared" si="8"/>
+        <v>42900426.299165316</v>
+      </c>
+      <c r="I36" s="11">
         <f t="shared" si="9"/>
-        <v>55577089.946986325</v>
-      </c>
-      <c r="H36" s="11">
-        <f t="shared" si="10"/>
-        <v>42900426.299165316</v>
-      </c>
-      <c r="I36" s="11">
-        <f t="shared" si="11"/>
         <v>12676663.647821009</v>
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="11">
-        <f t="shared" si="13"/>
+        <f>O36/E36</f>
         <v>2489.8728245536904</v>
       </c>
       <c r="L36" s="11">
-        <f t="shared" si="14"/>
+        <f>AS36/E36</f>
         <v>1726.1060297555036</v>
       </c>
       <c r="M36" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>763.76679479818677</v>
       </c>
       <c r="N36" s="6"/>
       <c r="O36" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>53228501.24330879</v>
       </c>
       <c r="P36" s="5">
@@ -6764,7 +6783,7 @@
         <v>13802243.885</v>
       </c>
       <c r="R36" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5204286.5</v>
       </c>
       <c r="S36" s="5">
@@ -6790,7 +6809,7 @@
       </c>
       <c r="Z36" s="6"/>
       <c r="AA36" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>1109617</v>
       </c>
       <c r="AB36" s="6">
@@ -6807,7 +6826,7 @@
       </c>
       <c r="AF36" s="6"/>
       <c r="AG36" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>724722.24296687148</v>
       </c>
       <c r="AH36" s="5">
@@ -6821,7 +6840,7 @@
       </c>
       <c r="AK36" s="5"/>
       <c r="AL36" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>48082608</v>
       </c>
       <c r="AM36" s="5">
@@ -6841,7 +6860,7 @@
       </c>
       <c r="AR36" s="5"/>
       <c r="AS36" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>36900694.704113156</v>
       </c>
       <c r="AT36" s="5">
@@ -6851,7 +6870,7 @@
         <v>12337381</v>
       </c>
       <c r="AV36" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>4152571.4957591752</v>
       </c>
       <c r="AW36" s="5">
@@ -6888,33 +6907,33 @@
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="11">
+        <f t="shared" si="7"/>
+        <v>59443151.259513825</v>
+      </c>
+      <c r="H37" s="11">
+        <f t="shared" si="8"/>
+        <v>61951206.573497579</v>
+      </c>
+      <c r="I37" s="11">
         <f t="shared" si="9"/>
-        <v>59443151.259513825</v>
-      </c>
-      <c r="H37" s="11">
-        <f t="shared" si="10"/>
-        <v>61951206.573497579</v>
-      </c>
-      <c r="I37" s="11">
-        <f t="shared" si="11"/>
         <v>-2508055.3139837533</v>
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="11">
-        <f t="shared" si="13"/>
+        <f>O37/E37</f>
         <v>1693.6461583734683</v>
       </c>
       <c r="L37" s="11">
-        <f t="shared" si="14"/>
+        <f>AS37/E37</f>
         <v>1639.9765131364024</v>
       </c>
       <c r="M37" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>53.669645237065879</v>
       </c>
       <c r="N37" s="6"/>
       <c r="O37" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>55427957.825088501</v>
       </c>
       <c r="P37" s="5">
@@ -6924,7 +6943,7 @@
         <v>15512488.869999999</v>
       </c>
       <c r="R37" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>4699598</v>
       </c>
       <c r="S37" s="5">
@@ -6950,7 +6969,7 @@
       </c>
       <c r="Z37" s="6"/>
       <c r="AA37" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>1283755</v>
       </c>
       <c r="AB37" s="6">
@@ -6967,7 +6986,7 @@
       </c>
       <c r="AF37" s="6"/>
       <c r="AG37" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1746609.1444253272</v>
       </c>
       <c r="AH37" s="5">
@@ -6981,7 +7000,7 @@
       </c>
       <c r="AK37" s="5"/>
       <c r="AL37" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>70409792</v>
       </c>
       <c r="AM37" s="5">
@@ -7001,7 +7020,7 @@
       </c>
       <c r="AR37" s="5"/>
       <c r="AS37" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>53671511.345415041</v>
       </c>
       <c r="AT37" s="5">
@@ -7011,7 +7030,7 @@
         <v>10584286.740035122</v>
       </c>
       <c r="AV37" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>5742809.3616379248</v>
       </c>
       <c r="AW37" s="5">
@@ -7048,33 +7067,33 @@
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="11">
+        <f t="shared" si="7"/>
+        <v>23831434.101912778</v>
+      </c>
+      <c r="H38" s="11">
+        <f t="shared" si="8"/>
+        <v>18097894.765866809</v>
+      </c>
+      <c r="I38" s="11">
         <f t="shared" si="9"/>
-        <v>23831434.101912778</v>
-      </c>
-      <c r="H38" s="11">
-        <f t="shared" si="10"/>
-        <v>18097894.765866809</v>
-      </c>
-      <c r="I38" s="11">
-        <f t="shared" si="11"/>
         <v>5733539.3360459693</v>
       </c>
       <c r="J38" s="6"/>
       <c r="K38" s="11">
-        <f t="shared" si="13"/>
+        <f>O38/E38</f>
         <v>2619.133391472913</v>
       </c>
       <c r="L38" s="11">
-        <f t="shared" si="14"/>
+        <f>AS38/E38</f>
         <v>1782.6799116308684</v>
       </c>
       <c r="M38" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>836.45347984204454</v>
       </c>
       <c r="N38" s="6"/>
       <c r="O38" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>22851938.840601165</v>
       </c>
       <c r="P38" s="5">
@@ -7084,7 +7103,7 @@
         <v>6274258.5164533816</v>
       </c>
       <c r="R38" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3426122</v>
       </c>
       <c r="S38" s="5">
@@ -7110,7 +7129,7 @@
       </c>
       <c r="Z38" s="6"/>
       <c r="AA38" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>672263</v>
       </c>
       <c r="AB38" s="6">
@@ -7127,7 +7146,7 @@
       </c>
       <c r="AF38" s="6"/>
       <c r="AG38" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>159981.97131161398</v>
       </c>
       <c r="AH38" s="5">
@@ -7141,7 +7160,7 @@
       </c>
       <c r="AK38" s="5"/>
       <c r="AL38" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>21617432</v>
       </c>
       <c r="AM38" s="5">
@@ -7161,7 +7180,7 @@
       </c>
       <c r="AR38" s="5"/>
       <c r="AS38" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>15553882.228979327</v>
       </c>
       <c r="AT38" s="5">
@@ -7171,7 +7190,7 @@
         <v>3081619.8325464437</v>
       </c>
       <c r="AV38" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>2161829.4863309627</v>
       </c>
       <c r="AW38" s="5">
@@ -7208,33 +7227,33 @@
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="11">
+        <f t="shared" si="7"/>
+        <v>102355752.90114792</v>
+      </c>
+      <c r="H39" s="11">
+        <f t="shared" si="8"/>
+        <v>72832181.752367169</v>
+      </c>
+      <c r="I39" s="11">
         <f t="shared" si="9"/>
-        <v>102355752.90114792</v>
-      </c>
-      <c r="H39" s="11">
-        <f t="shared" si="10"/>
-        <v>72832181.752367169</v>
-      </c>
-      <c r="I39" s="11">
-        <f t="shared" si="11"/>
         <v>29523571.148780748</v>
       </c>
       <c r="J39" s="6"/>
       <c r="K39" s="11">
-        <f t="shared" si="13"/>
+        <f>O39/E39</f>
         <v>2485.9746303958786</v>
       </c>
       <c r="L39" s="11">
-        <f t="shared" si="14"/>
+        <f>AS39/E39</f>
         <v>1604.8936994079438</v>
       </c>
       <c r="M39" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>881.08093098793483</v>
       </c>
       <c r="N39" s="6"/>
       <c r="O39" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>97358224.450193793</v>
       </c>
       <c r="P39" s="5">
@@ -7244,7 +7263,7 @@
         <v>30715258.16</v>
       </c>
       <c r="R39" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>6330101.5700000003</v>
       </c>
       <c r="S39" s="5">
@@ -7270,7 +7289,7 @@
       </c>
       <c r="Z39" s="6"/>
       <c r="AA39" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>2391520</v>
       </c>
       <c r="AB39" s="6">
@@ -7287,7 +7306,7 @@
       </c>
       <c r="AF39" s="6"/>
       <c r="AG39" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1579771.1609541231</v>
       </c>
       <c r="AH39" s="5">
@@ -7301,7 +7320,7 @@
       </c>
       <c r="AK39" s="5"/>
       <c r="AL39" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>73964478</v>
       </c>
       <c r="AM39" s="5">
@@ -7321,7 +7340,7 @@
       </c>
       <c r="AR39" s="5"/>
       <c r="AS39" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>62852451.949913308</v>
       </c>
       <c r="AT39" s="5">
@@ -7331,7 +7350,7 @@
         <v>15720311.006164998</v>
       </c>
       <c r="AV39" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>7110343.1007960532</v>
       </c>
       <c r="AW39" s="5">
@@ -7368,33 +7387,33 @@
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="11">
+        <f t="shared" si="7"/>
+        <v>78422679.849814624</v>
+      </c>
+      <c r="H40" s="11">
+        <f t="shared" si="8"/>
+        <v>55718922.691439867</v>
+      </c>
+      <c r="I40" s="11">
         <f t="shared" si="9"/>
-        <v>78422679.849814624</v>
-      </c>
-      <c r="H40" s="11">
-        <f t="shared" si="10"/>
-        <v>55718922.691439867</v>
-      </c>
-      <c r="I40" s="11">
-        <f t="shared" si="11"/>
         <v>22703757.158374757</v>
       </c>
       <c r="J40" s="6"/>
       <c r="K40" s="11">
-        <f t="shared" si="13"/>
+        <f>O40/E40</f>
         <v>2213.7921164158297</v>
       </c>
       <c r="L40" s="11">
-        <f t="shared" si="14"/>
+        <f>AS40/E40</f>
         <v>1438.7128464786972</v>
       </c>
       <c r="M40" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>775.07926993713249</v>
       </c>
       <c r="N40" s="6"/>
       <c r="O40" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>73493470.680772722</v>
       </c>
       <c r="P40" s="5">
@@ -7404,7 +7423,7 @@
         <v>22045440.365000002</v>
       </c>
       <c r="R40" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>6034946.6799999997</v>
       </c>
       <c r="S40" s="5">
@@ -7430,7 +7449,7 @@
       </c>
       <c r="Z40" s="6"/>
       <c r="AA40" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>2598323</v>
       </c>
       <c r="AB40" s="6">
@@ -7447,7 +7466,7 @@
       </c>
       <c r="AF40" s="6"/>
       <c r="AG40" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1888052.8561322314</v>
       </c>
       <c r="AH40" s="5">
@@ -7461,7 +7480,7 @@
       </c>
       <c r="AK40" s="5"/>
       <c r="AL40" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>71078860</v>
       </c>
       <c r="AM40" s="5">
@@ -7481,7 +7500,7 @@
       </c>
       <c r="AR40" s="5"/>
       <c r="AS40" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>47762389.07739979</v>
       </c>
       <c r="AT40" s="5">
@@ -7491,7 +7510,7 @@
         <v>12470982.4574658</v>
       </c>
       <c r="AV40" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>6479931.3696573917</v>
       </c>
       <c r="AW40" s="5">
@@ -7528,33 +7547,33 @@
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="11">
+        <f t="shared" si="7"/>
+        <v>56429849.716784015</v>
+      </c>
+      <c r="H41" s="11">
+        <f t="shared" si="8"/>
+        <v>42771205.457501628</v>
+      </c>
+      <c r="I41" s="11">
         <f t="shared" si="9"/>
-        <v>56429849.716784015</v>
-      </c>
-      <c r="H41" s="11">
-        <f t="shared" si="10"/>
-        <v>42771205.457501628</v>
-      </c>
-      <c r="I41" s="11">
-        <f t="shared" si="11"/>
         <v>13658644.259282388</v>
       </c>
       <c r="J41" s="6"/>
       <c r="K41" s="11">
-        <f t="shared" si="13"/>
+        <f>O41/E41</f>
         <v>2012.3600919955586</v>
       </c>
       <c r="L41" s="11">
-        <f t="shared" si="14"/>
+        <f>AS41/E41</f>
         <v>1386.3814974768618</v>
       </c>
       <c r="M41" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>625.97859451869681</v>
       </c>
       <c r="N41" s="6"/>
       <c r="O41" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>52516561.32080809</v>
       </c>
       <c r="P41" s="5">
@@ -7564,7 +7583,7 @@
         <v>19609496.850000001</v>
       </c>
       <c r="R41" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5221659.1399999997</v>
       </c>
       <c r="S41" s="5">
@@ -7590,7 +7609,7 @@
       </c>
       <c r="Z41" s="6"/>
       <c r="AA41" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>1470035</v>
       </c>
       <c r="AB41" s="6">
@@ -7607,7 +7626,7 @@
       </c>
       <c r="AF41" s="6"/>
       <c r="AG41" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1751567.1059759248</v>
       </c>
       <c r="AH41" s="5">
@@ -7621,7 +7640,7 @@
       </c>
       <c r="AK41" s="5"/>
       <c r="AL41" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>56100594</v>
       </c>
       <c r="AM41" s="5">
@@ -7641,7 +7660,7 @@
       </c>
       <c r="AR41" s="5"/>
       <c r="AS41" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>36180397.939653665</v>
       </c>
       <c r="AT41" s="5">
@@ -7651,7 +7670,7 @@
         <v>8773392.2434231527</v>
       </c>
       <c r="AV41" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>5314110.5692185108</v>
       </c>
       <c r="AW41" s="5">
@@ -7688,33 +7707,33 @@
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="11">
+        <f t="shared" si="7"/>
+        <v>53303345.026703455</v>
+      </c>
+      <c r="H42" s="11">
+        <f t="shared" si="8"/>
+        <v>41170226.521636367</v>
+      </c>
+      <c r="I42" s="11">
         <f t="shared" si="9"/>
-        <v>53303345.026703455</v>
-      </c>
-      <c r="H42" s="11">
-        <f t="shared" si="10"/>
-        <v>41170226.521636367</v>
-      </c>
-      <c r="I42" s="11">
-        <f t="shared" si="11"/>
         <v>12133118.505067088</v>
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="11">
-        <f t="shared" si="13"/>
+        <f>O42/E42</f>
         <v>2136.7834418509151</v>
       </c>
       <c r="L42" s="11">
-        <f t="shared" si="14"/>
+        <f>AS42/E42</f>
         <v>1527.6322180860784</v>
       </c>
       <c r="M42" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>609.15122376483669</v>
       </c>
       <c r="N42" s="6"/>
       <c r="O42" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>49787054.195126325</v>
       </c>
       <c r="P42" s="5">
@@ -7724,7 +7743,7 @@
         <v>14092379.744999999</v>
       </c>
       <c r="R42" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3436827</v>
       </c>
       <c r="S42" s="5">
@@ -7750,7 +7769,7 @@
       </c>
       <c r="Z42" s="6"/>
       <c r="AA42" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>1412288</v>
       </c>
       <c r="AB42" s="6">
@@ -7767,7 +7786,7 @@
       </c>
       <c r="AF42" s="6"/>
       <c r="AG42" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1540716.541577134</v>
       </c>
       <c r="AH42" s="5">
@@ -7781,7 +7800,7 @@
       </c>
       <c r="AK42" s="5"/>
       <c r="AL42" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>57845298</v>
       </c>
       <c r="AM42" s="5">
@@ -7801,7 +7820,7 @@
       </c>
       <c r="AR42" s="5"/>
       <c r="AS42" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>35593830.681405626</v>
       </c>
       <c r="AT42" s="5">
@@ -7811,7 +7830,7 @@
         <v>8389035.9793577921</v>
       </c>
       <c r="AV42" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>4460585.7804222479</v>
       </c>
       <c r="AW42" s="5">
@@ -7848,33 +7867,33 @@
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="11">
+        <f t="shared" si="7"/>
+        <v>51479449.23859933</v>
+      </c>
+      <c r="H43" s="11">
+        <f t="shared" si="8"/>
+        <v>45524950.825737357</v>
+      </c>
+      <c r="I43" s="11">
         <f t="shared" si="9"/>
-        <v>51479449.23859933</v>
-      </c>
-      <c r="H43" s="11">
-        <f t="shared" si="10"/>
-        <v>45524950.825737357</v>
-      </c>
-      <c r="I43" s="11">
-        <f t="shared" si="11"/>
         <v>5954498.412861973</v>
       </c>
       <c r="J43" s="6"/>
       <c r="K43" s="11">
-        <f t="shared" si="13"/>
+        <f>O43/E43</f>
         <v>2354.1441879139206</v>
       </c>
       <c r="L43" s="11">
-        <f t="shared" si="14"/>
+        <f>AS43/E43</f>
         <v>1866.8578915005417</v>
       </c>
       <c r="M43" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>487.28629641337898</v>
       </c>
       <c r="N43" s="6"/>
       <c r="O43" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>49060364.876126111</v>
       </c>
       <c r="P43" s="5">
@@ -7884,7 +7903,7 @@
         <v>16297544.120803548</v>
       </c>
       <c r="R43" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5035315</v>
       </c>
       <c r="S43" s="5">
@@ -7910,7 +7929,7 @@
       </c>
       <c r="Z43" s="6"/>
       <c r="AA43" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>1201338</v>
       </c>
       <c r="AB43" s="6">
@@ -7927,7 +7946,7 @@
       </c>
       <c r="AF43" s="6"/>
       <c r="AG43" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>679881.0724732189</v>
       </c>
       <c r="AH43" s="5">
@@ -7941,7 +7960,7 @@
       </c>
       <c r="AK43" s="5"/>
       <c r="AL43" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>51639848</v>
       </c>
       <c r="AM43" s="5">
@@ -7961,7 +7980,7 @@
       </c>
       <c r="AR43" s="5"/>
       <c r="AS43" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>38905318.45887129</v>
       </c>
       <c r="AT43" s="5">
@@ -7971,7 +7990,7 @@
         <v>9113511.2884663045</v>
       </c>
       <c r="AV43" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>4570119.2293198025</v>
       </c>
       <c r="AW43" s="5">
@@ -8008,33 +8027,33 @@
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="11">
+        <f t="shared" si="7"/>
+        <v>28985254.544499204</v>
+      </c>
+      <c r="H44" s="11">
+        <f t="shared" si="8"/>
+        <v>20153840.811249968</v>
+      </c>
+      <c r="I44" s="11">
         <f t="shared" si="9"/>
-        <v>28985254.544499204</v>
-      </c>
-      <c r="H44" s="11">
-        <f t="shared" si="10"/>
-        <v>20153840.811249968</v>
-      </c>
-      <c r="I44" s="11">
-        <f t="shared" si="11"/>
         <v>8831413.7332492359</v>
       </c>
       <c r="J44" s="6"/>
       <c r="K44" s="11">
-        <f t="shared" si="13"/>
+        <f>O44/E44</f>
         <v>2950.8897740109937</v>
       </c>
       <c r="L44" s="11">
-        <f t="shared" si="14"/>
+        <f>AS44/E44</f>
         <v>1844.7988202099425</v>
       </c>
       <c r="M44" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1106.0909538010512</v>
       </c>
       <c r="N44" s="6"/>
       <c r="O44" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>27853448.576889768</v>
       </c>
       <c r="P44" s="5">
@@ -8044,7 +8063,7 @@
         <v>6807310.165</v>
       </c>
       <c r="R44" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5207056</v>
       </c>
       <c r="S44" s="5">
@@ -8070,7 +8089,7 @@
       </c>
       <c r="Z44" s="6"/>
       <c r="AA44" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>870758</v>
       </c>
       <c r="AB44" s="6">
@@ -8087,7 +8106,7 @@
       </c>
       <c r="AF44" s="6"/>
       <c r="AG44" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>103262.67760943719</v>
       </c>
       <c r="AH44" s="5">
@@ -8101,7 +8120,7 @@
       </c>
       <c r="AK44" s="5"/>
       <c r="AL44" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>21889902</v>
       </c>
       <c r="AM44" s="5">
@@ -8121,7 +8140,7 @@
       </c>
       <c r="AR44" s="5"/>
       <c r="AS44" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>17413056.063961647</v>
       </c>
       <c r="AT44" s="5">
@@ -8131,7 +8150,7 @@
         <v>2468567.3220989993</v>
       </c>
       <c r="AV44" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>2386178.3305824641</v>
       </c>
       <c r="AW44" s="5">
@@ -8168,33 +8187,33 @@
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="11">
+        <f t="shared" si="7"/>
+        <v>21947176.717995778</v>
+      </c>
+      <c r="H45" s="11">
+        <f t="shared" si="8"/>
+        <v>7746980.0960343815</v>
+      </c>
+      <c r="I45" s="11">
         <f t="shared" si="9"/>
-        <v>21947176.717995778</v>
-      </c>
-      <c r="H45" s="11">
-        <f t="shared" si="10"/>
-        <v>7746980.0960343815</v>
-      </c>
-      <c r="I45" s="11">
-        <f t="shared" si="11"/>
         <v>14200196.621961396</v>
       </c>
       <c r="J45" s="6"/>
       <c r="K45" s="11">
-        <f t="shared" si="13"/>
+        <f>O45/E45</f>
         <v>3920.9956749520375</v>
       </c>
       <c r="L45" s="11">
-        <f t="shared" si="14"/>
+        <f>AS45/E45</f>
         <v>1231.2833930471531</v>
       </c>
       <c r="M45" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2689.7122819048845</v>
       </c>
       <c r="N45" s="6"/>
       <c r="O45" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>21224349.588515379</v>
       </c>
       <c r="P45" s="5">
@@ -8204,7 +8223,7 @@
         <v>8976806.9900000002</v>
       </c>
       <c r="R45" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2373685</v>
       </c>
       <c r="S45" s="5">
@@ -8230,7 +8249,7 @@
       </c>
       <c r="Z45" s="6"/>
       <c r="AA45" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>287231</v>
       </c>
       <c r="AB45" s="6">
@@ -8247,7 +8266,7 @@
       </c>
       <c r="AF45" s="6"/>
       <c r="AG45" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>100085.83948040023</v>
       </c>
       <c r="AH45" s="5">
@@ -8261,7 +8280,7 @@
       </c>
       <c r="AK45" s="5"/>
       <c r="AL45" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>12054850</v>
       </c>
       <c r="AM45" s="5">
@@ -8281,7 +8300,7 @@
       </c>
       <c r="AR45" s="5"/>
       <c r="AS45" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>6664937.00656424</v>
       </c>
       <c r="AT45" s="5">
@@ -8291,7 +8310,7 @@
         <v>2997381</v>
       </c>
       <c r="AV45" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>817376.97857998731</v>
       </c>
       <c r="AW45" s="5">
@@ -8328,33 +8347,33 @@
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="11">
+        <f t="shared" si="7"/>
+        <v>75743735.648989365</v>
+      </c>
+      <c r="H46" s="11">
+        <f t="shared" si="8"/>
+        <v>75203334.949737892</v>
+      </c>
+      <c r="I46" s="11">
         <f t="shared" si="9"/>
-        <v>75743735.648989365</v>
-      </c>
-      <c r="H46" s="11">
-        <f t="shared" si="10"/>
-        <v>75203334.949737892</v>
-      </c>
-      <c r="I46" s="11">
-        <f t="shared" si="11"/>
         <v>540400.69925147295</v>
       </c>
       <c r="J46" s="6"/>
       <c r="K46" s="11">
-        <f t="shared" si="13"/>
+        <f>O46/E46</f>
         <v>1924.1334096426363</v>
       </c>
       <c r="L46" s="11">
-        <f t="shared" si="14"/>
+        <f>AS46/E46</f>
         <v>1745.5222916661601</v>
       </c>
       <c r="M46" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>178.61111797647618</v>
       </c>
       <c r="N46" s="6"/>
       <c r="O46" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>70521413.596812263</v>
       </c>
       <c r="P46" s="5">
@@ -8364,7 +8383,7 @@
         <v>20452815.199999999</v>
       </c>
       <c r="R46" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>4521540.5</v>
       </c>
       <c r="S46" s="5">
@@ -8390,7 +8409,7 @@
       </c>
       <c r="Z46" s="6"/>
       <c r="AA46" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>1797021</v>
       </c>
       <c r="AB46" s="6">
@@ -8407,7 +8426,7 @@
       </c>
       <c r="AF46" s="6"/>
       <c r="AG46" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>2798763.7621771009</v>
       </c>
       <c r="AH46" s="5">
@@ -8421,7 +8440,7 @@
       </c>
       <c r="AK46" s="5"/>
       <c r="AL46" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>88791922</v>
       </c>
       <c r="AM46" s="5">
@@ -8441,7 +8460,7 @@
       </c>
       <c r="AR46" s="5"/>
       <c r="AS46" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>63975137.511856429</v>
       </c>
       <c r="AT46" s="5">
@@ -8451,7 +8470,7 @@
         <v>18359155.495740555</v>
       </c>
       <c r="AV46" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>7434209.2126398189</v>
       </c>
       <c r="AW46" s="5">
@@ -8488,33 +8507,33 @@
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="11">
+        <f t="shared" si="7"/>
+        <v>61452841.940210238</v>
+      </c>
+      <c r="H47" s="11">
+        <f t="shared" si="8"/>
+        <v>64712520.279505849</v>
+      </c>
+      <c r="I47" s="11">
         <f t="shared" si="9"/>
-        <v>61452841.940210238</v>
-      </c>
-      <c r="H47" s="11">
-        <f t="shared" si="10"/>
-        <v>64712520.279505849</v>
-      </c>
-      <c r="I47" s="11">
-        <f t="shared" si="11"/>
         <v>-3259678.3392956108</v>
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="11">
-        <f t="shared" si="13"/>
+        <f>O47/E47</f>
         <v>2258.8175050332384</v>
       </c>
       <c r="L47" s="11">
-        <f t="shared" si="14"/>
+        <f>AS47/E47</f>
         <v>2194.4645770845455</v>
       </c>
       <c r="M47" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>64.352927948692923</v>
       </c>
       <c r="N47" s="6"/>
       <c r="O47" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>58406244.227644444</v>
       </c>
       <c r="P47" s="5">
@@ -8524,7 +8543,7 @@
         <v>18594097.703144424</v>
       </c>
       <c r="R47" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>4365182.75</v>
       </c>
       <c r="S47" s="5">
@@ -8550,7 +8569,7 @@
       </c>
       <c r="Z47" s="6"/>
       <c r="AA47" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>1123993</v>
       </c>
       <c r="AB47" s="6">
@@ -8567,7 +8586,7 @@
       </c>
       <c r="AF47" s="6"/>
       <c r="AG47" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1101490.4225657978</v>
       </c>
       <c r="AH47" s="5">
@@ -8581,7 +8600,7 @@
       </c>
       <c r="AK47" s="5"/>
       <c r="AL47" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>65441306</v>
       </c>
       <c r="AM47" s="5">
@@ -8601,7 +8620,7 @@
       </c>
       <c r="AR47" s="5"/>
       <c r="AS47" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>56742270.569675095</v>
       </c>
       <c r="AT47" s="5">
@@ -8611,7 +8630,7 @@
         <v>21565473.680035822</v>
       </c>
       <c r="AV47" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>5198431.1627097335</v>
       </c>
       <c r="AW47" s="5">
@@ -8648,33 +8667,33 @@
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="11">
+        <f t="shared" si="7"/>
+        <v>15300477.342246337</v>
+      </c>
+      <c r="H48" s="11">
+        <f t="shared" si="8"/>
+        <v>10085389.658132581</v>
+      </c>
+      <c r="I48" s="11">
         <f t="shared" si="9"/>
-        <v>15300477.342246337</v>
-      </c>
-      <c r="H48" s="11">
-        <f t="shared" si="10"/>
-        <v>10085389.658132581</v>
-      </c>
-      <c r="I48" s="11">
-        <f t="shared" si="11"/>
         <v>5215087.6841137558</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="11">
-        <f t="shared" si="13"/>
+        <f>O48/E48</f>
         <v>2457.1129323530295</v>
       </c>
       <c r="L48" s="11">
-        <f t="shared" si="14"/>
+        <f>AS48/E48</f>
         <v>1446.4072819191126</v>
       </c>
       <c r="M48" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1010.7056504339168</v>
       </c>
       <c r="N48" s="6"/>
       <c r="O48" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>14487137.849153463</v>
       </c>
       <c r="P48" s="5">
@@ -8684,7 +8703,7 @@
         <v>4239888.6204021936</v>
       </c>
       <c r="R48" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2687350</v>
       </c>
       <c r="S48" s="5">
@@ -8710,7 +8729,7 @@
       </c>
       <c r="Z48" s="6"/>
       <c r="AA48" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>453816</v>
       </c>
       <c r="AB48" s="6">
@@ -8727,7 +8746,7 @@
       </c>
       <c r="AF48" s="6"/>
       <c r="AG48" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>160983.20309287569</v>
       </c>
       <c r="AH48" s="5">
@@ -8741,7 +8760,7 @@
       </c>
       <c r="AK48" s="5"/>
       <c r="AL48" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>16983358</v>
       </c>
       <c r="AM48" s="5">
@@ -8761,7 +8780,7 @@
       </c>
       <c r="AR48" s="5"/>
       <c r="AS48" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>8528017.3341950886</v>
       </c>
       <c r="AT48" s="5">
@@ -8771,7 +8790,7 @@
         <v>1926181</v>
       </c>
       <c r="AV48" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>1315317.7878216822</v>
       </c>
       <c r="AW48" s="5">
@@ -8808,33 +8827,33 @@
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="11">
+        <f t="shared" si="7"/>
+        <v>57158833.593232684</v>
+      </c>
+      <c r="H49" s="11">
+        <f t="shared" si="8"/>
+        <v>49509015.27945412</v>
+      </c>
+      <c r="I49" s="11">
         <f t="shared" si="9"/>
-        <v>57158833.593232684</v>
-      </c>
-      <c r="H49" s="11">
-        <f t="shared" si="10"/>
-        <v>49509015.27945412</v>
-      </c>
-      <c r="I49" s="11">
-        <f t="shared" si="11"/>
         <v>7649818.3137785643</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="11">
-        <f t="shared" si="13"/>
+        <f>O49/E49</f>
         <v>1930.2829695046439</v>
       </c>
       <c r="L49" s="11">
-        <f t="shared" si="14"/>
+        <f>AS49/E49</f>
         <v>1507.4836416856508</v>
       </c>
       <c r="M49" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>422.79932781899311</v>
       </c>
       <c r="N49" s="6"/>
       <c r="O49" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>53474629.104187153</v>
       </c>
       <c r="P49" s="5">
@@ -8844,7 +8863,7 @@
         <v>15410319.345000001</v>
       </c>
       <c r="R49" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3980760</v>
       </c>
       <c r="S49" s="5">
@@ -8870,7 +8889,7 @@
       </c>
       <c r="Z49" s="6"/>
       <c r="AA49" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>1430267</v>
       </c>
       <c r="AB49" s="6">
@@ -8887,7 +8906,7 @@
       </c>
       <c r="AF49" s="6"/>
       <c r="AG49" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1770003.1990455282</v>
       </c>
       <c r="AH49" s="5">
@@ -8901,7 +8920,7 @@
       </c>
       <c r="AK49" s="5"/>
       <c r="AL49" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>68722856</v>
       </c>
       <c r="AM49" s="5">
@@ -8921,7 +8940,7 @@
       </c>
       <c r="AR49" s="5"/>
       <c r="AS49" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>41761819.325617582</v>
       </c>
       <c r="AT49" s="5">
@@ -8931,7 +8950,7 @@
         <v>5783347.0839519734</v>
       </c>
       <c r="AV49" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>6461561.8988697082</v>
       </c>
       <c r="AW49" s="5">
@@ -8968,33 +8987,33 @@
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="11">
+        <f t="shared" si="7"/>
+        <v>12353055.947245549</v>
+      </c>
+      <c r="H50" s="11">
+        <f t="shared" si="8"/>
+        <v>9059464.7351687457</v>
+      </c>
+      <c r="I50" s="11">
         <f t="shared" si="9"/>
-        <v>12353055.947245549</v>
-      </c>
-      <c r="H50" s="11">
-        <f t="shared" si="10"/>
-        <v>9059464.7351687457</v>
-      </c>
-      <c r="I50" s="11">
-        <f t="shared" si="11"/>
         <v>3293591.2120768037</v>
       </c>
       <c r="J50" s="6"/>
       <c r="K50" s="11">
-        <f t="shared" si="13"/>
+        <f>O50/E50</f>
         <v>2906.3167662949631</v>
       </c>
       <c r="L50" s="11">
-        <f t="shared" si="14"/>
+        <f>AS50/E50</f>
         <v>1983.8437434413668</v>
       </c>
       <c r="M50" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>922.47302285359638</v>
       </c>
       <c r="N50" s="6"/>
       <c r="O50" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>11756051.319663126</v>
       </c>
       <c r="P50" s="5">
@@ -9004,7 +9023,7 @@
         <v>3027952.6799999997</v>
       </c>
       <c r="R50" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2762062</v>
       </c>
       <c r="S50" s="5">
@@ -9030,7 +9049,7 @@
       </c>
       <c r="Z50" s="6"/>
       <c r="AA50" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>299582</v>
       </c>
       <c r="AB50" s="6">
@@ -9047,7 +9066,7 @@
       </c>
       <c r="AF50" s="6"/>
       <c r="AG50" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>153389.33758242484</v>
       </c>
       <c r="AH50" s="5">
@@ -9061,7 +9080,7 @@
       </c>
       <c r="AK50" s="5"/>
       <c r="AL50" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>12501416</v>
       </c>
       <c r="AM50" s="5">
@@ -9081,7 +9100,7 @@
       </c>
       <c r="AR50" s="5"/>
       <c r="AS50" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>8024647.9422203284</v>
       </c>
       <c r="AT50" s="5">
@@ -9091,7 +9110,7 @@
         <v>3487701</v>
       </c>
       <c r="AV50" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>864986.47287406144</v>
       </c>
       <c r="AW50" s="5">
@@ -9128,33 +9147,33 @@
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="11">
+        <f t="shared" si="7"/>
+        <v>25918287.115335174</v>
+      </c>
+      <c r="H51" s="11">
+        <f t="shared" si="8"/>
+        <v>27190483.358603116</v>
+      </c>
+      <c r="I51" s="11">
         <f t="shared" si="9"/>
-        <v>25918287.115335174</v>
-      </c>
-      <c r="H51" s="11">
-        <f t="shared" si="10"/>
-        <v>27190483.358603116</v>
-      </c>
-      <c r="I51" s="11">
-        <f t="shared" si="11"/>
         <v>-1272196.2432679422</v>
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="11">
-        <f t="shared" si="13"/>
+        <f>O51/E51</f>
         <v>2169.6253145082451</v>
       </c>
       <c r="L51" s="11">
-        <f t="shared" si="14"/>
+        <f>AS51/E51</f>
         <v>2232.259023882099</v>
       </c>
       <c r="M51" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>-62.63370937385389</v>
       </c>
       <c r="N51" s="6"/>
       <c r="O51" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>23575148.667446591</v>
       </c>
       <c r="P51" s="5">
@@ -9164,7 +9183,7 @@
         <v>10051201.539999999</v>
       </c>
       <c r="R51" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3750145.94</v>
       </c>
       <c r="S51" s="5">
@@ -9190,7 +9209,7 @@
       </c>
       <c r="Z51" s="6"/>
       <c r="AA51" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>1643511</v>
       </c>
       <c r="AB51" s="6">
@@ -9207,7 +9226,7 @@
       </c>
       <c r="AF51" s="6"/>
       <c r="AG51" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>388897.68254443922</v>
       </c>
       <c r="AH51" s="5">
@@ -9221,7 +9240,7 @@
       </c>
       <c r="AK51" s="5"/>
       <c r="AL51" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>36505288</v>
       </c>
       <c r="AM51" s="5">
@@ -9241,7 +9260,7 @@
       </c>
       <c r="AR51" s="5"/>
       <c r="AS51" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>24255726.553502887</v>
       </c>
       <c r="AT51" s="5">
@@ -9251,7 +9270,7 @@
         <v>9858402.6261082124</v>
       </c>
       <c r="AV51" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>2313175.683156631</v>
       </c>
       <c r="AW51" s="5">
@@ -9288,33 +9307,33 @@
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="11">
+        <f t="shared" si="7"/>
+        <v>20945284.12735638</v>
+      </c>
+      <c r="H52" s="11">
+        <f t="shared" si="8"/>
+        <v>13688190.742658749</v>
+      </c>
+      <c r="I52" s="11">
         <f t="shared" si="9"/>
-        <v>20945284.12735638</v>
-      </c>
-      <c r="H52" s="11">
-        <f t="shared" si="10"/>
-        <v>13688190.742658749</v>
-      </c>
-      <c r="I52" s="11">
-        <f t="shared" si="11"/>
         <v>7257093.384697631</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="11">
-        <f t="shared" si="13"/>
+        <f>O52/E52</f>
         <v>2752.4270794086865</v>
       </c>
       <c r="L52" s="11">
-        <f t="shared" si="14"/>
+        <f>AS52/E52</f>
         <v>1596.8235558083541</v>
       </c>
       <c r="M52" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1155.6035236003324</v>
       </c>
       <c r="N52" s="6"/>
       <c r="O52" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>19979868.169427656</v>
       </c>
       <c r="P52" s="5">
@@ -9324,7 +9343,7 @@
         <v>5892690.6699999999</v>
       </c>
       <c r="R52" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3750749</v>
       </c>
       <c r="S52" s="5">
@@ -9350,7 +9369,7 @@
       </c>
       <c r="Z52" s="6"/>
       <c r="AA52" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>588362</v>
       </c>
       <c r="AB52" s="6">
@@ -9367,7 +9386,7 @@
       </c>
       <c r="AF52" s="6"/>
       <c r="AG52" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>149121.4720472272</v>
       </c>
       <c r="AH52" s="5">
@@ -9381,7 +9400,7 @@
       </c>
       <c r="AK52" s="5"/>
       <c r="AL52" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>18656772</v>
       </c>
       <c r="AM52" s="5">
@@ -9401,7 +9420,7 @@
       </c>
       <c r="AR52" s="5"/>
       <c r="AS52" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>11591342.191612842</v>
       </c>
       <c r="AT52" s="5">
@@ -9411,7 +9430,7 @@
         <v>2287763</v>
       </c>
       <c r="AV52" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>1729459.4790620296</v>
       </c>
       <c r="AW52" s="5">
@@ -9448,33 +9467,33 @@
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="11">
+        <f t="shared" si="7"/>
+        <v>38095443.57565327</v>
+      </c>
+      <c r="H53" s="11">
+        <f t="shared" si="8"/>
+        <v>26503609.939639688</v>
+      </c>
+      <c r="I53" s="11">
         <f t="shared" si="9"/>
-        <v>38095443.57565327</v>
-      </c>
-      <c r="H53" s="11">
-        <f t="shared" si="10"/>
-        <v>26503609.939639688</v>
-      </c>
-      <c r="I53" s="11">
-        <f t="shared" si="11"/>
         <v>11591833.636013582</v>
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="11">
-        <f t="shared" si="13"/>
+        <f>O53/E53</f>
         <v>2734.4734328702339</v>
       </c>
       <c r="L53" s="11">
-        <f t="shared" si="14"/>
+        <f>AS53/E53</f>
         <v>1720.72901231677</v>
       </c>
       <c r="M53" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1013.7444205534639</v>
       </c>
       <c r="N53" s="6"/>
       <c r="O53" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>36398575.864935681</v>
       </c>
       <c r="P53" s="5">
@@ -9484,7 +9503,7 @@
         <v>11387949.08</v>
       </c>
       <c r="R53" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>4225029</v>
       </c>
       <c r="S53" s="5">
@@ -9510,7 +9529,7 @@
       </c>
       <c r="Z53" s="6"/>
       <c r="AA53" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>848319</v>
       </c>
       <c r="AB53" s="6">
@@ -9527,7 +9546,7 @@
       </c>
       <c r="AF53" s="6"/>
       <c r="AG53" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>286890.07023093937</v>
       </c>
       <c r="AH53" s="5">
@@ -9541,7 +9560,7 @@
       </c>
       <c r="AK53" s="5"/>
       <c r="AL53" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>21059396</v>
       </c>
       <c r="AM53" s="5">
@@ -9561,7 +9580,7 @@
       </c>
       <c r="AR53" s="5"/>
       <c r="AS53" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>22904623.882948525</v>
       </c>
       <c r="AT53" s="5">
@@ -9571,7 +9590,7 @@
         <v>8302819</v>
       </c>
       <c r="AV53" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>2719626.6574040558</v>
       </c>
       <c r="AW53" s="5">
@@ -9608,33 +9627,33 @@
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="11">
+        <f t="shared" si="7"/>
+        <v>14354154.541599819</v>
+      </c>
+      <c r="H54" s="11">
+        <f t="shared" si="8"/>
+        <v>9962748.0995323043</v>
+      </c>
+      <c r="I54" s="11">
         <f t="shared" si="9"/>
-        <v>14354154.541599819</v>
-      </c>
-      <c r="H54" s="11">
-        <f t="shared" si="10"/>
-        <v>9962748.0995323043</v>
-      </c>
-      <c r="I54" s="11">
-        <f t="shared" si="11"/>
         <v>4391406.4420675151</v>
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="11">
-        <f t="shared" si="13"/>
+        <f>O54/E54</f>
         <v>3049.2910756743127</v>
       </c>
       <c r="L54" s="11">
-        <f t="shared" si="14"/>
+        <f>AS54/E54</f>
         <v>1892.8152111276038</v>
       </c>
       <c r="M54" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1156.4758645467089</v>
       </c>
       <c r="N54" s="6"/>
       <c r="O54" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>13880372.976469472</v>
       </c>
       <c r="P54" s="5">
@@ -9644,7 +9663,7 @@
         <v>3077567.9249999998</v>
       </c>
       <c r="R54" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3491334.2</v>
       </c>
       <c r="S54" s="5">
@@ -9670,7 +9689,7 @@
       </c>
       <c r="Z54" s="6"/>
       <c r="AA54" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>281797</v>
       </c>
       <c r="AB54" s="6">
@@ -9687,7 +9706,7 @@
       </c>
       <c r="AF54" s="6"/>
       <c r="AG54" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>53922.275130348615</v>
       </c>
       <c r="AH54" s="5">
@@ -9701,7 +9720,7 @@
       </c>
       <c r="AK54" s="5"/>
       <c r="AL54" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>14335636</v>
       </c>
       <c r="AM54" s="5">
@@ -9721,7 +9740,7 @@
       </c>
       <c r="AR54" s="5"/>
       <c r="AS54" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>8616094.8410528526</v>
       </c>
       <c r="AT54" s="5">
@@ -9731,7 +9750,7 @@
         <v>1376795.2168895095</v>
       </c>
       <c r="AV54" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>1175216.4097358123</v>
       </c>
       <c r="AW54" s="5">
@@ -9768,33 +9787,33 @@
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="11">
+        <f t="shared" si="7"/>
+        <v>100396720.18889171</v>
+      </c>
+      <c r="H55" s="11">
+        <f t="shared" si="8"/>
+        <v>100659045.14722116</v>
+      </c>
+      <c r="I55" s="11">
         <f t="shared" si="9"/>
-        <v>100396720.18889171</v>
-      </c>
-      <c r="H55" s="11">
-        <f t="shared" si="10"/>
-        <v>100659045.14722116</v>
-      </c>
-      <c r="I55" s="11">
-        <f t="shared" si="11"/>
         <v>-262324.95832945406</v>
       </c>
       <c r="J55" s="6"/>
       <c r="K55" s="11">
-        <f t="shared" si="13"/>
+        <f>O55/E55</f>
         <v>2244.8392129084509</v>
       </c>
       <c r="L55" s="11">
-        <f t="shared" si="14"/>
+        <f>AS55/E55</f>
         <v>2104.745942320842</v>
       </c>
       <c r="M55" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>140.09327058760891</v>
       </c>
       <c r="N55" s="6"/>
       <c r="O55" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>94819763.514040053</v>
       </c>
       <c r="P55" s="5">
@@ -9804,7 +9823,7 @@
         <v>29676721.454999998</v>
       </c>
       <c r="R55" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>6670589.8099999996</v>
       </c>
       <c r="S55" s="5">
@@ -9830,7 +9849,7 @@
       </c>
       <c r="Z55" s="6"/>
       <c r="AA55" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>2069716</v>
       </c>
       <c r="AB55" s="6">
@@ -9847,7 +9866,7 @@
       </c>
       <c r="AF55" s="6"/>
       <c r="AG55" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>2699674.6748516564</v>
       </c>
       <c r="AH55" s="5">
@@ -9861,7 +9880,7 @@
       </c>
       <c r="AK55" s="5"/>
       <c r="AL55" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>109124792</v>
       </c>
       <c r="AM55" s="5">
@@ -9881,7 +9900,7 @@
       </c>
       <c r="AR55" s="5"/>
       <c r="AS55" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>88902363.857690036</v>
       </c>
       <c r="AT55" s="5">
@@ -9891,7 +9910,7 @@
         <v>33935746.260198802</v>
       </c>
       <c r="AV55" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>8097717.3715014085</v>
       </c>
       <c r="AW55" s="5">
@@ -9928,33 +9947,33 @@
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="11">
+        <f t="shared" si="7"/>
+        <v>37257528.322041735</v>
+      </c>
+      <c r="H56" s="11">
+        <f t="shared" si="8"/>
+        <v>21648642.641809158</v>
+      </c>
+      <c r="I56" s="11">
         <f t="shared" si="9"/>
-        <v>37257528.322041735</v>
-      </c>
-      <c r="H56" s="11">
-        <f t="shared" si="10"/>
-        <v>21648642.641809158</v>
-      </c>
-      <c r="I56" s="11">
-        <f t="shared" si="11"/>
         <v>15608885.680232577</v>
       </c>
       <c r="J56" s="6"/>
       <c r="K56" s="11">
-        <f t="shared" si="13"/>
+        <f>O56/E56</f>
         <v>2127.2994262611701</v>
       </c>
       <c r="L56" s="11">
-        <f t="shared" si="14"/>
+        <f>AS56/E56</f>
         <v>1135.2105921095315</v>
       </c>
       <c r="M56" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>992.08883415163859</v>
       </c>
       <c r="N56" s="6"/>
       <c r="O56" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>34545215.383055143</v>
       </c>
       <c r="P56" s="5">
@@ -9964,7 +9983,7 @@
         <v>12206825.949999999</v>
       </c>
       <c r="R56" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2373546</v>
       </c>
       <c r="S56" s="5">
@@ -9990,7 +10009,7 @@
       </c>
       <c r="Z56" s="6"/>
       <c r="AA56" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>1263601</v>
       </c>
       <c r="AB56" s="6">
@@ -10007,7 +10026,7 @@
       </c>
       <c r="AF56" s="6"/>
       <c r="AG56" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1050234.6489865934</v>
       </c>
       <c r="AH56" s="5">
@@ -10021,7 +10040,7 @@
       </c>
       <c r="AK56" s="5"/>
       <c r="AL56" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>34330218</v>
       </c>
       <c r="AM56" s="5">
@@ -10041,7 +10060,7 @@
       </c>
       <c r="AR56" s="5"/>
       <c r="AS56" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>18434684.805266682</v>
       </c>
       <c r="AT56" s="5">
@@ -10051,7 +10070,7 @@
         <v>3876497.0430983705</v>
       </c>
       <c r="AV56" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>2653412.1541995476</v>
       </c>
       <c r="AW56" s="5">
@@ -10088,33 +10107,33 @@
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="11">
+        <f t="shared" si="7"/>
+        <v>27047520.051112618</v>
+      </c>
+      <c r="H57" s="11">
+        <f t="shared" si="8"/>
+        <v>22194121.306397058</v>
+      </c>
+      <c r="I57" s="11">
         <f t="shared" si="9"/>
-        <v>27047520.051112618</v>
-      </c>
-      <c r="H57" s="11">
-        <f t="shared" si="10"/>
-        <v>22194121.306397058</v>
-      </c>
-      <c r="I57" s="11">
-        <f t="shared" si="11"/>
         <v>4853398.7447155602</v>
       </c>
       <c r="J57" s="6"/>
       <c r="K57" s="11">
-        <f t="shared" si="13"/>
+        <f>O57/E57</f>
         <v>2504.5248436545075</v>
       </c>
       <c r="L57" s="11">
-        <f t="shared" si="14"/>
+        <f>AS57/E57</f>
         <v>1854.596063087886</v>
       </c>
       <c r="M57" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>649.92878056662153</v>
       </c>
       <c r="N57" s="6"/>
       <c r="O57" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>25711452.044957176</v>
       </c>
       <c r="P57" s="5">
@@ -10124,7 +10143,7 @@
         <v>6675703.0299999993</v>
       </c>
       <c r="R57" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>4409149</v>
       </c>
       <c r="S57" s="5">
@@ -10150,7 +10169,7 @@
       </c>
       <c r="Z57" s="6"/>
       <c r="AA57" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>794703</v>
       </c>
       <c r="AB57" s="6">
@@ -10167,7 +10186,7 @@
       </c>
       <c r="AF57" s="6"/>
       <c r="AG57" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>263560.71615544154</v>
       </c>
       <c r="AH57" s="5">
@@ -10181,7 +10200,7 @@
       </c>
       <c r="AK57" s="5"/>
       <c r="AL57" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>34368622</v>
       </c>
       <c r="AM57" s="5">
@@ -10201,7 +10220,7 @@
       </c>
       <c r="AR57" s="5"/>
       <c r="AS57" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>19039283.183660239</v>
       </c>
       <c r="AT57" s="5">
@@ -10211,7 +10230,7 @@
         <v>4003984</v>
       </c>
       <c r="AV57" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>2260608.8458848237</v>
       </c>
       <c r="AW57" s="5">
@@ -10248,33 +10267,33 @@
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="11">
+        <f t="shared" si="7"/>
+        <v>107895136.89891489</v>
+      </c>
+      <c r="H58" s="11">
+        <f t="shared" si="8"/>
+        <v>89455097.87956579</v>
+      </c>
+      <c r="I58" s="11">
         <f t="shared" si="9"/>
-        <v>107895136.89891489</v>
-      </c>
-      <c r="H58" s="11">
-        <f t="shared" si="10"/>
-        <v>89455097.87956579</v>
-      </c>
-      <c r="I58" s="11">
-        <f t="shared" si="11"/>
         <v>18440039.019349098</v>
       </c>
       <c r="J58" s="6"/>
       <c r="K58" s="11">
-        <f t="shared" si="13"/>
+        <f>O58/E58</f>
         <v>2185.9119285475786</v>
       </c>
       <c r="L58" s="11">
-        <f t="shared" si="14"/>
+        <f>AS58/E58</f>
         <v>1733.0724314573679</v>
       </c>
       <c r="M58" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>452.83949709021067</v>
       </c>
       <c r="N58" s="6"/>
       <c r="O58" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>98492819.676496804</v>
       </c>
       <c r="P58" s="5">
@@ -10284,7 +10303,7 @@
         <v>37573874.004999995</v>
       </c>
       <c r="R58" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>8998562.9000000004</v>
       </c>
       <c r="S58" s="5">
@@ -10310,7 +10329,7 @@
       </c>
       <c r="Z58" s="6"/>
       <c r="AA58" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>6308376</v>
       </c>
       <c r="AB58" s="6">
@@ -10327,7 +10346,7 @@
       </c>
       <c r="AF58" s="6"/>
       <c r="AG58" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1906787.9324180719</v>
       </c>
       <c r="AH58" s="5">
@@ -10341,7 +10360,7 @@
       </c>
       <c r="AK58" s="5"/>
       <c r="AL58" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>126358348</v>
       </c>
       <c r="AM58" s="5">
@@ -10361,7 +10380,7 @@
       </c>
       <c r="AR58" s="5"/>
       <c r="AS58" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>78088777.616606086</v>
       </c>
       <c r="AT58" s="5">
@@ -10371,7 +10390,7 @@
         <v>25740272</v>
       </c>
       <c r="AV58" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>8667080.1271772962</v>
       </c>
       <c r="AW58" s="5">
@@ -10408,33 +10427,33 @@
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="11">
+        <f t="shared" si="7"/>
+        <v>79438888.061569512</v>
+      </c>
+      <c r="H59" s="11">
+        <f t="shared" si="8"/>
+        <v>73834622.227736712</v>
+      </c>
+      <c r="I59" s="11">
         <f t="shared" si="9"/>
-        <v>79438888.061569512</v>
-      </c>
-      <c r="H59" s="11">
-        <f t="shared" si="10"/>
-        <v>73834622.227736712</v>
-      </c>
-      <c r="I59" s="11">
-        <f t="shared" si="11"/>
         <v>5604265.8338328004</v>
       </c>
       <c r="J59" s="6"/>
       <c r="K59" s="11">
-        <f t="shared" si="13"/>
+        <f>O59/E59</f>
         <v>1956.2859039057353</v>
       </c>
       <c r="L59" s="11">
-        <f t="shared" si="14"/>
+        <f>AS59/E59</f>
         <v>1732.1068633391069</v>
       </c>
       <c r="M59" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>224.17904056662837</v>
       </c>
       <c r="N59" s="6"/>
       <c r="O59" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>73978907.742099285</v>
       </c>
       <c r="P59" s="5">
@@ -10444,7 +10463,7 @@
         <v>22663997.030000001</v>
       </c>
       <c r="R59" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3517815</v>
       </c>
       <c r="S59" s="5">
@@ -10470,7 +10489,7 @@
       </c>
       <c r="Z59" s="6"/>
       <c r="AA59" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>2087869</v>
       </c>
       <c r="AB59" s="6">
@@ -10487,7 +10506,7 @@
       </c>
       <c r="AF59" s="6"/>
       <c r="AG59" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>2565238.0294702244</v>
       </c>
       <c r="AH59" s="5">
@@ -10501,7 +10520,7 @@
       </c>
       <c r="AK59" s="5"/>
       <c r="AL59" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>82890562</v>
       </c>
       <c r="AM59" s="5">
@@ -10521,7 +10540,7 @@
       </c>
       <c r="AR59" s="5"/>
       <c r="AS59" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>65501353.144031666</v>
       </c>
       <c r="AT59" s="5">
@@ -10531,7 +10550,7 @@
         <v>21302707.060356382</v>
       </c>
       <c r="AV59" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>6608742.7811392415</v>
       </c>
       <c r="AW59" s="5">
@@ -10568,33 +10587,33 @@
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="11">
+        <f t="shared" si="7"/>
+        <v>44248430.767714329</v>
+      </c>
+      <c r="H60" s="11">
+        <f t="shared" si="8"/>
+        <v>37884546.97733891</v>
+      </c>
+      <c r="I60" s="11">
         <f t="shared" si="9"/>
-        <v>44248430.767714329</v>
-      </c>
-      <c r="H60" s="11">
-        <f t="shared" si="10"/>
-        <v>37884546.97733891</v>
-      </c>
-      <c r="I60" s="11">
-        <f t="shared" si="11"/>
         <v>6363883.790375419</v>
       </c>
       <c r="J60" s="6"/>
       <c r="K60" s="11">
-        <f t="shared" si="13"/>
+        <f>O60/E60</f>
         <v>2057.5804908131408</v>
       </c>
       <c r="L60" s="11">
-        <f t="shared" si="14"/>
+        <f>AS60/E60</f>
         <v>1636.1260715310116</v>
       </c>
       <c r="M60" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>421.45441928212927</v>
       </c>
       <c r="N60" s="6"/>
       <c r="O60" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>42032254.266330838</v>
       </c>
       <c r="P60" s="5">
@@ -10604,7 +10623,7 @@
         <v>12985461.880000001</v>
       </c>
       <c r="R60" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3504684.99</v>
       </c>
       <c r="S60" s="5">
@@ -10630,7 +10649,7 @@
       </c>
       <c r="Z60" s="6"/>
       <c r="AA60" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>1077369</v>
       </c>
       <c r="AB60" s="6">
@@ -10647,7 +10666,7 @@
       </c>
       <c r="AF60" s="6"/>
       <c r="AG60" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>972514.21138349525</v>
       </c>
       <c r="AH60" s="5">
@@ -10661,7 +10680,7 @@
       </c>
       <c r="AK60" s="5"/>
       <c r="AL60" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>60566800</v>
       </c>
       <c r="AM60" s="5">
@@ -10681,7 +10700,7 @@
       </c>
       <c r="AR60" s="5"/>
       <c r="AS60" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>33422783.389235504</v>
       </c>
       <c r="AT60" s="5">
@@ -10691,7 +10710,7 @@
         <v>9610259.2805751152</v>
       </c>
       <c r="AV60" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>3689409.1180561064</v>
       </c>
       <c r="AW60" s="5">
@@ -10728,33 +10747,33 @@
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="11">
+        <f t="shared" si="7"/>
+        <v>51508009.459687524</v>
+      </c>
+      <c r="H61" s="11">
+        <f t="shared" si="8"/>
+        <v>32562359.237874176</v>
+      </c>
+      <c r="I61" s="11">
         <f t="shared" si="9"/>
-        <v>51508009.459687524</v>
-      </c>
-      <c r="H61" s="11">
-        <f t="shared" si="10"/>
-        <v>32562359.237874176</v>
-      </c>
-      <c r="I61" s="11">
-        <f t="shared" si="11"/>
         <v>18945650.221813347</v>
       </c>
       <c r="J61" s="6"/>
       <c r="K61" s="11">
-        <f t="shared" si="13"/>
+        <f>O61/E61</f>
         <v>2550.0946215651006</v>
       </c>
       <c r="L61" s="11">
-        <f t="shared" si="14"/>
+        <f>AS61/E61</f>
         <v>1464.1557135293765</v>
       </c>
       <c r="M61" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1085.9389080357241</v>
       </c>
       <c r="N61" s="6"/>
       <c r="O61" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>48520650.364519171</v>
       </c>
       <c r="P61" s="5">
@@ -10764,7 +10783,7 @@
         <v>11124697.01</v>
       </c>
       <c r="R61" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>4868103.2</v>
       </c>
       <c r="S61" s="5">
@@ -10790,7 +10809,7 @@
       </c>
       <c r="Z61" s="6"/>
       <c r="AA61" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>1416283</v>
       </c>
       <c r="AB61" s="6">
@@ -10807,7 +10826,7 @@
       </c>
       <c r="AF61" s="6"/>
       <c r="AG61" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1014463.805168352</v>
       </c>
       <c r="AH61" s="5">
@@ -10821,7 +10840,7 @@
       </c>
       <c r="AK61" s="5"/>
       <c r="AL61" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>44946724</v>
       </c>
       <c r="AM61" s="5">
@@ -10841,7 +10860,7 @@
       </c>
       <c r="AR61" s="5"/>
       <c r="AS61" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>27858490.761323445</v>
       </c>
       <c r="AT61" s="5">
@@ -10851,7 +10870,7 @@
         <v>4668124.1707695685</v>
       </c>
       <c r="AV61" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>4061857.8758599707</v>
       </c>
       <c r="AW61" s="5">
@@ -10888,33 +10907,33 @@
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="11">
+        <f t="shared" si="7"/>
+        <v>2604712406.0278563</v>
+      </c>
+      <c r="H62" s="11">
+        <f t="shared" si="8"/>
+        <v>4281573638.0536118</v>
+      </c>
+      <c r="I62" s="11">
         <f t="shared" si="9"/>
-        <v>2604712406.0278563</v>
-      </c>
-      <c r="H62" s="11">
-        <f t="shared" si="10"/>
-        <v>4281573638.0536118</v>
-      </c>
-      <c r="I62" s="11">
-        <f t="shared" si="11"/>
         <v>-1676861232.0257554</v>
       </c>
       <c r="J62" s="6"/>
       <c r="K62" s="11">
-        <f t="shared" si="13"/>
+        <f>O62/E62</f>
         <v>2108.8525838645696</v>
       </c>
       <c r="L62" s="11">
-        <f t="shared" si="14"/>
+        <f>AS62/E62</f>
         <v>3282.5824533152645</v>
       </c>
       <c r="M62" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>-1173.7298694506949</v>
       </c>
       <c r="N62" s="6"/>
       <c r="O62" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>2430294438.9601269</v>
       </c>
       <c r="P62" s="5">
@@ -10924,7 +10943,7 @@
         <v>963539674.87</v>
       </c>
       <c r="R62" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>68877323</v>
       </c>
       <c r="S62" s="5">
@@ -10950,7 +10969,7 @@
       </c>
       <c r="Z62" s="6"/>
       <c r="AA62" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>17101528</v>
       </c>
       <c r="AB62" s="6">
@@ -10967,7 +10986,7 @@
       </c>
       <c r="AF62" s="6"/>
       <c r="AG62" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>138494272.06772956</v>
       </c>
       <c r="AH62" s="5">
@@ -10981,7 +11000,7 @@
       </c>
       <c r="AK62" s="5"/>
       <c r="AL62" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>5042671090</v>
       </c>
       <c r="AM62" s="5">
@@ -11001,7 +11020,7 @@
       </c>
       <c r="AR62" s="5"/>
       <c r="AS62" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>3782930083.7618437</v>
       </c>
       <c r="AT62" s="5">
@@ -11011,7 +11030,7 @@
         <v>1295300308.6770682</v>
       </c>
       <c r="AV62" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>215452257.72015637</v>
       </c>
       <c r="AW62" s="5">
@@ -11048,33 +11067,33 @@
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="11">
+        <f t="shared" si="7"/>
+        <v>15834040.368751382</v>
+      </c>
+      <c r="H63" s="11">
+        <f t="shared" si="8"/>
+        <v>12590077.99874842</v>
+      </c>
+      <c r="I63" s="11">
         <f t="shared" si="9"/>
-        <v>15834040.368751382</v>
-      </c>
-      <c r="H63" s="11">
-        <f t="shared" si="10"/>
-        <v>12590077.99874842</v>
-      </c>
-      <c r="I63" s="11">
-        <f t="shared" si="11"/>
         <v>3243962.3700029626</v>
       </c>
       <c r="J63" s="6"/>
       <c r="K63" s="11">
-        <f t="shared" si="13"/>
+        <f>O63/E63</f>
         <v>2497.5473628504678</v>
       </c>
       <c r="L63" s="11">
-        <f t="shared" si="14"/>
+        <f>AS63/E63</f>
         <v>1794.1306785281649</v>
       </c>
       <c r="M63" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>703.4166843223029</v>
       </c>
       <c r="N63" s="6"/>
       <c r="O63" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>15030240.029634114</v>
       </c>
       <c r="P63" s="5">
@@ -11084,7 +11103,7 @@
         <v>5535953.0999999996</v>
       </c>
       <c r="R63" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2418279</v>
       </c>
       <c r="S63" s="5">
@@ -11110,7 +11129,7 @@
       </c>
       <c r="Z63" s="6"/>
       <c r="AA63" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>414701</v>
       </c>
       <c r="AB63" s="6">
@@ -11127,7 +11146,7 @@
       </c>
       <c r="AF63" s="6"/>
       <c r="AG63" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>260006.04911726961</v>
       </c>
       <c r="AH63" s="5">
@@ -11141,7 +11160,7 @@
       </c>
       <c r="AK63" s="5"/>
       <c r="AL63" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>19308096</v>
       </c>
       <c r="AM63" s="5">
@@ -11161,7 +11180,7 @@
       </c>
       <c r="AR63" s="5"/>
       <c r="AS63" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>10797078.423382496</v>
       </c>
       <c r="AT63" s="5">
@@ -11171,7 +11190,7 @@
         <v>1771880.3511224247</v>
       </c>
       <c r="AV63" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>1485532.7577630519</v>
       </c>
       <c r="AW63" s="5">
@@ -11208,33 +11227,33 @@
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="11">
+        <f t="shared" si="7"/>
+        <v>88075458.543995693</v>
+      </c>
+      <c r="H64" s="11">
+        <f t="shared" si="8"/>
+        <v>101757041.4892496</v>
+      </c>
+      <c r="I64" s="11">
         <f t="shared" si="9"/>
-        <v>88075458.543995693</v>
-      </c>
-      <c r="H64" s="11">
-        <f t="shared" si="10"/>
-        <v>101757041.4892496</v>
-      </c>
-      <c r="I64" s="11">
-        <f t="shared" si="11"/>
         <v>-13681582.945253909</v>
       </c>
       <c r="J64" s="6"/>
       <c r="K64" s="11">
-        <f t="shared" si="13"/>
+        <f>O64/E64</f>
         <v>1772.088905426883</v>
       </c>
       <c r="L64" s="11">
-        <f t="shared" si="14"/>
+        <f>AS64/E64</f>
         <v>1900.6611924083195</v>
       </c>
       <c r="M64" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>-128.57228698143649</v>
       </c>
       <c r="N64" s="6"/>
       <c r="O64" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>81840381.919329733</v>
       </c>
       <c r="P64" s="5">
@@ -11244,7 +11263,7 @@
         <v>23865062.105</v>
       </c>
       <c r="R64" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>6151919</v>
       </c>
       <c r="S64" s="5">
@@ -11270,7 +11289,7 @@
       </c>
       <c r="Z64" s="6"/>
       <c r="AA64" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>1950713</v>
       </c>
       <c r="AB64" s="6">
@@ -11287,7 +11306,7 @@
       </c>
       <c r="AF64" s="6"/>
       <c r="AG64" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>3400160.334665949</v>
       </c>
       <c r="AH64" s="5">
@@ -11301,7 +11320,7 @@
       </c>
       <c r="AK64" s="5"/>
       <c r="AL64" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>150904670</v>
       </c>
       <c r="AM64" s="5">
@@ -11321,7 +11340,7 @@
       </c>
       <c r="AR64" s="5"/>
       <c r="AS64" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>87778235.848993421</v>
       </c>
       <c r="AT64" s="5">
@@ -11331,7 +11350,7 @@
         <v>19544188.721225627</v>
       </c>
       <c r="AV64" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>9746905.5293987971</v>
       </c>
       <c r="AW64" s="5">
@@ -11368,33 +11387,33 @@
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="11">
+        <f t="shared" si="7"/>
+        <v>75060524.337933704</v>
+      </c>
+      <c r="H65" s="11">
+        <f t="shared" si="8"/>
+        <v>65751846.405077234</v>
+      </c>
+      <c r="I65" s="11">
         <f t="shared" si="9"/>
-        <v>75060524.337933704</v>
-      </c>
-      <c r="H65" s="11">
-        <f t="shared" si="10"/>
-        <v>65751846.405077234</v>
-      </c>
-      <c r="I65" s="11">
-        <f t="shared" si="11"/>
         <v>9308677.9328564703</v>
       </c>
       <c r="J65" s="6"/>
       <c r="K65" s="11">
-        <f t="shared" si="13"/>
+        <f>O65/E65</f>
         <v>2259.380430100568</v>
       </c>
       <c r="L65" s="11">
-        <f t="shared" si="14"/>
+        <f>AS65/E65</f>
         <v>1843.2379239848328</v>
       </c>
       <c r="M65" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>416.14250611573516</v>
       </c>
       <c r="N65" s="6"/>
       <c r="O65" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>70616935.342793256</v>
       </c>
       <c r="P65" s="5">
@@ -11404,7 +11423,7 @@
         <v>21032778.435000002</v>
       </c>
       <c r="R65" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5535559</v>
       </c>
       <c r="S65" s="5">
@@ -11430,7 +11449,7 @@
       </c>
       <c r="Z65" s="6"/>
       <c r="AA65" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>1971671</v>
       </c>
       <c r="AB65" s="6">
@@ -11447,7 +11466,7 @@
       </c>
       <c r="AF65" s="6"/>
       <c r="AG65" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1643811.7051404489</v>
       </c>
       <c r="AH65" s="5">
@@ -11461,7 +11480,7 @@
       </c>
       <c r="AK65" s="5"/>
       <c r="AL65" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>79155980</v>
       </c>
       <c r="AM65" s="5">
@@ -11481,7 +11500,7 @@
       </c>
       <c r="AR65" s="5"/>
       <c r="AS65" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>57610401.314145952</v>
       </c>
       <c r="AT65" s="5">
@@ -11491,7 +11510,7 @@
         <v>18453288.536926117</v>
       </c>
       <c r="AV65" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>5930747.7935110908</v>
       </c>
       <c r="AW65" s="5">
@@ -11528,33 +11547,33 @@
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="11">
+        <f t="shared" si="7"/>
+        <v>46867938.083661482</v>
+      </c>
+      <c r="H66" s="11">
+        <f t="shared" si="8"/>
+        <v>35936991.873097114</v>
+      </c>
+      <c r="I66" s="11">
         <f t="shared" si="9"/>
-        <v>46867938.083661482</v>
-      </c>
-      <c r="H66" s="11">
-        <f t="shared" si="10"/>
-        <v>35936991.873097114</v>
-      </c>
-      <c r="I66" s="11">
-        <f t="shared" si="11"/>
         <v>10930946.210564367</v>
       </c>
       <c r="J66" s="6"/>
       <c r="K66" s="11">
-        <f t="shared" ref="K66:K89" si="22">O66/E66</f>
+        <f>O66/E66</f>
         <v>2114.1325794279924</v>
       </c>
       <c r="L66" s="11">
-        <f t="shared" ref="L66:L89" si="23">AS66/E66</f>
+        <f>AS66/E66</f>
         <v>1457.9670588844074</v>
       </c>
       <c r="M66" s="11">
-        <f t="shared" ref="M66:M89" si="24">SUM(K66-L66)</f>
+        <f t="shared" ref="M66:M89" si="18">SUM(K66-L66)</f>
         <v>656.16552054358499</v>
       </c>
       <c r="N66" s="6"/>
       <c r="O66" s="11">
-        <f t="shared" ref="O66:O89" si="25">SUM(P66+Q66+R66+V66+Y66)</f>
+        <f t="shared" ref="O66:O89" si="19">SUM(P66+Q66+R66+V66+Y66)</f>
         <v>44113490.402344488</v>
       </c>
       <c r="P66" s="5">
@@ -11564,7 +11583,7 @@
         <v>12685751.17</v>
       </c>
       <c r="R66" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>6083608.5</v>
       </c>
       <c r="S66" s="5">
@@ -11590,7 +11609,7 @@
       </c>
       <c r="Z66" s="6"/>
       <c r="AA66" s="9">
-        <f t="shared" ref="AA66:AA88" si="26">SUM(AB66+AC66+AD66+AE66)</f>
+        <f t="shared" ref="AA66:AA88" si="20">SUM(AB66+AC66+AD66+AE66)</f>
         <v>1619505</v>
       </c>
       <c r="AB66" s="6">
@@ -11607,7 +11626,7 @@
       </c>
       <c r="AF66" s="6"/>
       <c r="AG66" s="9">
-        <f t="shared" ref="AG66:AG88" si="27">SUM(AH66+AI66+AJ66)</f>
+        <f t="shared" ref="AG66:AG88" si="21">SUM(AH66+AI66+AJ66)</f>
         <v>819685.19296964607</v>
       </c>
       <c r="AH66" s="5">
@@ -11621,7 +11640,7 @@
       </c>
       <c r="AK66" s="5"/>
       <c r="AL66" s="9">
-        <f t="shared" ref="AL66:AL88" si="28">SUM(AM66+AN66+AO66+AP66+AQ66)</f>
+        <f t="shared" ref="AL66:AL88" si="22">SUM(AM66+AN66+AO66+AP66+AQ66)</f>
         <v>48296670</v>
       </c>
       <c r="AM66" s="5">
@@ -11641,7 +11660,7 @@
       </c>
       <c r="AR66" s="5"/>
       <c r="AS66" s="9">
-        <f t="shared" ref="AS66:AS89" si="29">SUM(AT66+AU66+AV66+AY66+BA66)</f>
+        <f t="shared" ref="AS66:AS89" si="23">SUM(AT66+AU66+AV66+AY66+BA66)</f>
         <v>30421940.650682043</v>
       </c>
       <c r="AT66" s="5">
@@ -11651,7 +11670,7 @@
         <v>8012893.4566889964</v>
       </c>
       <c r="AV66" s="9">
-        <f t="shared" ref="AV66:AV89" si="30">SUM(AW66+AX66)</f>
+        <f t="shared" ref="AV66:AV89" si="24">SUM(AW66+AX66)</f>
         <v>4711666.714369759</v>
       </c>
       <c r="AW66" s="5">
@@ -11688,33 +11707,33 @@
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="11">
-        <f t="shared" ref="G67:G88" si="31">SUM(O67+W67+X67+AA67+AG67)</f>
+        <f t="shared" ref="G67:G88" si="25">SUM(O67+W67+X67+AA67+AG67)</f>
         <v>36987205.966216415</v>
       </c>
       <c r="H67" s="11">
-        <f t="shared" ref="H67:H88" si="32">SUM(AS67+AW67+AX67+AZ67)</f>
+        <f t="shared" ref="H67:H88" si="26">SUM(AS67+AW67+AX67+AZ67)</f>
         <v>28539021.808309916</v>
       </c>
       <c r="I67" s="11">
-        <f t="shared" ref="I67:I88" si="33">SUM(G67-H67)</f>
+        <f t="shared" ref="I67:I88" si="27">SUM(G67-H67)</f>
         <v>8448184.1579064988</v>
       </c>
       <c r="J67" s="6"/>
       <c r="K67" s="11">
-        <f t="shared" si="22"/>
+        <f>O67/E67</f>
         <v>2421.0383575339597</v>
       </c>
       <c r="L67" s="11">
-        <f t="shared" si="23"/>
+        <f>AS67/E67</f>
         <v>1674.5508744722151</v>
       </c>
       <c r="M67" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>746.48748306174457</v>
       </c>
       <c r="N67" s="6"/>
       <c r="O67" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>35233371.217191719</v>
       </c>
       <c r="P67" s="5">
@@ -11724,7 +11743,7 @@
         <v>11380909.769196451</v>
       </c>
       <c r="R67" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>4813858</v>
       </c>
       <c r="S67" s="5">
@@ -11750,7 +11769,7 @@
       </c>
       <c r="Z67" s="6"/>
       <c r="AA67" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>1002468</v>
       </c>
       <c r="AB67" s="6">
@@ -11767,7 +11786,7 @@
       </c>
       <c r="AF67" s="6"/>
       <c r="AG67" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>375528.45902469772</v>
       </c>
       <c r="AH67" s="5">
@@ -11781,7 +11800,7 @@
       </c>
       <c r="AK67" s="5"/>
       <c r="AL67" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>33742368</v>
       </c>
       <c r="AM67" s="5">
@@ -11801,7 +11820,7 @@
       </c>
       <c r="AR67" s="5"/>
       <c r="AS67" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>24369738.876194146</v>
       </c>
       <c r="AT67" s="5">
@@ -11811,7 +11830,7 @@
         <v>6201782.16916099</v>
       </c>
       <c r="AV67" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>3418831.6462484822</v>
       </c>
       <c r="AW67" s="5">
@@ -11848,33 +11867,33 @@
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>69859039.347912058</v>
       </c>
       <c r="H68" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>96892119.234738633</v>
       </c>
       <c r="I68" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>-27033079.886826575</v>
       </c>
       <c r="J68" s="6"/>
       <c r="K68" s="11">
-        <f t="shared" si="22"/>
+        <f>O68/E68</f>
         <v>1812.5480084936537</v>
       </c>
       <c r="L68" s="11">
-        <f t="shared" si="23"/>
+        <f>AS68/E68</f>
         <v>2387.2686655137659</v>
       </c>
       <c r="M68" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>-574.72065702011218</v>
       </c>
       <c r="N68" s="6"/>
       <c r="O68" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>65268041.237847976</v>
       </c>
       <c r="P68" s="5">
@@ -11884,7 +11903,7 @@
         <v>22196780.655000001</v>
       </c>
       <c r="R68" s="9">
-        <f t="shared" ref="R68:R88" si="34">SUM(S68+T68+U68)</f>
+        <f t="shared" ref="R68:R88" si="28">SUM(S68+T68+U68)</f>
         <v>4951083</v>
       </c>
       <c r="S68" s="5">
@@ -11910,7 +11929,7 @@
       </c>
       <c r="Z68" s="6"/>
       <c r="AA68" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>1667883</v>
       </c>
       <c r="AB68" s="6">
@@ -11927,7 +11946,7 @@
       </c>
       <c r="AF68" s="6"/>
       <c r="AG68" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>2354280.8200640772</v>
       </c>
       <c r="AH68" s="5">
@@ -11941,7 +11960,7 @@
       </c>
       <c r="AK68" s="5"/>
       <c r="AL68" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>105325080</v>
       </c>
       <c r="AM68" s="5">
@@ -11961,7 +11980,7 @@
       </c>
       <c r="AR68" s="5"/>
       <c r="AS68" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>85963157.376485199</v>
       </c>
       <c r="AT68" s="5">
@@ -11971,7 +11990,7 @@
         <v>32031460.781608433</v>
       </c>
       <c r="AV68" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>7630714.2258056663</v>
       </c>
       <c r="AW68" s="5">
@@ -12008,33 +12027,33 @@
       </c>
       <c r="F69" s="6"/>
       <c r="G69" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>43937092.086399987</v>
       </c>
       <c r="H69" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>35384467.720360145</v>
       </c>
       <c r="I69" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>8552624.3660398424</v>
       </c>
       <c r="J69" s="6"/>
       <c r="K69" s="11">
-        <f t="shared" si="22"/>
+        <f>O69/E69</f>
         <v>2061.7799343542383</v>
       </c>
       <c r="L69" s="11">
-        <f t="shared" si="23"/>
+        <f>AS69/E69</f>
         <v>1521.9931262004332</v>
       </c>
       <c r="M69" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>539.78680815380517</v>
       </c>
       <c r="N69" s="6"/>
       <c r="O69" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>41414973.541373588</v>
       </c>
       <c r="P69" s="5">
@@ -12044,7 +12063,7 @@
         <v>9105878.5250000004</v>
       </c>
       <c r="R69" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>3571979</v>
       </c>
       <c r="S69" s="5">
@@ -12070,7 +12089,7 @@
       </c>
       <c r="Z69" s="6"/>
       <c r="AA69" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>1104120</v>
       </c>
       <c r="AB69" s="6">
@@ -12087,7 +12106,7 @@
       </c>
       <c r="AF69" s="6"/>
       <c r="AG69" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>884922.48872720613</v>
       </c>
       <c r="AH69" s="5">
@@ -12101,7 +12120,7 @@
       </c>
       <c r="AK69" s="5"/>
       <c r="AL69" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>47520570</v>
       </c>
       <c r="AM69" s="5">
@@ -12121,7 +12140,7 @@
       </c>
       <c r="AR69" s="5"/>
       <c r="AS69" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>30572275.9259881</v>
       </c>
       <c r="AT69" s="5">
@@ -12131,7 +12150,7 @@
         <v>4600442.9555666121</v>
       </c>
       <c r="AV69" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>3858970.0257940916</v>
       </c>
       <c r="AW69" s="5">
@@ -12168,33 +12187,33 @@
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>764720889.50598216</v>
       </c>
       <c r="H70" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>1134452653.9682937</v>
       </c>
       <c r="I70" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>-369731764.46231151</v>
       </c>
       <c r="J70" s="6"/>
       <c r="K70" s="11">
-        <f t="shared" si="22"/>
+        <f>O70/E70</f>
         <v>1801.3728678031932</v>
       </c>
       <c r="L70" s="11">
-        <f t="shared" si="23"/>
+        <f>AS70/E70</f>
         <v>2532.9390976360282</v>
       </c>
       <c r="M70" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>-731.56622983283501</v>
       </c>
       <c r="N70" s="6"/>
       <c r="O70" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>717940759.20869827</v>
       </c>
       <c r="P70" s="5">
@@ -12204,7 +12223,7 @@
         <v>187516892.66500002</v>
       </c>
       <c r="R70" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>24603431</v>
       </c>
       <c r="S70" s="5">
@@ -12230,7 +12249,7 @@
       </c>
       <c r="Z70" s="6"/>
       <c r="AA70" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>9232128</v>
       </c>
       <c r="AB70" s="6">
@@ -12247,7 +12266,7 @@
       </c>
       <c r="AF70" s="6"/>
       <c r="AG70" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>32672701.29728388</v>
       </c>
       <c r="AH70" s="5">
@@ -12261,7 +12280,7 @@
       </c>
       <c r="AK70" s="5"/>
       <c r="AL70" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>1234536998</v>
       </c>
       <c r="AM70" s="5">
@@ -12281,7 +12300,7 @@
       </c>
       <c r="AR70" s="5"/>
       <c r="AS70" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>1009507943.2410343</v>
       </c>
       <c r="AT70" s="5">
@@ -12291,7 +12310,7 @@
         <v>276658014.46234047</v>
       </c>
       <c r="AV70" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>80642747.247509897</v>
       </c>
       <c r="AW70" s="5">
@@ -12328,33 +12347,33 @@
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>129078049.36682077</v>
       </c>
       <c r="H71" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>158108417.65605813</v>
       </c>
       <c r="I71" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>-29030368.289237365</v>
       </c>
       <c r="J71" s="6"/>
       <c r="K71" s="11">
-        <f t="shared" si="22"/>
+        <f>O71/E71</f>
         <v>1937.8610740696899</v>
       </c>
       <c r="L71" s="11">
-        <f t="shared" si="23"/>
+        <f>AS71/E71</f>
         <v>2247.9904941616364</v>
       </c>
       <c r="M71" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>-310.12942009194649</v>
       </c>
       <c r="N71" s="6"/>
       <c r="O71" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>121116317.12935562</v>
       </c>
       <c r="P71" s="5">
@@ -12364,7 +12383,7 @@
         <v>41792139.549999997</v>
       </c>
       <c r="R71" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>6516729.7000000002</v>
       </c>
       <c r="S71" s="5">
@@ -12390,7 +12409,7 @@
       </c>
       <c r="Z71" s="6"/>
       <c r="AA71" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>3392883</v>
       </c>
       <c r="AB71" s="6">
@@ -12407,7 +12426,7 @@
       </c>
       <c r="AF71" s="6"/>
       <c r="AG71" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>3504107.2902398324</v>
       </c>
       <c r="AH71" s="5">
@@ -12421,7 +12440,7 @@
       </c>
       <c r="AK71" s="5"/>
       <c r="AL71" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>210873970</v>
       </c>
       <c r="AM71" s="5">
@@ -12441,7 +12460,7 @@
       </c>
       <c r="AR71" s="5"/>
       <c r="AS71" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>140499405.88510227</v>
       </c>
       <c r="AT71" s="5">
@@ -12451,7 +12470,7 @@
         <v>54645444.477682739</v>
       </c>
       <c r="AV71" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>12750034.18613282</v>
       </c>
       <c r="AW71" s="5">
@@ -12488,33 +12507,33 @@
       </c>
       <c r="F72" s="6"/>
       <c r="G72" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>34443069.829606578</v>
       </c>
       <c r="H72" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>21949820.944307569</v>
       </c>
       <c r="I72" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>12493248.885299008</v>
       </c>
       <c r="J72" s="6"/>
       <c r="K72" s="11">
-        <f t="shared" si="22"/>
+        <f>O72/E72</f>
         <v>2817.8551044082678</v>
       </c>
       <c r="L72" s="11">
-        <f t="shared" si="23"/>
+        <f>AS72/E72</f>
         <v>1594.5186788233855</v>
       </c>
       <c r="M72" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>1223.3364255848824</v>
       </c>
       <c r="N72" s="6"/>
       <c r="O72" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>32932272.605219424</v>
       </c>
       <c r="P72" s="5">
@@ -12524,7 +12543,7 @@
         <v>12356890.629999999</v>
       </c>
       <c r="R72" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>3156936</v>
       </c>
       <c r="S72" s="5">
@@ -12550,7 +12569,7 @@
       </c>
       <c r="Z72" s="6"/>
       <c r="AA72" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>767355</v>
       </c>
       <c r="AB72" s="6">
@@ -12567,7 +12586,7 @@
       </c>
       <c r="AF72" s="6"/>
       <c r="AG72" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>397189.93438715418</v>
       </c>
       <c r="AH72" s="5">
@@ -12581,7 +12600,7 @@
       </c>
       <c r="AK72" s="5"/>
       <c r="AL72" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>29696694</v>
       </c>
       <c r="AM72" s="5">
@@ -12601,7 +12620,7 @@
       </c>
       <c r="AR72" s="5"/>
       <c r="AS72" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>18635139.799408905</v>
       </c>
       <c r="AT72" s="5">
@@ -12611,7 +12630,7 @@
         <v>3971085.8374369424</v>
       </c>
       <c r="AV72" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>2491524.9493723433</v>
       </c>
       <c r="AW72" s="5">
@@ -12648,33 +12667,33 @@
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>11740811.169236137</v>
       </c>
       <c r="H73" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>16420906.889790202</v>
       </c>
       <c r="I73" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>-4680095.720554065</v>
       </c>
       <c r="J73" s="6"/>
       <c r="K73" s="11">
-        <f t="shared" si="22"/>
+        <f>O73/E73</f>
         <v>2101.6416383307574</v>
       </c>
       <c r="L73" s="11">
-        <f t="shared" si="23"/>
+        <f>AS73/E73</f>
         <v>2885.9578889025383</v>
       </c>
       <c r="M73" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>-784.31625057178098</v>
       </c>
       <c r="N73" s="6"/>
       <c r="O73" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>10878097.120000001</v>
       </c>
       <c r="P73" s="5">
@@ -12684,7 +12703,7 @@
         <v>2650265.69</v>
       </c>
       <c r="R73" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>2678111.81</v>
       </c>
       <c r="S73" s="5">
@@ -12710,7 +12729,7 @@
       </c>
       <c r="Z73" s="6"/>
       <c r="AA73" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>612384</v>
       </c>
       <c r="AB73" s="6">
@@ -12727,7 +12746,7 @@
       </c>
       <c r="AF73" s="6"/>
       <c r="AG73" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>148613.68987161331</v>
       </c>
       <c r="AH73" s="5">
@@ -12741,7 +12760,7 @@
       </c>
       <c r="AK73" s="5"/>
       <c r="AL73" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>21385304</v>
       </c>
       <c r="AM73" s="5">
@@ -12761,7 +12780,7 @@
       </c>
       <c r="AR73" s="5"/>
       <c r="AS73" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>14937718.032959539</v>
       </c>
       <c r="AT73" s="5">
@@ -12771,7 +12790,7 @@
         <v>6212808</v>
       </c>
       <c r="AV73" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>1150877.7690981107</v>
       </c>
       <c r="AW73" s="5">
@@ -12808,33 +12827,33 @@
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>24987958.192195192</v>
       </c>
       <c r="H74" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>14548049.139612608</v>
       </c>
       <c r="I74" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>10439909.052582584</v>
       </c>
       <c r="J74" s="6"/>
       <c r="K74" s="11">
-        <f t="shared" si="22"/>
+        <f>O74/E74</f>
         <v>2730.2303671545892</v>
       </c>
       <c r="L74" s="11">
-        <f t="shared" si="23"/>
+        <f>AS74/E74</f>
         <v>1421.0712017591759</v>
       </c>
       <c r="M74" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>1309.1591653954133</v>
       </c>
       <c r="N74" s="6"/>
       <c r="O74" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>23739353.042409152</v>
       </c>
       <c r="P74" s="5">
@@ -12844,7 +12863,7 @@
         <v>8339599.9100000001</v>
       </c>
       <c r="R74" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>2959175</v>
       </c>
       <c r="S74" s="5">
@@ -12870,7 +12889,7 @@
       </c>
       <c r="Z74" s="6"/>
       <c r="AA74" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>740103</v>
       </c>
       <c r="AB74" s="6">
@@ -12887,7 +12906,7 @@
       </c>
       <c r="AF74" s="6"/>
       <c r="AG74" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>226331.85978603922</v>
       </c>
       <c r="AH74" s="5">
@@ -12901,7 +12920,7 @@
       </c>
       <c r="AK74" s="5"/>
       <c r="AL74" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>21610760</v>
       </c>
       <c r="AM74" s="5">
@@ -12921,7 +12940,7 @@
       </c>
       <c r="AR74" s="5"/>
       <c r="AS74" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>12356214.099296035</v>
       </c>
       <c r="AT74" s="5">
@@ -12931,7 +12950,7 @@
         <v>2322699</v>
       </c>
       <c r="AV74" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>1752133.2034669463</v>
       </c>
       <c r="AW74" s="5">
@@ -12968,33 +12987,33 @@
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>138220947.23698732</v>
       </c>
       <c r="H75" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>105881959.45769916</v>
       </c>
       <c r="I75" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>32338987.779288158</v>
       </c>
       <c r="J75" s="6"/>
       <c r="K75" s="11">
-        <f t="shared" si="22"/>
+        <f>O75/E75</f>
         <v>2173.3687844501287</v>
       </c>
       <c r="L75" s="11">
-        <f t="shared" si="23"/>
+        <f>AS75/E75</f>
         <v>1578.4670461341152</v>
       </c>
       <c r="M75" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>594.90173831601351</v>
       </c>
       <c r="N75" s="6"/>
       <c r="O75" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>128226584.91377313</v>
       </c>
       <c r="P75" s="5">
@@ -13004,7 +13023,7 @@
         <v>43548983.200000003</v>
       </c>
       <c r="R75" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>7564100.4500000002</v>
       </c>
       <c r="S75" s="5">
@@ -13030,7 +13049,7 @@
       </c>
       <c r="Z75" s="6"/>
       <c r="AA75" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>6653856</v>
       </c>
       <c r="AB75" s="6">
@@ -13047,7 +13066,7 @@
       </c>
       <c r="AF75" s="6"/>
       <c r="AG75" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>2312383.0332141696</v>
       </c>
       <c r="AH75" s="5">
@@ -13061,7 +13080,7 @@
       </c>
       <c r="AK75" s="5"/>
       <c r="AL75" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>110050676</v>
       </c>
       <c r="AM75" s="5">
@@ -13081,7 +13100,7 @@
       </c>
       <c r="AR75" s="5"/>
       <c r="AS75" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>93127977.25486666</v>
       </c>
       <c r="AT75" s="5">
@@ -13091,7 +13110,7 @@
         <v>26474543.882052705</v>
       </c>
       <c r="AV75" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>10113873.706928521</v>
       </c>
       <c r="AW75" s="5">
@@ -13128,33 +13147,33 @@
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>99812389.922930107</v>
       </c>
       <c r="H76" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>103798105.86103667</v>
       </c>
       <c r="I76" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>-3985715.9381065667</v>
       </c>
       <c r="J76" s="6"/>
       <c r="K76" s="11">
-        <f t="shared" si="22"/>
+        <f>O76/E76</f>
         <v>1703.3691752519176</v>
       </c>
       <c r="L76" s="11">
-        <f t="shared" si="23"/>
+        <f>AS76/E76</f>
         <v>1669.8943927180078</v>
       </c>
       <c r="M76" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>33.474782533909774</v>
       </c>
       <c r="N76" s="6"/>
       <c r="O76" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>91789454.74680008</v>
       </c>
       <c r="P76" s="5">
@@ -13164,7 +13183,7 @@
         <v>24599315.84</v>
       </c>
       <c r="R76" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>5512157</v>
       </c>
       <c r="S76" s="5">
@@ -13190,7 +13209,7 @@
       </c>
       <c r="Z76" s="6"/>
       <c r="AA76" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>2016983</v>
       </c>
       <c r="AB76" s="6">
@@ -13207,7 +13226,7 @@
       </c>
       <c r="AF76" s="6"/>
       <c r="AG76" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>4965368.8861300237</v>
       </c>
       <c r="AH76" s="5">
@@ -13221,7 +13240,7 @@
       </c>
       <c r="AK76" s="5"/>
       <c r="AL76" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>144986744</v>
       </c>
       <c r="AM76" s="5">
@@ -13241,7 +13260,7 @@
       </c>
       <c r="AR76" s="5"/>
       <c r="AS76" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>89985599.140395284</v>
       </c>
       <c r="AT76" s="5">
@@ -13251,7 +13270,7 @@
         <v>14157681.850140655</v>
       </c>
       <c r="AV76" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>11172663.871210273</v>
       </c>
       <c r="AW76" s="5">
@@ -13288,33 +13307,33 @@
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>34145237.328200489</v>
       </c>
       <c r="H77" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>30470261.061109543</v>
       </c>
       <c r="I77" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>3674976.2670909464</v>
       </c>
       <c r="J77" s="6"/>
       <c r="K77" s="11">
-        <f t="shared" si="22"/>
+        <f>O77/E77</f>
         <v>2620.0962808940894</v>
       </c>
       <c r="L77" s="11">
-        <f t="shared" si="23"/>
+        <f>AS77/E77</f>
         <v>2162.5194490588192</v>
       </c>
       <c r="M77" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>457.57683183527024</v>
       </c>
       <c r="N77" s="6"/>
       <c r="O77" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>32596617.830603365</v>
       </c>
       <c r="P77" s="5">
@@ -13324,7 +13343,7 @@
         <v>9993324.6150000002</v>
       </c>
       <c r="R77" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>3192098.8</v>
       </c>
       <c r="S77" s="5">
@@ -13350,7 +13369,7 @@
       </c>
       <c r="Z77" s="6"/>
       <c r="AA77" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>753088</v>
       </c>
       <c r="AB77" s="6">
@@ -13367,7 +13386,7 @@
       </c>
       <c r="AF77" s="6"/>
       <c r="AG77" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>408822.49813859112</v>
       </c>
       <c r="AH77" s="5">
@@ -13381,7 +13400,7 @@
       </c>
       <c r="AK77" s="5"/>
       <c r="AL77" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>33346180</v>
       </c>
       <c r="AM77" s="5">
@@ -13401,7 +13420,7 @@
       </c>
       <c r="AR77" s="5"/>
       <c r="AS77" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>26903904.46574077</v>
       </c>
       <c r="AT77" s="5">
@@ -13411,7 +13430,7 @@
         <v>7667665.5438087005</v>
       </c>
       <c r="AV77" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>2591035.570214171</v>
       </c>
       <c r="AW77" s="5">
@@ -13448,33 +13467,33 @@
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>69079516.162249908</v>
       </c>
       <c r="H78" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>56026981.852263898</v>
       </c>
       <c r="I78" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>13052534.30998601</v>
       </c>
       <c r="J78" s="6"/>
       <c r="K78" s="11">
-        <f t="shared" si="22"/>
+        <f>O78/E78</f>
         <v>2308.2218045562427</v>
       </c>
       <c r="L78" s="11">
-        <f t="shared" si="23"/>
+        <f>AS78/E78</f>
         <v>1744.0914169765031</v>
       </c>
       <c r="M78" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>564.13038757973959</v>
       </c>
       <c r="N78" s="6"/>
       <c r="O78" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>65938972.290758178</v>
       </c>
       <c r="P78" s="5">
@@ -13484,7 +13503,7 @@
         <v>25510035.66</v>
       </c>
       <c r="R78" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>5144208.84</v>
       </c>
       <c r="S78" s="5">
@@ -13510,7 +13529,7 @@
       </c>
       <c r="Z78" s="6"/>
       <c r="AA78" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>1292980</v>
       </c>
       <c r="AB78" s="6">
@@ -13527,7 +13546,7 @@
       </c>
       <c r="AF78" s="6"/>
       <c r="AG78" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>1182516.5814917176</v>
       </c>
       <c r="AH78" s="5">
@@ -13541,7 +13560,7 @@
       </c>
       <c r="AK78" s="5"/>
       <c r="AL78" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>91162782</v>
       </c>
       <c r="AM78" s="5">
@@ -13561,7 +13580,7 @@
       </c>
       <c r="AR78" s="5"/>
       <c r="AS78" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>49823459.508767761</v>
       </c>
       <c r="AT78" s="5">
@@ -13571,7 +13590,7 @@
         <v>13583059.053213447</v>
       </c>
       <c r="AV78" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>5215469.2623916669</v>
       </c>
       <c r="AW78" s="5">
@@ -13608,33 +13627,33 @@
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>151502834.52704147</v>
       </c>
       <c r="H79" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>254892189.03563458</v>
       </c>
       <c r="I79" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>-103389354.50859311</v>
       </c>
       <c r="J79" s="6"/>
       <c r="K79" s="11">
-        <f t="shared" si="22"/>
+        <f>O79/E79</f>
         <v>1555.4558288112003</v>
       </c>
       <c r="L79" s="11">
-        <f t="shared" si="23"/>
+        <f>AS79/E79</f>
         <v>2498.8712582741573</v>
       </c>
       <c r="M79" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>-943.41542946295704</v>
       </c>
       <c r="N79" s="6"/>
       <c r="O79" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>141611809.56662929</v>
       </c>
       <c r="P79" s="5">
@@ -13644,7 +13663,7 @@
         <v>28954261.715</v>
       </c>
       <c r="R79" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>7266331</v>
       </c>
       <c r="S79" s="5">
@@ -13670,7 +13689,7 @@
       </c>
       <c r="Z79" s="6"/>
       <c r="AA79" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>2243490</v>
       </c>
       <c r="AB79" s="6">
@@ -13687,7 +13706,7 @@
       </c>
       <c r="AF79" s="6"/>
       <c r="AG79" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>6740346.6704121931</v>
       </c>
       <c r="AH79" s="5">
@@ -13701,7 +13720,7 @@
       </c>
       <c r="AK79" s="5"/>
       <c r="AL79" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>316740956</v>
       </c>
       <c r="AM79" s="5">
@@ -13721,7 +13740,7 @@
       </c>
       <c r="AR79" s="5"/>
       <c r="AS79" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>227502237.09579584</v>
       </c>
       <c r="AT79" s="5">
@@ -13731,7 +13750,7 @@
         <v>39430098.147909842</v>
       </c>
       <c r="AV79" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>17877885.436501548</v>
       </c>
       <c r="AW79" s="5">
@@ -13768,33 +13787,33 @@
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>85094340.122012004</v>
       </c>
       <c r="H80" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>62071314.970216542</v>
       </c>
       <c r="I80" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>23023025.151795462</v>
       </c>
       <c r="J80" s="6"/>
       <c r="K80" s="11">
-        <f t="shared" si="22"/>
+        <f>O80/E80</f>
         <v>2249.0904116369761</v>
       </c>
       <c r="L80" s="11">
-        <f t="shared" si="23"/>
+        <f>AS80/E80</f>
         <v>1518.9501379866529</v>
       </c>
       <c r="M80" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>730.14027365032325</v>
       </c>
       <c r="N80" s="6"/>
       <c r="O80" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>79586313.306186035</v>
       </c>
       <c r="P80" s="5">
@@ -13804,7 +13823,7 @@
         <v>27814786.460000001</v>
       </c>
       <c r="R80" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>4715074</v>
       </c>
       <c r="S80" s="5">
@@ -13830,7 +13849,7 @@
       </c>
       <c r="Z80" s="6"/>
       <c r="AA80" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>1885077</v>
       </c>
       <c r="AB80" s="6">
@@ -13847,7 +13866,7 @@
       </c>
       <c r="AF80" s="6"/>
       <c r="AG80" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>2367473.0567273591</v>
       </c>
       <c r="AH80" s="5">
@@ -13861,7 +13880,7 @@
       </c>
       <c r="AK80" s="5"/>
       <c r="AL80" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>81844698</v>
       </c>
       <c r="AM80" s="5">
@@ -13881,7 +13900,7 @@
       </c>
       <c r="AR80" s="5"/>
       <c r="AS80" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>53749569.582795702</v>
       </c>
       <c r="AT80" s="5">
@@ -13891,7 +13910,7 @@
         <v>13850576.40918461</v>
       </c>
       <c r="AV80" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>6650651.9753987221</v>
       </c>
       <c r="AW80" s="5">
@@ -13928,33 +13947,33 @@
       </c>
       <c r="F81" s="6"/>
       <c r="G81" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>55109223.397612296</v>
       </c>
       <c r="H81" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>54826227.114890531</v>
       </c>
       <c r="I81" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>282996.28272176534</v>
       </c>
       <c r="J81" s="6"/>
       <c r="K81" s="11">
-        <f t="shared" si="22"/>
+        <f>O81/E81</f>
         <v>2000.0318843248174</v>
       </c>
       <c r="L81" s="11">
-        <f t="shared" si="23"/>
+        <f>AS81/E81</f>
         <v>1807.3868146785776</v>
       </c>
       <c r="M81" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>192.64506964623979</v>
       </c>
       <c r="N81" s="6"/>
       <c r="O81" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>51786825.580822498</v>
       </c>
       <c r="P81" s="5">
@@ -13964,7 +13983,7 @@
         <v>17387800.449999999</v>
       </c>
       <c r="R81" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>4456000</v>
       </c>
       <c r="S81" s="5">
@@ -13990,7 +14009,7 @@
       </c>
       <c r="Z81" s="6"/>
       <c r="AA81" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>1579455</v>
       </c>
       <c r="AB81" s="6">
@@ -14007,7 +14026,7 @@
       </c>
       <c r="AF81" s="6"/>
       <c r="AG81" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>1221675.5267897972</v>
       </c>
       <c r="AH81" s="5">
@@ -14021,7 +14040,7 @@
       </c>
       <c r="AK81" s="5"/>
       <c r="AL81" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>54869552</v>
       </c>
       <c r="AM81" s="5">
@@ -14041,7 +14060,7 @@
       </c>
       <c r="AR81" s="5"/>
       <c r="AS81" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>46798666.792472407</v>
       </c>
       <c r="AT81" s="5">
@@ -14051,7 +14070,7 @@
         <v>14202203.893134626</v>
       </c>
       <c r="AV81" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>5777654.8705850188</v>
       </c>
       <c r="AW81" s="5">
@@ -14088,33 +14107,33 @@
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>119909334.16102733</v>
       </c>
       <c r="H82" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>166624923.98745501</v>
       </c>
       <c r="I82" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>-46715589.826427683</v>
       </c>
       <c r="J82" s="6"/>
       <c r="K82" s="11">
-        <f t="shared" si="22"/>
+        <f>O82/E82</f>
         <v>1775.7159542960128</v>
       </c>
       <c r="L82" s="11">
-        <f t="shared" si="23"/>
+        <f>AS82/E82</f>
         <v>2331.7281460231934</v>
       </c>
       <c r="M82" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>-556.01219172718061</v>
       </c>
       <c r="N82" s="6"/>
       <c r="O82" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>113668905.38235067</v>
       </c>
       <c r="P82" s="5">
@@ -14124,7 +14143,7 @@
         <v>38319926.745000005</v>
       </c>
       <c r="R82" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>8148527.29</v>
       </c>
       <c r="S82" s="5">
@@ -14150,7 +14169,7 @@
       </c>
       <c r="Z82" s="6"/>
       <c r="AA82" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>2129831</v>
       </c>
       <c r="AB82" s="6">
@@ -14167,7 +14186,7 @@
       </c>
       <c r="AF82" s="6"/>
       <c r="AG82" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>2905585.7786766598</v>
       </c>
       <c r="AH82" s="5">
@@ -14181,7 +14200,7 @@
       </c>
       <c r="AK82" s="5"/>
       <c r="AL82" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>156161784</v>
       </c>
       <c r="AM82" s="5">
@@ -14201,7 +14220,7 @@
       </c>
       <c r="AR82" s="5"/>
       <c r="AS82" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>149260913.81138268</v>
       </c>
       <c r="AT82" s="5">
@@ -14211,7 +14230,7 @@
         <v>69921106.897605404</v>
       </c>
       <c r="AV82" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>10607987.879300293</v>
       </c>
       <c r="AW82" s="5">
@@ -14248,33 +14267,33 @@
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>16431590.093841763</v>
       </c>
       <c r="H83" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>9633111.5294309128</v>
       </c>
       <c r="I83" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>6798478.5644108504</v>
       </c>
       <c r="J83" s="6"/>
       <c r="K83" s="11">
-        <f t="shared" si="22"/>
+        <f>O83/E83</f>
         <v>2956.3734315423094</v>
       </c>
       <c r="L83" s="11">
-        <f t="shared" si="23"/>
+        <f>AS83/E83</f>
         <v>1537.7361894270221</v>
       </c>
       <c r="M83" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>1418.6372421152873</v>
       </c>
       <c r="N83" s="6"/>
       <c r="O83" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>15577131.610796429</v>
       </c>
       <c r="P83" s="5">
@@ -14284,7 +14303,7 @@
         <v>4923233.2949999999</v>
       </c>
       <c r="R83" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>2422577</v>
       </c>
       <c r="S83" s="5">
@@ -14310,7 +14329,7 @@
       </c>
       <c r="Z83" s="6"/>
       <c r="AA83" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>351747</v>
       </c>
       <c r="AB83" s="6">
@@ -14327,7 +14346,7 @@
       </c>
       <c r="AF83" s="6"/>
       <c r="AG83" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>213784.19304533541</v>
       </c>
       <c r="AH83" s="5">
@@ -14341,7 +14360,7 @@
       </c>
       <c r="AK83" s="5"/>
       <c r="AL83" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>14369054</v>
       </c>
       <c r="AM83" s="5">
@@ -14361,7 +14380,7 @@
       </c>
       <c r="AR83" s="5"/>
       <c r="AS83" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>8102331.9820909789</v>
       </c>
       <c r="AT83" s="5">
@@ -14371,7 +14390,7 @@
         <v>1532760.6155239872</v>
       </c>
       <c r="AV83" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>1302076.9089440189</v>
       </c>
       <c r="AW83" s="5">
@@ -14408,33 +14427,33 @@
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>81027683.631366715</v>
       </c>
       <c r="H84" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>74708902.272248894</v>
       </c>
       <c r="I84" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>6318781.3591178209</v>
       </c>
       <c r="J84" s="6"/>
       <c r="K84" s="11">
-        <f t="shared" si="22"/>
+        <f>O84/E84</f>
         <v>1959.9919822049187</v>
       </c>
       <c r="L84" s="11">
-        <f t="shared" si="23"/>
+        <f>AS84/E84</f>
         <v>1703.6763013856123</v>
       </c>
       <c r="M84" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>256.31568081930641</v>
       </c>
       <c r="N84" s="6"/>
       <c r="O84" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>75363651.707761332</v>
       </c>
       <c r="P84" s="5">
@@ -14444,7 +14463,7 @@
         <v>26316571.975000001</v>
       </c>
       <c r="R84" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>3774412</v>
       </c>
       <c r="S84" s="5">
@@ -14470,7 +14489,7 @@
       </c>
       <c r="Z84" s="6"/>
       <c r="AA84" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>1925929</v>
       </c>
       <c r="AB84" s="6">
@@ -14487,7 +14506,7 @@
       </c>
       <c r="AF84" s="6"/>
       <c r="AG84" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>2921524.6336053791</v>
       </c>
       <c r="AH84" s="5">
@@ -14501,7 +14520,7 @@
       </c>
       <c r="AK84" s="5"/>
       <c r="AL84" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>93560090</v>
       </c>
       <c r="AM84" s="5">
@@ -14521,7 +14540,7 @@
       </c>
       <c r="AR84" s="5"/>
       <c r="AS84" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>65508057.464578182</v>
       </c>
       <c r="AT84" s="5">
@@ -14531,7 +14550,7 @@
         <v>20932884.076670546</v>
       </c>
       <c r="AV84" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>6362715.8409876833</v>
       </c>
       <c r="AW84" s="5">
@@ -14568,33 +14587,33 @@
       </c>
       <c r="F85" s="6"/>
       <c r="G85" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>132549825.05062096</v>
       </c>
       <c r="H85" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>79583890.208462834</v>
       </c>
       <c r="I85" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>52965934.842158124</v>
       </c>
       <c r="J85" s="6"/>
       <c r="K85" s="11">
-        <f t="shared" si="22"/>
+        <f>O85/E85</f>
         <v>2883.2952291218767</v>
       </c>
       <c r="L85" s="11">
-        <f t="shared" si="23"/>
+        <f>AS85/E85</f>
         <v>1572.4963742707828</v>
       </c>
       <c r="M85" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>1310.7988548510939</v>
       </c>
       <c r="N85" s="6"/>
       <c r="O85" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>128139406.57263444</v>
       </c>
       <c r="P85" s="5">
@@ -14604,7 +14623,7 @@
         <v>53744897.490000002</v>
       </c>
       <c r="R85" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>6268878.2999999998</v>
       </c>
       <c r="S85" s="5">
@@ -14630,7 +14649,7 @@
       </c>
       <c r="Z85" s="6"/>
       <c r="AA85" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>1840922</v>
       </c>
       <c r="AB85" s="6">
@@ -14647,7 +14666,7 @@
       </c>
       <c r="AF85" s="6"/>
       <c r="AG85" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>1670352.1879865145</v>
       </c>
       <c r="AH85" s="5">
@@ -14661,7 +14680,7 @@
       </c>
       <c r="AK85" s="5"/>
       <c r="AL85" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>77045834</v>
       </c>
       <c r="AM85" s="5">
@@ -14681,7 +14700,7 @@
       </c>
       <c r="AR85" s="5"/>
       <c r="AS85" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>69884883.865342125</v>
       </c>
       <c r="AT85" s="5">
@@ -14691,7 +14710,7 @@
         <v>28653938.046568211</v>
       </c>
       <c r="AV85" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>7017286.2247159155</v>
       </c>
       <c r="AW85" s="5">
@@ -14728,33 +14747,33 @@
       </c>
       <c r="F86" s="6"/>
       <c r="G86" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>77233537.962875769</v>
       </c>
       <c r="H86" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>65142723.54354015</v>
       </c>
       <c r="I86" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>12090814.419335619</v>
       </c>
       <c r="J86" s="6"/>
       <c r="K86" s="11">
-        <f t="shared" si="22"/>
+        <f>O86/E86</f>
         <v>2251.9662312459886</v>
       </c>
       <c r="L86" s="11">
-        <f t="shared" si="23"/>
+        <f>AS86/E86</f>
         <v>1747.08471808847</v>
       </c>
       <c r="M86" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>504.88151315751861</v>
       </c>
       <c r="N86" s="6"/>
       <c r="O86" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>73197910.380419612</v>
       </c>
       <c r="P86" s="5">
@@ -14764,7 +14783,7 @@
         <v>29297662.774999999</v>
       </c>
       <c r="R86" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>5122797.57</v>
       </c>
       <c r="S86" s="5">
@@ -14790,7 +14809,7 @@
       </c>
       <c r="Z86" s="6"/>
       <c r="AA86" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>1768896</v>
       </c>
       <c r="AB86" s="6">
@@ -14807,7 +14826,7 @@
       </c>
       <c r="AF86" s="6"/>
       <c r="AG86" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>1390322.2924561526</v>
       </c>
       <c r="AH86" s="5">
@@ -14821,7 +14840,7 @@
       </c>
       <c r="AK86" s="5"/>
       <c r="AL86" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>79191482</v>
       </c>
       <c r="AM86" s="5">
@@ -14841,7 +14860,7 @@
       </c>
       <c r="AR86" s="5"/>
       <c r="AS86" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>56787241.676747628</v>
       </c>
       <c r="AT86" s="5">
@@ -14851,7 +14870,7 @@
         <v>18979312.771303315</v>
       </c>
       <c r="AV86" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>6216490.1423000805</v>
       </c>
       <c r="AW86" s="5">
@@ -14888,33 +14907,33 @@
       </c>
       <c r="F87" s="6"/>
       <c r="G87" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>680247779.62174809</v>
       </c>
       <c r="H87" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>785969311.43136072</v>
       </c>
       <c r="I87" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>-105721531.80961263</v>
       </c>
       <c r="J87" s="6"/>
       <c r="K87" s="11">
-        <f t="shared" si="22"/>
+        <f>O87/E87</f>
         <v>1926.8655015731076</v>
       </c>
       <c r="L87" s="11">
-        <f t="shared" si="23"/>
+        <f>AS87/E87</f>
         <v>2100.5039041386894</v>
       </c>
       <c r="M87" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>-173.63840256558183</v>
       </c>
       <c r="N87" s="6"/>
       <c r="O87" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>637491890.00245321</v>
       </c>
       <c r="P87" s="5">
@@ -14924,7 +14943,7 @@
         <v>177393727.375</v>
       </c>
       <c r="R87" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>23144413.07</v>
       </c>
       <c r="S87" s="5">
@@ -14950,7 +14969,7 @@
       </c>
       <c r="Z87" s="6"/>
       <c r="AA87" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>8894355</v>
       </c>
       <c r="AB87" s="6">
@@ -14967,7 +14986,7 @@
       </c>
       <c r="AF87" s="6"/>
       <c r="AG87" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>28908089.619294837</v>
       </c>
       <c r="AH87" s="5">
@@ -14981,7 +15000,7 @@
       </c>
       <c r="AK87" s="5"/>
       <c r="AL87" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>929123440</v>
       </c>
       <c r="AM87" s="5">
@@ -15001,7 +15020,7 @@
       </c>
       <c r="AR87" s="5"/>
       <c r="AS87" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>694939113.66086054</v>
       </c>
       <c r="AT87" s="5">
@@ -15011,7 +15030,7 @@
         <v>199413448.25882921</v>
       </c>
       <c r="AV87" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>60094002.551482067</v>
       </c>
       <c r="AW87" s="5">
@@ -15048,33 +15067,33 @@
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>36534969.574398838</v>
       </c>
       <c r="H88" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>29413338.690429237</v>
       </c>
       <c r="I88" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>7121630.8839696012</v>
       </c>
       <c r="J88" s="6"/>
       <c r="K88" s="11">
-        <f t="shared" si="22"/>
+        <f>O88/E88</f>
         <v>2089.3172149842471</v>
       </c>
       <c r="L88" s="11">
-        <f t="shared" si="23"/>
+        <f>AS88/E88</f>
         <v>1575.0070001577537</v>
       </c>
       <c r="M88" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>514.31021482649339</v>
       </c>
       <c r="N88" s="6"/>
       <c r="O88" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>33851117.517174773</v>
       </c>
       <c r="P88" s="5">
@@ -15084,7 +15103,7 @@
         <v>12381155.26</v>
       </c>
       <c r="R88" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>4131762.9</v>
       </c>
       <c r="S88" s="5">
@@ -15110,7 +15129,7 @@
       </c>
       <c r="Z88" s="6"/>
       <c r="AA88" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>1931527</v>
       </c>
       <c r="AB88" s="6">
@@ -15127,7 +15146,7 @@
       </c>
       <c r="AF88" s="6"/>
       <c r="AG88" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>457759.31735905935</v>
       </c>
       <c r="AH88" s="5">
@@ -15141,7 +15160,7 @@
       </c>
       <c r="AK88" s="5"/>
       <c r="AL88" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>44439048</v>
       </c>
       <c r="AM88" s="5">
@@ -15161,7 +15180,7 @@
       </c>
       <c r="AR88" s="5"/>
       <c r="AS88" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>25518263.416555926</v>
       </c>
       <c r="AT88" s="5">
@@ -15171,7 +15190,7 @@
         <v>7231666.047470293</v>
       </c>
       <c r="AV88" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>3379297.3471255675</v>
       </c>
       <c r="AW88" s="5">
@@ -15204,7 +15223,7 @@
         <v>222</v>
       </c>
       <c r="E89" s="12">
-        <f t="shared" ref="E89" si="35">SUM(E2:E88)</f>
+        <f t="shared" ref="E89" si="29">SUM(E2:E88)</f>
         <v>5303925</v>
       </c>
       <c r="F89" s="12"/>
@@ -15221,164 +15240,164 @@
         <v>-2376607312.1431451</v>
       </c>
       <c r="J89" s="9">
-        <f t="shared" ref="J89:BA89" si="36">SUM(J2:J88)</f>
+        <f t="shared" ref="J89:BA89" si="30">SUM(J2:J88)</f>
         <v>0</v>
       </c>
       <c r="K89" s="11">
-        <f t="shared" si="22"/>
+        <f>O89/E89</f>
         <v>2061.4872398652451</v>
       </c>
       <c r="L89" s="11">
-        <f t="shared" si="23"/>
+        <f>AS89/E89</f>
         <v>2329.501917643443</v>
       </c>
       <c r="M89" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>-268.01467777819789</v>
       </c>
       <c r="N89" s="9"/>
       <c r="O89" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>10933973708.702271</v>
       </c>
       <c r="P89" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>6145177042.3622723</v>
       </c>
       <c r="Q89" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>3606668683.3599992</v>
       </c>
       <c r="R89" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>590754520.9799999</v>
       </c>
       <c r="S89" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>428757346.3499999</v>
       </c>
       <c r="T89" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>129407333.33</v>
       </c>
       <c r="U89" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>32589841.300000001</v>
       </c>
       <c r="V89" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>426438012</v>
       </c>
       <c r="W89" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>18030664</v>
       </c>
       <c r="X89" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>84849404.950000033</v>
       </c>
       <c r="Y89" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>164935450</v>
       </c>
       <c r="Z89" s="9"/>
       <c r="AA89" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>198299656</v>
       </c>
       <c r="AB89" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>152150191</v>
       </c>
       <c r="AC89" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>23558178</v>
       </c>
       <c r="AD89" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>16545620</v>
       </c>
       <c r="AE89" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>6045667</v>
       </c>
       <c r="AF89" s="9"/>
       <c r="AG89" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>413876211</v>
       </c>
       <c r="AH89" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>273991331.00000006</v>
       </c>
       <c r="AI89" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>137550899.99999997</v>
       </c>
       <c r="AJ89" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>2333979.9999999995</v>
       </c>
       <c r="AK89" s="9"/>
       <c r="AL89" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>16404388456</v>
       </c>
       <c r="AM89" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>6631330391</v>
       </c>
       <c r="AN89" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>794163139</v>
       </c>
       <c r="AO89" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>776700698</v>
       </c>
       <c r="AP89" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>198299656</v>
       </c>
       <c r="AQ89" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>8003894572</v>
       </c>
       <c r="AR89" s="9"/>
       <c r="AS89" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>12355503458.536999</v>
       </c>
       <c r="AT89" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>5933286595</v>
       </c>
       <c r="AU89" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>3792834309</v>
       </c>
       <c r="AV89" s="9">
+        <f t="shared" si="24"/>
+        <v>1008244129.2584212</v>
+      </c>
+      <c r="AW89" s="9">
         <f t="shared" si="30"/>
-        <v>1008244129.2584212</v>
-      </c>
-      <c r="AW89" s="9">
-        <f t="shared" si="36"/>
         <v>468511535.59842128</v>
       </c>
       <c r="AX89" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>539732593.65999985</v>
       </c>
       <c r="AY89" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>844437727.27857745</v>
       </c>
       <c r="AZ89" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>661889368.99999976</v>
       </c>
       <c r="BA89" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>776700698</v>
       </c>
     </row>
@@ -15399,22 +15418,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="51.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="13" customFormat="1">
+      <c r="A6" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
